--- a/src/statuscode_led_mapping_template.xlsx
+++ b/src/statuscode_led_mapping_template.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\github\rnv-train-monitor\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EEC5B0-E1C7-44B0-9BF3-48E0877F1010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEC01A2-F2B2-4B91-96FC-0E1F4D20F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6BC448DE-82B4-40A0-A0A8-5C16E427463C}"/>
   </bookViews>
   <sheets>
     <sheet name="statuscode_led_mapping" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="202">
   <si>
     <t>statuscode</t>
   </si>
@@ -433,9 +446,6 @@
     <t>69601_69701_DEPOT</t>
   </si>
   <si>
-    <t>22 E-B stopped first</t>
-  </si>
-  <si>
     <t>69701_69501_DEPOT</t>
   </si>
   <si>
@@ -566,13 +576,76 @@
   </si>
   <si>
     <t>DEPOT_116821_114601</t>
+  </si>
+  <si>
+    <t>26 H-K transit</t>
+  </si>
+  <si>
+    <t>26 K-H transit</t>
+  </si>
+  <si>
+    <t>26 H-K stopped</t>
+  </si>
+  <si>
+    <t>26 K-H stopped</t>
+  </si>
+  <si>
+    <t>26 H-K stopped first</t>
+  </si>
+  <si>
+    <t>26 H-K stopped last</t>
+  </si>
+  <si>
+    <t>26 K-H stopped last</t>
+  </si>
+  <si>
+    <t>26 K-H stopped first</t>
+  </si>
+  <si>
+    <t>Heiligenbergschule &gt; Kapellenweg</t>
+  </si>
+  <si>
+    <t>Kirchheim Rathaus &gt; Kirchheim Friedhof</t>
+  </si>
+  <si>
+    <t>Kirchheim Friedhof &gt; Kirchheim Rathaus</t>
+  </si>
+  <si>
+    <t>Kapellenweg &gt; Heiligenbergschule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapellenweg   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirchheim Rathaus  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirchheim Friedhof </t>
+  </si>
+  <si>
+    <t>Kirchheim Rathaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heiligenbergschule  </t>
+  </si>
+  <si>
+    <t>25 H-K stopped first</t>
+  </si>
+  <si>
+    <t>Heiligenbergschule</t>
+  </si>
+  <si>
+    <t>Kirchheim Friedhof</t>
+  </si>
+  <si>
+    <t>Kapellenweg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,6 +776,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1426,13 +1505,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049D7F86-3D4A-4BAF-A7FA-ECA534A64199}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G235" sqref="G235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2717,7 +2803,7 @@
         <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
         <v>70</v>
@@ -2746,7 +2832,7 @@
         <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G53">
         <v>37</v>
@@ -2772,7 +2858,7 @@
         <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G54">
         <v>34</v>
@@ -2798,7 +2884,7 @@
         <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G55">
         <v>32</v>
@@ -2824,7 +2910,7 @@
         <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G56">
         <v>33</v>
@@ -2850,7 +2936,7 @@
         <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G57">
         <v>35</v>
@@ -2876,7 +2962,7 @@
         <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G58">
         <v>36</v>
@@ -2902,7 +2988,7 @@
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G59">
         <v>36</v>
@@ -2928,7 +3014,7 @@
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G60">
         <v>36</v>
@@ -2954,7 +3040,7 @@
         <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G61">
         <v>36</v>
@@ -2980,7 +3066,7 @@
         <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G62">
         <v>36</v>
@@ -3006,7 +3092,7 @@
         <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="G63">
         <v>36</v>
@@ -3032,7 +3118,7 @@
         <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s">
         <v>135</v>
@@ -3061,7 +3147,7 @@
         <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
         <v>93</v>
@@ -3084,13 +3170,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
         <v>98</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G66">
         <v>35</v>
@@ -3110,13 +3196,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
         <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G67">
         <v>35</v>
@@ -3136,13 +3222,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
         <v>102</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G68">
         <v>35</v>
@@ -3162,13 +3248,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
         <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G69">
         <v>35</v>
@@ -3188,13 +3274,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
         <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G70">
         <v>35</v>
@@ -3214,13 +3300,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
         <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G71">
         <v>34</v>
@@ -3240,13 +3326,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
         <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G72">
         <v>32</v>
@@ -3266,13 +3352,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
         <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G73">
         <v>31</v>
@@ -3292,13 +3378,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
         <v>114</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G74">
         <v>33</v>
@@ -3318,13 +3404,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
         <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G75">
         <v>36</v>
@@ -3344,13 +3430,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
         <v>118</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G76">
         <v>36</v>
@@ -3370,16 +3456,16 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
         <v>149</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" t="s">
         <v>150</v>
-      </c>
-      <c r="C77" t="s">
-        <v>137</v>
-      </c>
-      <c r="D77" t="s">
-        <v>151</v>
       </c>
       <c r="G77">
         <v>40</v>
@@ -3399,16 +3485,16 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" t="s">
         <v>152</v>
       </c>
-      <c r="B78" t="s">
-        <v>153</v>
-      </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G78">
         <v>40</v>
@@ -3428,13 +3514,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
         <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G79">
         <v>37</v>
@@ -3454,13 +3540,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
         <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G80">
         <v>37</v>
@@ -3480,13 +3566,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
         <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G81">
         <v>34</v>
@@ -3506,13 +3592,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B82" t="s">
         <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G82">
         <v>32</v>
@@ -3532,13 +3618,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
         <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G83">
         <v>33</v>
@@ -3558,13 +3644,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G84">
         <v>35</v>
@@ -3584,13 +3670,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B85" t="s">
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G85">
         <v>36</v>
@@ -3610,13 +3696,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G86">
         <v>36</v>
@@ -3636,13 +3722,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G87">
         <v>36</v>
@@ -3662,13 +3748,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G88">
         <v>36</v>
@@ -3688,13 +3774,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G89">
         <v>36</v>
@@ -3714,13 +3800,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="D90" t="s">
         <v>93</v>
@@ -3743,13 +3829,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" t="s">
         <v>167</v>
       </c>
-      <c r="B91" t="s">
-        <v>168</v>
-      </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="D91" t="s">
         <v>135</v>
@@ -3772,13 +3858,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B92" t="s">
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G92">
         <v>35</v>
@@ -3798,13 +3884,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B93" t="s">
         <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G93">
         <v>35</v>
@@ -3824,13 +3910,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G94">
         <v>35</v>
@@ -3850,13 +3936,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G95">
         <v>35</v>
@@ -3876,13 +3962,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
         <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G96">
         <v>35</v>
@@ -3902,13 +3988,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
         <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G97">
         <v>35</v>
@@ -3928,13 +4014,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
         <v>108</v>
       </c>
       <c r="C98" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G98">
         <v>34</v>
@@ -3954,13 +4040,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B99" t="s">
         <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G99">
         <v>32</v>
@@ -3980,13 +4066,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B100" t="s">
         <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G100">
         <v>31</v>
@@ -4006,13 +4092,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B101" t="s">
         <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G101">
         <v>33</v>
@@ -4032,13 +4118,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B102" t="s">
         <v>116</v>
       </c>
       <c r="C102" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G102">
         <v>36</v>
@@ -4058,13 +4144,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
         <v>118</v>
       </c>
       <c r="C103" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="D103" t="s">
         <v>70</v>
@@ -4085,7 +4171,4142 @@
         <v>114601</v>
       </c>
     </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>_xlfn.CONCAT(K104,"_",M104)</f>
+        <v>133302_113521</v>
+      </c>
+      <c r="B104" t="str">
+        <f>_xlfn.CONCAT(G104,"-",H104)</f>
+        <v>48-25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>181</v>
+      </c>
+      <c r="D104" t="s">
+        <v>189</v>
+      </c>
+      <c r="G104">
+        <v>48</v>
+      </c>
+      <c r="H104">
+        <v>25</v>
+      </c>
+      <c r="K104">
+        <v>133302</v>
+      </c>
+      <c r="M104">
+        <v>113521</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f t="shared" ref="A105:A141" si="0">_xlfn.CONCAT(K105,"_",M105)</f>
+        <v>113521_122521</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" ref="B105:B168" si="1">_xlfn.CONCAT(G105,"-",H105)</f>
+        <v>47-27</v>
+      </c>
+      <c r="C105" t="s">
+        <v>181</v>
+      </c>
+      <c r="G105">
+        <v>47</v>
+      </c>
+      <c r="H105">
+        <v>27</v>
+      </c>
+      <c r="K105">
+        <v>113521</v>
+      </c>
+      <c r="M105">
+        <v>122521</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f t="shared" si="0"/>
+        <v>122521_123321</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>45-29</v>
+      </c>
+      <c r="C106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G106">
+        <v>45</v>
+      </c>
+      <c r="H106">
+        <v>29</v>
+      </c>
+      <c r="K106">
+        <v>122521</v>
+      </c>
+      <c r="M106">
+        <v>123321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f t="shared" si="0"/>
+        <v>123321_126021</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>43-29</v>
+      </c>
+      <c r="C107" t="s">
+        <v>181</v>
+      </c>
+      <c r="G107">
+        <v>43</v>
+      </c>
+      <c r="H107">
+        <v>29</v>
+      </c>
+      <c r="K107">
+        <v>123321</v>
+      </c>
+      <c r="M107">
+        <v>126021</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f t="shared" si="0"/>
+        <v>126021_114602</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>41-29</v>
+      </c>
+      <c r="C108" t="s">
+        <v>181</v>
+      </c>
+      <c r="G108">
+        <v>41</v>
+      </c>
+      <c r="H108">
+        <v>29</v>
+      </c>
+      <c r="K108">
+        <v>126021</v>
+      </c>
+      <c r="M108">
+        <v>114602</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f t="shared" si="0"/>
+        <v>114602_119622</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>40-28</v>
+      </c>
+      <c r="C109" t="s">
+        <v>181</v>
+      </c>
+      <c r="G109">
+        <v>40</v>
+      </c>
+      <c r="H109">
+        <v>28</v>
+      </c>
+      <c r="K109">
+        <v>114602</v>
+      </c>
+      <c r="M109">
+        <v>119622</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" si="0"/>
+        <v>119622_118922</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>40-26</v>
+      </c>
+      <c r="C110" t="s">
+        <v>181</v>
+      </c>
+      <c r="G110">
+        <v>40</v>
+      </c>
+      <c r="H110">
+        <v>26</v>
+      </c>
+      <c r="K110">
+        <v>119622</v>
+      </c>
+      <c r="M110">
+        <v>118922</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" si="0"/>
+        <v>118922_119922</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>40-24</v>
+      </c>
+      <c r="C111" t="s">
+        <v>181</v>
+      </c>
+      <c r="G111">
+        <v>40</v>
+      </c>
+      <c r="H111">
+        <v>24</v>
+      </c>
+      <c r="K111">
+        <v>118922</v>
+      </c>
+      <c r="M111">
+        <v>119922</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f t="shared" si="0"/>
+        <v>119922_114422</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>40-22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>181</v>
+      </c>
+      <c r="G112">
+        <v>40</v>
+      </c>
+      <c r="H112">
+        <v>22</v>
+      </c>
+      <c r="K112">
+        <v>119922</v>
+      </c>
+      <c r="M112">
+        <v>114422</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f t="shared" si="0"/>
+        <v>114422_115122</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>40-18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G113">
+        <v>40</v>
+      </c>
+      <c r="H113">
+        <v>18</v>
+      </c>
+      <c r="K113">
+        <v>114422</v>
+      </c>
+      <c r="M113">
+        <v>115122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f t="shared" si="0"/>
+        <v>115122_427404</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>37-14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>181</v>
+      </c>
+      <c r="G114">
+        <v>37</v>
+      </c>
+      <c r="H114">
+        <v>14</v>
+      </c>
+      <c r="K114">
+        <v>115122</v>
+      </c>
+      <c r="M114">
+        <v>427404</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f t="shared" si="0"/>
+        <v>427404_427202</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>33-15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>181</v>
+      </c>
+      <c r="G115">
+        <v>33</v>
+      </c>
+      <c r="H115">
+        <v>15</v>
+      </c>
+      <c r="K115">
+        <v>427404</v>
+      </c>
+      <c r="M115">
+        <v>427202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f t="shared" si="0"/>
+        <v>427202_114922</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>31-17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>181</v>
+      </c>
+      <c r="G116">
+        <v>31</v>
+      </c>
+      <c r="H116">
+        <v>17</v>
+      </c>
+      <c r="K116">
+        <v>427202</v>
+      </c>
+      <c r="M116">
+        <v>114922</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f t="shared" si="0"/>
+        <v>114922_679502</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>28-18</v>
+      </c>
+      <c r="C117" t="s">
+        <v>181</v>
+      </c>
+      <c r="G117">
+        <v>28</v>
+      </c>
+      <c r="H117">
+        <v>18</v>
+      </c>
+      <c r="K117">
+        <v>114922</v>
+      </c>
+      <c r="M117">
+        <v>679502</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f t="shared" si="0"/>
+        <v>679502_121802</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>26-18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>181</v>
+      </c>
+      <c r="G118">
+        <v>26</v>
+      </c>
+      <c r="H118">
+        <v>18</v>
+      </c>
+      <c r="K118">
+        <v>679502</v>
+      </c>
+      <c r="M118">
+        <v>121802</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f t="shared" si="0"/>
+        <v>121802_120002</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>24-17</v>
+      </c>
+      <c r="C119" t="s">
+        <v>181</v>
+      </c>
+      <c r="G119">
+        <v>24</v>
+      </c>
+      <c r="H119">
+        <v>17</v>
+      </c>
+      <c r="K119">
+        <v>121802</v>
+      </c>
+      <c r="M119">
+        <v>120002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f t="shared" si="0"/>
+        <v>120002_121602</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>22-15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>181</v>
+      </c>
+      <c r="G120">
+        <v>22</v>
+      </c>
+      <c r="H120">
+        <v>15</v>
+      </c>
+      <c r="K120">
+        <v>120002</v>
+      </c>
+      <c r="M120">
+        <v>121602</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f t="shared" si="0"/>
+        <v>121602_121902</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>20-13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>181</v>
+      </c>
+      <c r="G121">
+        <v>20</v>
+      </c>
+      <c r="H121">
+        <v>13</v>
+      </c>
+      <c r="K121">
+        <v>121602</v>
+      </c>
+      <c r="M121">
+        <v>121902</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f t="shared" si="0"/>
+        <v>121902_120701</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>18-11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>181</v>
+      </c>
+      <c r="D122" t="s">
+        <v>190</v>
+      </c>
+      <c r="G122">
+        <v>18</v>
+      </c>
+      <c r="H122">
+        <v>11</v>
+      </c>
+      <c r="K122">
+        <v>121902</v>
+      </c>
+      <c r="M122">
+        <v>120701</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f t="shared" si="0"/>
+        <v>120701_121901</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>17-12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>182</v>
+      </c>
+      <c r="D123" t="s">
+        <v>191</v>
+      </c>
+      <c r="G123">
+        <v>17</v>
+      </c>
+      <c r="H123">
+        <v>12</v>
+      </c>
+      <c r="K123">
+        <v>120701</v>
+      </c>
+      <c r="M123">
+        <v>121901</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f t="shared" si="0"/>
+        <v>121901_121601</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>19-14</v>
+      </c>
+      <c r="C124" t="s">
+        <v>182</v>
+      </c>
+      <c r="G124">
+        <v>19</v>
+      </c>
+      <c r="H124">
+        <v>14</v>
+      </c>
+      <c r="K124">
+        <v>121901</v>
+      </c>
+      <c r="M124">
+        <v>121601</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f t="shared" si="0"/>
+        <v>121601_120001</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>21-16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>182</v>
+      </c>
+      <c r="G125">
+        <v>21</v>
+      </c>
+      <c r="H125">
+        <v>16</v>
+      </c>
+      <c r="K125">
+        <v>121601</v>
+      </c>
+      <c r="M125">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f t="shared" si="0"/>
+        <v>120001_121801</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>23-18</v>
+      </c>
+      <c r="C126" t="s">
+        <v>182</v>
+      </c>
+      <c r="G126">
+        <v>23</v>
+      </c>
+      <c r="H126">
+        <v>18</v>
+      </c>
+      <c r="K126">
+        <v>120001</v>
+      </c>
+      <c r="M126">
+        <v>121801</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f t="shared" si="0"/>
+        <v>121801_679501</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>26-19</v>
+      </c>
+      <c r="C127" t="s">
+        <v>182</v>
+      </c>
+      <c r="G127">
+        <v>26</v>
+      </c>
+      <c r="H127">
+        <v>19</v>
+      </c>
+      <c r="K127">
+        <v>121801</v>
+      </c>
+      <c r="M127">
+        <v>679501</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f t="shared" si="0"/>
+        <v>679501_114921</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>28-19</v>
+      </c>
+      <c r="C128" t="s">
+        <v>182</v>
+      </c>
+      <c r="G128">
+        <v>28</v>
+      </c>
+      <c r="H128">
+        <v>19</v>
+      </c>
+      <c r="K128">
+        <v>679501</v>
+      </c>
+      <c r="M128">
+        <v>114921</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f t="shared" si="0"/>
+        <v>114921_427201</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>32-18</v>
+      </c>
+      <c r="C129" t="s">
+        <v>182</v>
+      </c>
+      <c r="G129">
+        <v>32</v>
+      </c>
+      <c r="H129">
+        <v>18</v>
+      </c>
+      <c r="K129">
+        <v>114921</v>
+      </c>
+      <c r="M129">
+        <v>427201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f t="shared" si="0"/>
+        <v>427201_427403</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v>34-16</v>
+      </c>
+      <c r="C130" t="s">
+        <v>182</v>
+      </c>
+      <c r="G130">
+        <v>34</v>
+      </c>
+      <c r="H130">
+        <v>16</v>
+      </c>
+      <c r="K130">
+        <v>427201</v>
+      </c>
+      <c r="M130">
+        <v>427403</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f t="shared" si="0"/>
+        <v>427403_115121</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="1"/>
+        <v>36-15</v>
+      </c>
+      <c r="C131" t="s">
+        <v>182</v>
+      </c>
+      <c r="G131">
+        <v>36</v>
+      </c>
+      <c r="H131">
+        <v>15</v>
+      </c>
+      <c r="K131">
+        <v>427403</v>
+      </c>
+      <c r="M131">
+        <v>115121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f t="shared" si="0"/>
+        <v>115121_114421</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="1"/>
+        <v>39-18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>182</v>
+      </c>
+      <c r="G132">
+        <v>39</v>
+      </c>
+      <c r="H132">
+        <v>18</v>
+      </c>
+      <c r="K132">
+        <v>115121</v>
+      </c>
+      <c r="M132">
+        <v>114421</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f t="shared" si="0"/>
+        <v>114421_119921</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="1"/>
+        <v>39-22</v>
+      </c>
+      <c r="C133" t="s">
+        <v>182</v>
+      </c>
+      <c r="G133">
+        <v>39</v>
+      </c>
+      <c r="H133">
+        <v>22</v>
+      </c>
+      <c r="K133">
+        <v>114421</v>
+      </c>
+      <c r="M133">
+        <v>119921</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f t="shared" si="0"/>
+        <v>119921_118921</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="1"/>
+        <v>39-24</v>
+      </c>
+      <c r="C134" t="s">
+        <v>182</v>
+      </c>
+      <c r="G134">
+        <v>39</v>
+      </c>
+      <c r="H134">
+        <v>24</v>
+      </c>
+      <c r="K134">
+        <v>119921</v>
+      </c>
+      <c r="M134">
+        <v>118921</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f t="shared" si="0"/>
+        <v>118921_119621</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="1"/>
+        <v>39-26</v>
+      </c>
+      <c r="C135" t="s">
+        <v>182</v>
+      </c>
+      <c r="G135">
+        <v>39</v>
+      </c>
+      <c r="H135">
+        <v>26</v>
+      </c>
+      <c r="K135">
+        <v>118921</v>
+      </c>
+      <c r="M135">
+        <v>119621</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f t="shared" si="0"/>
+        <v>119621_114601</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="1"/>
+        <v>39-28</v>
+      </c>
+      <c r="C136" t="s">
+        <v>182</v>
+      </c>
+      <c r="G136">
+        <v>39</v>
+      </c>
+      <c r="H136">
+        <v>28</v>
+      </c>
+      <c r="K136">
+        <v>119621</v>
+      </c>
+      <c r="M136">
+        <v>114601</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f t="shared" si="0"/>
+        <v>114601_126022</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="1"/>
+        <v>41-30</v>
+      </c>
+      <c r="C137" t="s">
+        <v>182</v>
+      </c>
+      <c r="G137">
+        <v>41</v>
+      </c>
+      <c r="H137">
+        <v>30</v>
+      </c>
+      <c r="K137">
+        <v>114601</v>
+      </c>
+      <c r="M137">
+        <v>126022</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f t="shared" si="0"/>
+        <v>126022_123322</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="1"/>
+        <v>43-30</v>
+      </c>
+      <c r="C138" t="s">
+        <v>182</v>
+      </c>
+      <c r="G138">
+        <v>43</v>
+      </c>
+      <c r="H138">
+        <v>30</v>
+      </c>
+      <c r="K138">
+        <v>126022</v>
+      </c>
+      <c r="M138">
+        <v>123322</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f t="shared" si="0"/>
+        <v>123322_122522</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="1"/>
+        <v>46-30</v>
+      </c>
+      <c r="C139" t="s">
+        <v>182</v>
+      </c>
+      <c r="G139">
+        <v>46</v>
+      </c>
+      <c r="H139">
+        <v>30</v>
+      </c>
+      <c r="K139">
+        <v>123322</v>
+      </c>
+      <c r="M139">
+        <v>122522</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f t="shared" si="0"/>
+        <v>122522_113522</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="1"/>
+        <v>48-28</v>
+      </c>
+      <c r="C140" t="s">
+        <v>182</v>
+      </c>
+      <c r="G140">
+        <v>48</v>
+      </c>
+      <c r="H140">
+        <v>28</v>
+      </c>
+      <c r="K140">
+        <v>122522</v>
+      </c>
+      <c r="M140">
+        <v>113522</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f t="shared" si="0"/>
+        <v>113522_133301</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="1"/>
+        <v>49-25</v>
+      </c>
+      <c r="C141" t="s">
+        <v>182</v>
+      </c>
+      <c r="D141" t="s">
+        <v>192</v>
+      </c>
+      <c r="G141">
+        <v>49</v>
+      </c>
+      <c r="H141">
+        <v>25</v>
+      </c>
+      <c r="K141">
+        <v>113522</v>
+      </c>
+      <c r="M141">
+        <v>133301</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f t="shared" ref="A142:A197" si="2">_xlfn.CONCAT(K142,"_",L142,"_",M142)</f>
+        <v>133302_113521_122521</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="1"/>
+        <v>48-26</v>
+      </c>
+      <c r="C142" t="s">
+        <v>183</v>
+      </c>
+      <c r="D142" t="s">
+        <v>193</v>
+      </c>
+      <c r="G142">
+        <v>48</v>
+      </c>
+      <c r="H142">
+        <v>26</v>
+      </c>
+      <c r="K142">
+        <v>133302</v>
+      </c>
+      <c r="L142">
+        <v>113521</v>
+      </c>
+      <c r="M142">
+        <v>122521</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f t="shared" si="2"/>
+        <v>113521_122521_123321</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="1"/>
+        <v>46-28</v>
+      </c>
+      <c r="C143" t="s">
+        <v>183</v>
+      </c>
+      <c r="G143">
+        <v>46</v>
+      </c>
+      <c r="H143">
+        <v>28</v>
+      </c>
+      <c r="K143">
+        <v>113521</v>
+      </c>
+      <c r="L143">
+        <v>122521</v>
+      </c>
+      <c r="M143">
+        <v>123321</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f t="shared" si="2"/>
+        <v>122521_123321_126021</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="1"/>
+        <v>44-29</v>
+      </c>
+      <c r="C144" t="s">
+        <v>183</v>
+      </c>
+      <c r="G144">
+        <v>44</v>
+      </c>
+      <c r="H144">
+        <v>29</v>
+      </c>
+      <c r="K144">
+        <v>122521</v>
+      </c>
+      <c r="L144">
+        <v>123321</v>
+      </c>
+      <c r="M144">
+        <v>126021</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f t="shared" si="2"/>
+        <v>123321_126021_114602</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="1"/>
+        <v>42-29</v>
+      </c>
+      <c r="C145" t="s">
+        <v>183</v>
+      </c>
+      <c r="G145">
+        <v>42</v>
+      </c>
+      <c r="H145">
+        <v>29</v>
+      </c>
+      <c r="K145">
+        <v>123321</v>
+      </c>
+      <c r="L145">
+        <v>126021</v>
+      </c>
+      <c r="M145">
+        <v>114602</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f t="shared" si="2"/>
+        <v>126021_114602_119622</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="1"/>
+        <v>40-29</v>
+      </c>
+      <c r="C146" t="s">
+        <v>183</v>
+      </c>
+      <c r="G146">
+        <v>40</v>
+      </c>
+      <c r="H146">
+        <v>29</v>
+      </c>
+      <c r="K146">
+        <v>126021</v>
+      </c>
+      <c r="L146">
+        <v>114602</v>
+      </c>
+      <c r="M146">
+        <v>119622</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f t="shared" si="2"/>
+        <v>114602_119622_118922</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="1"/>
+        <v>40-27</v>
+      </c>
+      <c r="C147" t="s">
+        <v>183</v>
+      </c>
+      <c r="G147">
+        <v>40</v>
+      </c>
+      <c r="H147">
+        <v>27</v>
+      </c>
+      <c r="K147">
+        <v>114602</v>
+      </c>
+      <c r="L147">
+        <v>119622</v>
+      </c>
+      <c r="M147">
+        <v>118922</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f t="shared" si="2"/>
+        <v>119622_118922_119922</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="1"/>
+        <v>40-25</v>
+      </c>
+      <c r="C148" t="s">
+        <v>183</v>
+      </c>
+      <c r="G148">
+        <v>40</v>
+      </c>
+      <c r="H148">
+        <v>25</v>
+      </c>
+      <c r="K148">
+        <v>119622</v>
+      </c>
+      <c r="L148">
+        <v>118922</v>
+      </c>
+      <c r="M148">
+        <v>119922</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f t="shared" si="2"/>
+        <v>118922_119922_114422</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="1"/>
+        <v>40-23</v>
+      </c>
+      <c r="C149" t="s">
+        <v>183</v>
+      </c>
+      <c r="G149">
+        <v>40</v>
+      </c>
+      <c r="H149">
+        <v>23</v>
+      </c>
+      <c r="K149">
+        <v>118922</v>
+      </c>
+      <c r="L149">
+        <v>119922</v>
+      </c>
+      <c r="M149">
+        <v>114422</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f t="shared" si="2"/>
+        <v>119922_114422_115122</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="1"/>
+        <v>40-20</v>
+      </c>
+      <c r="C150" t="s">
+        <v>183</v>
+      </c>
+      <c r="G150">
+        <v>40</v>
+      </c>
+      <c r="H150">
+        <v>20</v>
+      </c>
+      <c r="K150">
+        <v>119922</v>
+      </c>
+      <c r="L150">
+        <v>114422</v>
+      </c>
+      <c r="M150">
+        <v>115122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f t="shared" si="2"/>
+        <v>114422_115122_427404</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="1"/>
+        <v>39-16</v>
+      </c>
+      <c r="C151" t="s">
+        <v>183</v>
+      </c>
+      <c r="G151">
+        <v>39</v>
+      </c>
+      <c r="H151">
+        <v>16</v>
+      </c>
+      <c r="K151">
+        <v>114422</v>
+      </c>
+      <c r="L151">
+        <v>115122</v>
+      </c>
+      <c r="M151">
+        <v>427404</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f t="shared" si="2"/>
+        <v>115122_427404_427202</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="1"/>
+        <v>34-14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>183</v>
+      </c>
+      <c r="G152">
+        <v>34</v>
+      </c>
+      <c r="H152">
+        <v>14</v>
+      </c>
+      <c r="K152">
+        <v>115122</v>
+      </c>
+      <c r="L152">
+        <v>427404</v>
+      </c>
+      <c r="M152">
+        <v>427202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f t="shared" si="2"/>
+        <v>427404_427202_114922</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="1"/>
+        <v>32-16</v>
+      </c>
+      <c r="C153" t="s">
+        <v>183</v>
+      </c>
+      <c r="G153">
+        <v>32</v>
+      </c>
+      <c r="H153">
+        <v>16</v>
+      </c>
+      <c r="K153">
+        <v>427404</v>
+      </c>
+      <c r="L153">
+        <v>427202</v>
+      </c>
+      <c r="M153">
+        <v>114922</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f t="shared" si="2"/>
+        <v>427202_114922_679502</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="1"/>
+        <v>29-18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>183</v>
+      </c>
+      <c r="G154">
+        <v>29</v>
+      </c>
+      <c r="H154">
+        <v>18</v>
+      </c>
+      <c r="K154">
+        <v>427202</v>
+      </c>
+      <c r="L154">
+        <v>114922</v>
+      </c>
+      <c r="M154">
+        <v>679502</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f t="shared" si="2"/>
+        <v>114922_679502_121802</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="1"/>
+        <v>27-18</v>
+      </c>
+      <c r="C155" t="s">
+        <v>183</v>
+      </c>
+      <c r="G155">
+        <v>27</v>
+      </c>
+      <c r="H155">
+        <v>18</v>
+      </c>
+      <c r="K155">
+        <v>114922</v>
+      </c>
+      <c r="L155">
+        <v>679502</v>
+      </c>
+      <c r="M155">
+        <v>121802</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f t="shared" si="2"/>
+        <v>679502_121802_120002</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="1"/>
+        <v>25-18</v>
+      </c>
+      <c r="C156" t="s">
+        <v>183</v>
+      </c>
+      <c r="G156">
+        <v>25</v>
+      </c>
+      <c r="H156">
+        <v>18</v>
+      </c>
+      <c r="K156">
+        <v>679502</v>
+      </c>
+      <c r="L156">
+        <v>121802</v>
+      </c>
+      <c r="M156">
+        <v>120002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f t="shared" si="2"/>
+        <v>121802_120002_121602</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="1"/>
+        <v>23-16</v>
+      </c>
+      <c r="C157" t="s">
+        <v>183</v>
+      </c>
+      <c r="G157">
+        <v>23</v>
+      </c>
+      <c r="H157">
+        <v>16</v>
+      </c>
+      <c r="K157">
+        <v>121802</v>
+      </c>
+      <c r="L157">
+        <v>120002</v>
+      </c>
+      <c r="M157">
+        <v>121602</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f t="shared" si="2"/>
+        <v>120002_121602_121902</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="1"/>
+        <v>21-14</v>
+      </c>
+      <c r="C158" t="s">
+        <v>183</v>
+      </c>
+      <c r="G158">
+        <v>21</v>
+      </c>
+      <c r="H158">
+        <v>14</v>
+      </c>
+      <c r="K158">
+        <v>120002</v>
+      </c>
+      <c r="L158">
+        <v>121602</v>
+      </c>
+      <c r="M158">
+        <v>121902</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f t="shared" si="2"/>
+        <v>121602_121902_120701</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="1"/>
+        <v>19-12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>183</v>
+      </c>
+      <c r="D159" t="s">
+        <v>194</v>
+      </c>
+      <c r="G159">
+        <v>19</v>
+      </c>
+      <c r="H159">
+        <v>12</v>
+      </c>
+      <c r="K159">
+        <v>121602</v>
+      </c>
+      <c r="L159">
+        <v>121902</v>
+      </c>
+      <c r="M159">
+        <v>120701</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f t="shared" si="2"/>
+        <v>120701_121901_121601</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="1"/>
+        <v>18-13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>184</v>
+      </c>
+      <c r="D160" t="s">
+        <v>194</v>
+      </c>
+      <c r="G160">
+        <v>18</v>
+      </c>
+      <c r="H160">
+        <v>13</v>
+      </c>
+      <c r="K160">
+        <v>120701</v>
+      </c>
+      <c r="L160">
+        <v>121901</v>
+      </c>
+      <c r="M160">
+        <v>121601</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f t="shared" si="2"/>
+        <v>121901_121601_120001</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="1"/>
+        <v>20-15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>184</v>
+      </c>
+      <c r="G161">
+        <v>20</v>
+      </c>
+      <c r="H161">
+        <v>15</v>
+      </c>
+      <c r="K161">
+        <v>121901</v>
+      </c>
+      <c r="L161">
+        <v>121601</v>
+      </c>
+      <c r="M161">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f t="shared" si="2"/>
+        <v>121601_120001_121801</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="1"/>
+        <v>22-17</v>
+      </c>
+      <c r="C162" t="s">
+        <v>184</v>
+      </c>
+      <c r="G162">
+        <v>22</v>
+      </c>
+      <c r="H162">
+        <v>17</v>
+      </c>
+      <c r="K162">
+        <v>121601</v>
+      </c>
+      <c r="L162">
+        <v>120001</v>
+      </c>
+      <c r="M162">
+        <v>121801</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f t="shared" si="2"/>
+        <v>120001_121801_679501</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="1"/>
+        <v>25-19</v>
+      </c>
+      <c r="C163" t="s">
+        <v>184</v>
+      </c>
+      <c r="G163">
+        <v>25</v>
+      </c>
+      <c r="H163">
+        <v>19</v>
+      </c>
+      <c r="K163">
+        <v>120001</v>
+      </c>
+      <c r="L163">
+        <v>121801</v>
+      </c>
+      <c r="M163">
+        <v>679501</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f t="shared" si="2"/>
+        <v>121801_679501_114921</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="1"/>
+        <v>27-19</v>
+      </c>
+      <c r="C164" t="s">
+        <v>184</v>
+      </c>
+      <c r="G164">
+        <v>27</v>
+      </c>
+      <c r="H164">
+        <v>19</v>
+      </c>
+      <c r="K164">
+        <v>121801</v>
+      </c>
+      <c r="L164">
+        <v>679501</v>
+      </c>
+      <c r="M164">
+        <v>114921</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f t="shared" si="2"/>
+        <v>679501_114921_427201</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="1"/>
+        <v>29-19</v>
+      </c>
+      <c r="C165" t="s">
+        <v>184</v>
+      </c>
+      <c r="G165">
+        <v>29</v>
+      </c>
+      <c r="H165">
+        <v>19</v>
+      </c>
+      <c r="K165">
+        <v>679501</v>
+      </c>
+      <c r="L165">
+        <v>114921</v>
+      </c>
+      <c r="M165">
+        <v>427201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f t="shared" si="2"/>
+        <v>114921_427201_427403</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="1"/>
+        <v>33-17</v>
+      </c>
+      <c r="C166" t="s">
+        <v>184</v>
+      </c>
+      <c r="G166">
+        <v>33</v>
+      </c>
+      <c r="H166">
+        <v>17</v>
+      </c>
+      <c r="K166">
+        <v>114921</v>
+      </c>
+      <c r="L166">
+        <v>427201</v>
+      </c>
+      <c r="M166">
+        <v>427403</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f t="shared" si="2"/>
+        <v>427201_427403_115121</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="1"/>
+        <v>35-15</v>
+      </c>
+      <c r="C167" t="s">
+        <v>184</v>
+      </c>
+      <c r="G167">
+        <v>35</v>
+      </c>
+      <c r="H167">
+        <v>15</v>
+      </c>
+      <c r="K167">
+        <v>427201</v>
+      </c>
+      <c r="L167">
+        <v>427403</v>
+      </c>
+      <c r="M167">
+        <v>115121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f t="shared" si="2"/>
+        <v>427403_115121_114421</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="1"/>
+        <v>38-17</v>
+      </c>
+      <c r="C168" t="s">
+        <v>184</v>
+      </c>
+      <c r="G168">
+        <v>38</v>
+      </c>
+      <c r="H168">
+        <v>17</v>
+      </c>
+      <c r="K168">
+        <v>427403</v>
+      </c>
+      <c r="L168">
+        <v>115121</v>
+      </c>
+      <c r="M168">
+        <v>114421</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f t="shared" si="2"/>
+        <v>115121_114421_119921</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" ref="B169:B232" si="3">_xlfn.CONCAT(G169,"-",H169)</f>
+        <v>39-20</v>
+      </c>
+      <c r="C169" t="s">
+        <v>184</v>
+      </c>
+      <c r="G169">
+        <v>39</v>
+      </c>
+      <c r="H169">
+        <v>20</v>
+      </c>
+      <c r="K169">
+        <v>115121</v>
+      </c>
+      <c r="L169">
+        <v>114421</v>
+      </c>
+      <c r="M169">
+        <v>119921</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f t="shared" si="2"/>
+        <v>114421_119921_118921</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="3"/>
+        <v>39-23</v>
+      </c>
+      <c r="C170" t="s">
+        <v>184</v>
+      </c>
+      <c r="G170">
+        <v>39</v>
+      </c>
+      <c r="H170">
+        <v>23</v>
+      </c>
+      <c r="K170">
+        <v>114421</v>
+      </c>
+      <c r="L170">
+        <v>119921</v>
+      </c>
+      <c r="M170">
+        <v>118921</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f t="shared" si="2"/>
+        <v>119921_118921_119621</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="3"/>
+        <v>39-25</v>
+      </c>
+      <c r="C171" t="s">
+        <v>184</v>
+      </c>
+      <c r="G171">
+        <v>39</v>
+      </c>
+      <c r="H171">
+        <v>25</v>
+      </c>
+      <c r="K171">
+        <v>119921</v>
+      </c>
+      <c r="L171">
+        <v>118921</v>
+      </c>
+      <c r="M171">
+        <v>119621</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
+        <f t="shared" si="2"/>
+        <v>118921_119621_114601</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="3"/>
+        <v>39-27</v>
+      </c>
+      <c r="C172" t="s">
+        <v>184</v>
+      </c>
+      <c r="G172">
+        <v>39</v>
+      </c>
+      <c r="H172">
+        <v>27</v>
+      </c>
+      <c r="K172">
+        <v>118921</v>
+      </c>
+      <c r="L172">
+        <v>119621</v>
+      </c>
+      <c r="M172">
+        <v>114601</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
+        <f t="shared" si="2"/>
+        <v>119621_114601_126022</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="3"/>
+        <v>40-30</v>
+      </c>
+      <c r="C173" t="s">
+        <v>184</v>
+      </c>
+      <c r="G173">
+        <v>40</v>
+      </c>
+      <c r="H173">
+        <v>30</v>
+      </c>
+      <c r="K173">
+        <v>119621</v>
+      </c>
+      <c r="L173">
+        <v>114601</v>
+      </c>
+      <c r="M173">
+        <v>126022</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
+        <f t="shared" si="2"/>
+        <v>114601_126022_123322</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="3"/>
+        <v>42-30</v>
+      </c>
+      <c r="C174" t="s">
+        <v>184</v>
+      </c>
+      <c r="G174">
+        <v>42</v>
+      </c>
+      <c r="H174">
+        <v>30</v>
+      </c>
+      <c r="K174">
+        <v>114601</v>
+      </c>
+      <c r="L174">
+        <v>126022</v>
+      </c>
+      <c r="M174">
+        <v>123322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
+        <f t="shared" si="2"/>
+        <v>126022_123322_122522</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="3"/>
+        <v>44-30</v>
+      </c>
+      <c r="C175" t="s">
+        <v>184</v>
+      </c>
+      <c r="G175">
+        <v>44</v>
+      </c>
+      <c r="H175">
+        <v>30</v>
+      </c>
+      <c r="K175">
+        <v>126022</v>
+      </c>
+      <c r="L175">
+        <v>123322</v>
+      </c>
+      <c r="M175">
+        <v>122522</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f t="shared" si="2"/>
+        <v>123322_122522_113522</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="3"/>
+        <v>47-29</v>
+      </c>
+      <c r="C176" t="s">
+        <v>184</v>
+      </c>
+      <c r="G176">
+        <v>47</v>
+      </c>
+      <c r="H176">
+        <v>29</v>
+      </c>
+      <c r="K176">
+        <v>123322</v>
+      </c>
+      <c r="L176">
+        <v>122522</v>
+      </c>
+      <c r="M176">
+        <v>113522</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
+        <f t="shared" si="2"/>
+        <v>122522_113522_133301</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="3"/>
+        <v>49-27</v>
+      </c>
+      <c r="C177" t="s">
+        <v>184</v>
+      </c>
+      <c r="D177" t="s">
+        <v>193</v>
+      </c>
+      <c r="G177">
+        <v>49</v>
+      </c>
+      <c r="H177">
+        <v>27</v>
+      </c>
+      <c r="K177">
+        <v>122522</v>
+      </c>
+      <c r="L177">
+        <v>113522</v>
+      </c>
+      <c r="M177">
+        <v>133301</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
+        <f t="shared" si="2"/>
+        <v>133302_113521_DEPOT</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="3"/>
+        <v>48-26</v>
+      </c>
+      <c r="C178" t="s">
+        <v>186</v>
+      </c>
+      <c r="D178" t="s">
+        <v>193</v>
+      </c>
+      <c r="G178">
+        <v>48</v>
+      </c>
+      <c r="H178">
+        <v>26</v>
+      </c>
+      <c r="K178">
+        <v>133302</v>
+      </c>
+      <c r="L178">
+        <v>113521</v>
+      </c>
+      <c r="M178" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
+        <f t="shared" si="2"/>
+        <v>113521_122521_DEPOT</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="3"/>
+        <v>46-28</v>
+      </c>
+      <c r="C179" t="s">
+        <v>186</v>
+      </c>
+      <c r="G179">
+        <v>46</v>
+      </c>
+      <c r="H179">
+        <v>28</v>
+      </c>
+      <c r="K179">
+        <v>113521</v>
+      </c>
+      <c r="L179">
+        <v>122521</v>
+      </c>
+      <c r="M179" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f t="shared" si="2"/>
+        <v>122521_123321_DEPOT</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="3"/>
+        <v>44-29</v>
+      </c>
+      <c r="C180" t="s">
+        <v>186</v>
+      </c>
+      <c r="G180">
+        <v>44</v>
+      </c>
+      <c r="H180">
+        <v>29</v>
+      </c>
+      <c r="K180">
+        <v>122521</v>
+      </c>
+      <c r="L180">
+        <v>123321</v>
+      </c>
+      <c r="M180" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
+        <f t="shared" si="2"/>
+        <v>123321_126021_DEPOT</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="3"/>
+        <v>42-29</v>
+      </c>
+      <c r="C181" t="s">
+        <v>186</v>
+      </c>
+      <c r="G181">
+        <v>42</v>
+      </c>
+      <c r="H181">
+        <v>29</v>
+      </c>
+      <c r="K181">
+        <v>123321</v>
+      </c>
+      <c r="L181">
+        <v>126021</v>
+      </c>
+      <c r="M181" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
+        <f t="shared" si="2"/>
+        <v>126021_114602_DEPOT</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="3"/>
+        <v>40-29</v>
+      </c>
+      <c r="C182" t="s">
+        <v>186</v>
+      </c>
+      <c r="G182">
+        <v>40</v>
+      </c>
+      <c r="H182">
+        <v>29</v>
+      </c>
+      <c r="K182">
+        <v>126021</v>
+      </c>
+      <c r="L182">
+        <v>114602</v>
+      </c>
+      <c r="M182" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
+        <f t="shared" si="2"/>
+        <v>114602_119622_DEPOT</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="3"/>
+        <v>40-27</v>
+      </c>
+      <c r="C183" t="s">
+        <v>186</v>
+      </c>
+      <c r="G183">
+        <v>40</v>
+      </c>
+      <c r="H183">
+        <v>27</v>
+      </c>
+      <c r="K183">
+        <v>114602</v>
+      </c>
+      <c r="L183">
+        <v>119622</v>
+      </c>
+      <c r="M183" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
+        <f t="shared" si="2"/>
+        <v>119622_118922_DEPOT</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="3"/>
+        <v>40-25</v>
+      </c>
+      <c r="C184" t="s">
+        <v>186</v>
+      </c>
+      <c r="G184">
+        <v>40</v>
+      </c>
+      <c r="H184">
+        <v>25</v>
+      </c>
+      <c r="K184">
+        <v>119622</v>
+      </c>
+      <c r="L184">
+        <v>118922</v>
+      </c>
+      <c r="M184" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
+        <f t="shared" si="2"/>
+        <v>118922_119922_DEPOT</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="3"/>
+        <v>40-23</v>
+      </c>
+      <c r="C185" t="s">
+        <v>186</v>
+      </c>
+      <c r="G185">
+        <v>40</v>
+      </c>
+      <c r="H185">
+        <v>23</v>
+      </c>
+      <c r="K185">
+        <v>118922</v>
+      </c>
+      <c r="L185">
+        <v>119922</v>
+      </c>
+      <c r="M185" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
+        <f t="shared" si="2"/>
+        <v>119922_114422_DEPOT</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="3"/>
+        <v>40-20</v>
+      </c>
+      <c r="C186" t="s">
+        <v>186</v>
+      </c>
+      <c r="G186">
+        <v>40</v>
+      </c>
+      <c r="H186">
+        <v>20</v>
+      </c>
+      <c r="K186">
+        <v>119922</v>
+      </c>
+      <c r="L186">
+        <v>114422</v>
+      </c>
+      <c r="M186" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
+        <f t="shared" si="2"/>
+        <v>114422_115122_DEPOT</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="3"/>
+        <v>39-16</v>
+      </c>
+      <c r="C187" t="s">
+        <v>186</v>
+      </c>
+      <c r="G187">
+        <v>39</v>
+      </c>
+      <c r="H187">
+        <v>16</v>
+      </c>
+      <c r="K187">
+        <v>114422</v>
+      </c>
+      <c r="L187">
+        <v>115122</v>
+      </c>
+      <c r="M187" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
+        <f t="shared" si="2"/>
+        <v>115122_427404_DEPOT</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="3"/>
+        <v>34-14</v>
+      </c>
+      <c r="C188" t="s">
+        <v>186</v>
+      </c>
+      <c r="G188">
+        <v>34</v>
+      </c>
+      <c r="H188">
+        <v>14</v>
+      </c>
+      <c r="K188">
+        <v>115122</v>
+      </c>
+      <c r="L188">
+        <v>427404</v>
+      </c>
+      <c r="M188" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f t="shared" si="2"/>
+        <v>427404_427202_DEPOT</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="3"/>
+        <v>32-16</v>
+      </c>
+      <c r="C189" t="s">
+        <v>186</v>
+      </c>
+      <c r="G189">
+        <v>32</v>
+      </c>
+      <c r="H189">
+        <v>16</v>
+      </c>
+      <c r="K189">
+        <v>427404</v>
+      </c>
+      <c r="L189">
+        <v>427202</v>
+      </c>
+      <c r="M189" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f t="shared" si="2"/>
+        <v>427202_114922_DEPOT</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="3"/>
+        <v>29-18</v>
+      </c>
+      <c r="C190" t="s">
+        <v>186</v>
+      </c>
+      <c r="G190">
+        <v>29</v>
+      </c>
+      <c r="H190">
+        <v>18</v>
+      </c>
+      <c r="K190">
+        <v>427202</v>
+      </c>
+      <c r="L190">
+        <v>114922</v>
+      </c>
+      <c r="M190" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
+        <f t="shared" si="2"/>
+        <v>114922_679502_DEPOT</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="3"/>
+        <v>27-18</v>
+      </c>
+      <c r="C191" t="s">
+        <v>186</v>
+      </c>
+      <c r="G191">
+        <v>27</v>
+      </c>
+      <c r="H191">
+        <v>18</v>
+      </c>
+      <c r="K191">
+        <v>114922</v>
+      </c>
+      <c r="L191">
+        <v>679502</v>
+      </c>
+      <c r="M191" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
+        <f t="shared" si="2"/>
+        <v>679502_121802_DEPOT</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="3"/>
+        <v>25-18</v>
+      </c>
+      <c r="C192" t="s">
+        <v>186</v>
+      </c>
+      <c r="G192">
+        <v>25</v>
+      </c>
+      <c r="H192">
+        <v>18</v>
+      </c>
+      <c r="K192">
+        <v>679502</v>
+      </c>
+      <c r="L192">
+        <v>121802</v>
+      </c>
+      <c r="M192" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
+        <f t="shared" si="2"/>
+        <v>121802_120002_DEPOT</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="3"/>
+        <v>23-16</v>
+      </c>
+      <c r="C193" t="s">
+        <v>186</v>
+      </c>
+      <c r="G193">
+        <v>23</v>
+      </c>
+      <c r="H193">
+        <v>16</v>
+      </c>
+      <c r="K193">
+        <v>121802</v>
+      </c>
+      <c r="L193">
+        <v>120002</v>
+      </c>
+      <c r="M193" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f t="shared" si="2"/>
+        <v>120002_121602_DEPOT</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="3"/>
+        <v>21-14</v>
+      </c>
+      <c r="C194" t="s">
+        <v>186</v>
+      </c>
+      <c r="G194">
+        <v>21</v>
+      </c>
+      <c r="H194">
+        <v>14</v>
+      </c>
+      <c r="K194">
+        <v>120002</v>
+      </c>
+      <c r="L194">
+        <v>121602</v>
+      </c>
+      <c r="M194" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f t="shared" si="2"/>
+        <v>121602_121902_DEPOT</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" si="3"/>
+        <v>19-12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>186</v>
+      </c>
+      <c r="G195">
+        <v>19</v>
+      </c>
+      <c r="H195">
+        <v>12</v>
+      </c>
+      <c r="K195">
+        <v>121602</v>
+      </c>
+      <c r="L195">
+        <v>121902</v>
+      </c>
+      <c r="M195" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f t="shared" si="2"/>
+        <v>121902_120701_DEPOT</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="3"/>
+        <v>17-10</v>
+      </c>
+      <c r="C196" t="s">
+        <v>186</v>
+      </c>
+      <c r="D196" t="s">
+        <v>195</v>
+      </c>
+      <c r="G196">
+        <v>17</v>
+      </c>
+      <c r="H196">
+        <v>10</v>
+      </c>
+      <c r="K196">
+        <v>121902</v>
+      </c>
+      <c r="L196">
+        <v>120701</v>
+      </c>
+      <c r="M196" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
+        <f t="shared" si="2"/>
+        <v>120701_121901_DEPOT</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="3"/>
+        <v>18-13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>187</v>
+      </c>
+      <c r="D197" t="s">
+        <v>196</v>
+      </c>
+      <c r="G197">
+        <v>18</v>
+      </c>
+      <c r="H197">
+        <v>13</v>
+      </c>
+      <c r="K197">
+        <v>120701</v>
+      </c>
+      <c r="L197">
+        <v>121901</v>
+      </c>
+      <c r="M197" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
+        <f t="shared" ref="A198:A253" si="4">_xlfn.CONCAT(K198,"_",L198,"_",M198)</f>
+        <v>121901_121601_DEPOT</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="3"/>
+        <v>20-15</v>
+      </c>
+      <c r="C198" t="s">
+        <v>187</v>
+      </c>
+      <c r="G198">
+        <v>20</v>
+      </c>
+      <c r="H198">
+        <v>15</v>
+      </c>
+      <c r="K198">
+        <v>121901</v>
+      </c>
+      <c r="L198">
+        <v>121601</v>
+      </c>
+      <c r="M198" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
+        <f t="shared" si="4"/>
+        <v>121601_120001_DEPOT</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="3"/>
+        <v>22-17</v>
+      </c>
+      <c r="C199" t="s">
+        <v>187</v>
+      </c>
+      <c r="G199">
+        <v>22</v>
+      </c>
+      <c r="H199">
+        <v>17</v>
+      </c>
+      <c r="K199">
+        <v>121601</v>
+      </c>
+      <c r="L199">
+        <v>120001</v>
+      </c>
+      <c r="M199" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
+        <f t="shared" si="4"/>
+        <v>120001_121801_DEPOT</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="3"/>
+        <v>25-19</v>
+      </c>
+      <c r="C200" t="s">
+        <v>187</v>
+      </c>
+      <c r="G200">
+        <v>25</v>
+      </c>
+      <c r="H200">
+        <v>19</v>
+      </c>
+      <c r="K200">
+        <v>120001</v>
+      </c>
+      <c r="L200">
+        <v>121801</v>
+      </c>
+      <c r="M200" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" t="str">
+        <f t="shared" si="4"/>
+        <v>121801_679501_DEPOT</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="3"/>
+        <v>27-19</v>
+      </c>
+      <c r="C201" t="s">
+        <v>187</v>
+      </c>
+      <c r="G201">
+        <v>27</v>
+      </c>
+      <c r="H201">
+        <v>19</v>
+      </c>
+      <c r="K201">
+        <v>121801</v>
+      </c>
+      <c r="L201">
+        <v>679501</v>
+      </c>
+      <c r="M201" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" t="str">
+        <f t="shared" si="4"/>
+        <v>679501_114921_DEPOT</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="3"/>
+        <v>29-19</v>
+      </c>
+      <c r="C202" t="s">
+        <v>187</v>
+      </c>
+      <c r="G202">
+        <v>29</v>
+      </c>
+      <c r="H202">
+        <v>19</v>
+      </c>
+      <c r="K202">
+        <v>679501</v>
+      </c>
+      <c r="L202">
+        <v>114921</v>
+      </c>
+      <c r="M202" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
+        <f t="shared" si="4"/>
+        <v>114921_427201_DEPOT</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="3"/>
+        <v>33-17</v>
+      </c>
+      <c r="C203" t="s">
+        <v>187</v>
+      </c>
+      <c r="G203">
+        <v>33</v>
+      </c>
+      <c r="H203">
+        <v>17</v>
+      </c>
+      <c r="K203">
+        <v>114921</v>
+      </c>
+      <c r="L203">
+        <v>427201</v>
+      </c>
+      <c r="M203" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" t="str">
+        <f t="shared" si="4"/>
+        <v>427201_427403_DEPOT</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="3"/>
+        <v>35-15</v>
+      </c>
+      <c r="C204" t="s">
+        <v>187</v>
+      </c>
+      <c r="G204">
+        <v>35</v>
+      </c>
+      <c r="H204">
+        <v>15</v>
+      </c>
+      <c r="K204">
+        <v>427201</v>
+      </c>
+      <c r="L204">
+        <v>427403</v>
+      </c>
+      <c r="M204" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
+        <f t="shared" si="4"/>
+        <v>427403_115121_DEPOT</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="3"/>
+        <v>38-17</v>
+      </c>
+      <c r="C205" t="s">
+        <v>187</v>
+      </c>
+      <c r="G205">
+        <v>38</v>
+      </c>
+      <c r="H205">
+        <v>17</v>
+      </c>
+      <c r="K205">
+        <v>427403</v>
+      </c>
+      <c r="L205">
+        <v>115121</v>
+      </c>
+      <c r="M205" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" t="str">
+        <f t="shared" si="4"/>
+        <v>115121_114421_DEPOT</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="3"/>
+        <v>39-20</v>
+      </c>
+      <c r="C206" t="s">
+        <v>187</v>
+      </c>
+      <c r="G206">
+        <v>39</v>
+      </c>
+      <c r="H206">
+        <v>20</v>
+      </c>
+      <c r="K206">
+        <v>115121</v>
+      </c>
+      <c r="L206">
+        <v>114421</v>
+      </c>
+      <c r="M206" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" t="str">
+        <f t="shared" si="4"/>
+        <v>114421_119921_DEPOT</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="3"/>
+        <v>39-23</v>
+      </c>
+      <c r="C207" t="s">
+        <v>187</v>
+      </c>
+      <c r="G207">
+        <v>39</v>
+      </c>
+      <c r="H207">
+        <v>23</v>
+      </c>
+      <c r="K207">
+        <v>114421</v>
+      </c>
+      <c r="L207">
+        <v>119921</v>
+      </c>
+      <c r="M207" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" t="str">
+        <f t="shared" si="4"/>
+        <v>119921_118921_DEPOT</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="3"/>
+        <v>39-25</v>
+      </c>
+      <c r="C208" t="s">
+        <v>187</v>
+      </c>
+      <c r="G208">
+        <v>39</v>
+      </c>
+      <c r="H208">
+        <v>25</v>
+      </c>
+      <c r="K208">
+        <v>119921</v>
+      </c>
+      <c r="L208">
+        <v>118921</v>
+      </c>
+      <c r="M208" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" t="str">
+        <f t="shared" si="4"/>
+        <v>118921_119621_DEPOT</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="3"/>
+        <v>39-27</v>
+      </c>
+      <c r="C209" t="s">
+        <v>187</v>
+      </c>
+      <c r="G209">
+        <v>39</v>
+      </c>
+      <c r="H209">
+        <v>27</v>
+      </c>
+      <c r="K209">
+        <v>118921</v>
+      </c>
+      <c r="L209">
+        <v>119621</v>
+      </c>
+      <c r="M209" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" t="str">
+        <f t="shared" si="4"/>
+        <v>119621_114601_DEPOT</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="3"/>
+        <v>40-30</v>
+      </c>
+      <c r="C210" t="s">
+        <v>187</v>
+      </c>
+      <c r="G210">
+        <v>40</v>
+      </c>
+      <c r="H210">
+        <v>30</v>
+      </c>
+      <c r="K210">
+        <v>119621</v>
+      </c>
+      <c r="L210">
+        <v>114601</v>
+      </c>
+      <c r="M210" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" t="str">
+        <f t="shared" si="4"/>
+        <v>114601_126022_DEPOT</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="3"/>
+        <v>42-30</v>
+      </c>
+      <c r="C211" t="s">
+        <v>187</v>
+      </c>
+      <c r="G211">
+        <v>42</v>
+      </c>
+      <c r="H211">
+        <v>30</v>
+      </c>
+      <c r="K211">
+        <v>114601</v>
+      </c>
+      <c r="L211">
+        <v>126022</v>
+      </c>
+      <c r="M211" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f t="shared" si="4"/>
+        <v>126022_123322_DEPOT</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="3"/>
+        <v>44-30</v>
+      </c>
+      <c r="C212" t="s">
+        <v>187</v>
+      </c>
+      <c r="G212">
+        <v>44</v>
+      </c>
+      <c r="H212">
+        <v>30</v>
+      </c>
+      <c r="K212">
+        <v>126022</v>
+      </c>
+      <c r="L212">
+        <v>123322</v>
+      </c>
+      <c r="M212" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213" t="str">
+        <f t="shared" si="4"/>
+        <v>123322_122522_DEPOT</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="3"/>
+        <v>47-29</v>
+      </c>
+      <c r="C213" t="s">
+        <v>187</v>
+      </c>
+      <c r="G213">
+        <v>47</v>
+      </c>
+      <c r="H213">
+        <v>29</v>
+      </c>
+      <c r="K213">
+        <v>123322</v>
+      </c>
+      <c r="L213">
+        <v>122522</v>
+      </c>
+      <c r="M213" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214" t="str">
+        <f t="shared" si="4"/>
+        <v>122522_113522_DEPOT</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="3"/>
+        <v>49-27</v>
+      </c>
+      <c r="C214" t="s">
+        <v>187</v>
+      </c>
+      <c r="G214">
+        <v>49</v>
+      </c>
+      <c r="H214">
+        <v>27</v>
+      </c>
+      <c r="K214">
+        <v>122522</v>
+      </c>
+      <c r="L214">
+        <v>113522</v>
+      </c>
+      <c r="M214" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215" t="str">
+        <f t="shared" si="4"/>
+        <v>113522_133301_DEPOT</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="3"/>
+        <v>49-23</v>
+      </c>
+      <c r="C215" t="s">
+        <v>187</v>
+      </c>
+      <c r="D215" t="s">
+        <v>197</v>
+      </c>
+      <c r="G215">
+        <v>49</v>
+      </c>
+      <c r="H215">
+        <v>23</v>
+      </c>
+      <c r="K215">
+        <v>113522</v>
+      </c>
+      <c r="L215">
+        <v>133301</v>
+      </c>
+      <c r="M215" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_133302_113521</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="3"/>
+        <v>48-24</v>
+      </c>
+      <c r="C216" t="s">
+        <v>198</v>
+      </c>
+      <c r="D216" t="s">
+        <v>199</v>
+      </c>
+      <c r="G216">
+        <v>48</v>
+      </c>
+      <c r="H216">
+        <v>24</v>
+      </c>
+      <c r="K216" t="s">
+        <v>121</v>
+      </c>
+      <c r="L216">
+        <v>133302</v>
+      </c>
+      <c r="M216">
+        <v>113521</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_113521_122521</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="3"/>
+        <v>48-26</v>
+      </c>
+      <c r="C217" t="s">
+        <v>198</v>
+      </c>
+      <c r="G217">
+        <v>48</v>
+      </c>
+      <c r="H217">
+        <v>26</v>
+      </c>
+      <c r="K217" t="s">
+        <v>121</v>
+      </c>
+      <c r="L217">
+        <v>113521</v>
+      </c>
+      <c r="M217">
+        <v>122521</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_122521_123321</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="3"/>
+        <v>46-28</v>
+      </c>
+      <c r="C218" t="s">
+        <v>185</v>
+      </c>
+      <c r="G218">
+        <v>46</v>
+      </c>
+      <c r="H218">
+        <v>28</v>
+      </c>
+      <c r="K218" t="s">
+        <v>121</v>
+      </c>
+      <c r="L218">
+        <v>122521</v>
+      </c>
+      <c r="M218">
+        <v>123321</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_123321_126021</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="3"/>
+        <v>44-29</v>
+      </c>
+      <c r="C219" t="s">
+        <v>185</v>
+      </c>
+      <c r="G219">
+        <v>44</v>
+      </c>
+      <c r="H219">
+        <v>29</v>
+      </c>
+      <c r="K219" t="s">
+        <v>121</v>
+      </c>
+      <c r="L219">
+        <v>123321</v>
+      </c>
+      <c r="M219">
+        <v>126021</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_126021_114602</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="3"/>
+        <v>42-29</v>
+      </c>
+      <c r="C220" t="s">
+        <v>185</v>
+      </c>
+      <c r="G220">
+        <v>42</v>
+      </c>
+      <c r="H220">
+        <v>29</v>
+      </c>
+      <c r="K220" t="s">
+        <v>121</v>
+      </c>
+      <c r="L220">
+        <v>126021</v>
+      </c>
+      <c r="M220">
+        <v>114602</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_114602_119622</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="3"/>
+        <v>40-29</v>
+      </c>
+      <c r="C221" t="s">
+        <v>185</v>
+      </c>
+      <c r="G221">
+        <v>40</v>
+      </c>
+      <c r="H221">
+        <v>29</v>
+      </c>
+      <c r="K221" t="s">
+        <v>121</v>
+      </c>
+      <c r="L221">
+        <v>114602</v>
+      </c>
+      <c r="M221">
+        <v>119622</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_119622_118922</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="3"/>
+        <v>40-27</v>
+      </c>
+      <c r="C222" t="s">
+        <v>185</v>
+      </c>
+      <c r="G222">
+        <v>40</v>
+      </c>
+      <c r="H222">
+        <v>27</v>
+      </c>
+      <c r="K222" t="s">
+        <v>121</v>
+      </c>
+      <c r="L222">
+        <v>119622</v>
+      </c>
+      <c r="M222">
+        <v>118922</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_118922_119922</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="3"/>
+        <v>40-25</v>
+      </c>
+      <c r="C223" t="s">
+        <v>185</v>
+      </c>
+      <c r="G223">
+        <v>40</v>
+      </c>
+      <c r="H223">
+        <v>25</v>
+      </c>
+      <c r="K223" t="s">
+        <v>121</v>
+      </c>
+      <c r="L223">
+        <v>118922</v>
+      </c>
+      <c r="M223">
+        <v>119922</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_119922_114422</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="3"/>
+        <v>40-23</v>
+      </c>
+      <c r="C224" t="s">
+        <v>185</v>
+      </c>
+      <c r="G224">
+        <v>40</v>
+      </c>
+      <c r="H224">
+        <v>23</v>
+      </c>
+      <c r="K224" t="s">
+        <v>121</v>
+      </c>
+      <c r="L224">
+        <v>119922</v>
+      </c>
+      <c r="M224">
+        <v>114422</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_114422_115122</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="3"/>
+        <v>40-20</v>
+      </c>
+      <c r="C225" t="s">
+        <v>185</v>
+      </c>
+      <c r="G225">
+        <v>40</v>
+      </c>
+      <c r="H225">
+        <v>20</v>
+      </c>
+      <c r="K225" t="s">
+        <v>121</v>
+      </c>
+      <c r="L225">
+        <v>114422</v>
+      </c>
+      <c r="M225">
+        <v>115122</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_115122_427404</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="3"/>
+        <v>39-16</v>
+      </c>
+      <c r="C226" t="s">
+        <v>185</v>
+      </c>
+      <c r="G226">
+        <v>39</v>
+      </c>
+      <c r="H226">
+        <v>16</v>
+      </c>
+      <c r="K226" t="s">
+        <v>121</v>
+      </c>
+      <c r="L226">
+        <v>115122</v>
+      </c>
+      <c r="M226">
+        <v>427404</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_427404_427202</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="3"/>
+        <v>34-14</v>
+      </c>
+      <c r="C227" t="s">
+        <v>185</v>
+      </c>
+      <c r="G227">
+        <v>34</v>
+      </c>
+      <c r="H227">
+        <v>14</v>
+      </c>
+      <c r="K227" t="s">
+        <v>121</v>
+      </c>
+      <c r="L227">
+        <v>427404</v>
+      </c>
+      <c r="M227">
+        <v>427202</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_427202_114922</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="3"/>
+        <v>32-16</v>
+      </c>
+      <c r="C228" t="s">
+        <v>185</v>
+      </c>
+      <c r="G228">
+        <v>32</v>
+      </c>
+      <c r="H228">
+        <v>16</v>
+      </c>
+      <c r="K228" t="s">
+        <v>121</v>
+      </c>
+      <c r="L228">
+        <v>427202</v>
+      </c>
+      <c r="M228">
+        <v>114922</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_114922_679502</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="3"/>
+        <v>29-18</v>
+      </c>
+      <c r="C229" t="s">
+        <v>185</v>
+      </c>
+      <c r="G229">
+        <v>29</v>
+      </c>
+      <c r="H229">
+        <v>18</v>
+      </c>
+      <c r="K229" t="s">
+        <v>121</v>
+      </c>
+      <c r="L229">
+        <v>114922</v>
+      </c>
+      <c r="M229">
+        <v>679502</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_679502_121802</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="3"/>
+        <v>27-18</v>
+      </c>
+      <c r="C230" t="s">
+        <v>185</v>
+      </c>
+      <c r="G230">
+        <v>27</v>
+      </c>
+      <c r="H230">
+        <v>18</v>
+      </c>
+      <c r="K230" t="s">
+        <v>121</v>
+      </c>
+      <c r="L230">
+        <v>679502</v>
+      </c>
+      <c r="M230">
+        <v>121802</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_121802_120002</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="3"/>
+        <v>25-18</v>
+      </c>
+      <c r="C231" t="s">
+        <v>185</v>
+      </c>
+      <c r="G231">
+        <v>25</v>
+      </c>
+      <c r="H231">
+        <v>18</v>
+      </c>
+      <c r="K231" t="s">
+        <v>121</v>
+      </c>
+      <c r="L231">
+        <v>121802</v>
+      </c>
+      <c r="M231">
+        <v>120002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_120002_121602</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="3"/>
+        <v>23-16</v>
+      </c>
+      <c r="C232" t="s">
+        <v>185</v>
+      </c>
+      <c r="G232">
+        <v>23</v>
+      </c>
+      <c r="H232">
+        <v>16</v>
+      </c>
+      <c r="K232" t="s">
+        <v>121</v>
+      </c>
+      <c r="L232">
+        <v>120002</v>
+      </c>
+      <c r="M232">
+        <v>121602</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A233" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_121602_121902</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" ref="B233:B253" si="5">_xlfn.CONCAT(G233,"-",H233)</f>
+        <v>21-14</v>
+      </c>
+      <c r="C233" t="s">
+        <v>185</v>
+      </c>
+      <c r="G233">
+        <v>21</v>
+      </c>
+      <c r="H233">
+        <v>14</v>
+      </c>
+      <c r="K233" t="s">
+        <v>121</v>
+      </c>
+      <c r="L233">
+        <v>121602</v>
+      </c>
+      <c r="M233">
+        <v>121902</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_121902_120701</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="5"/>
+        <v>19-12</v>
+      </c>
+      <c r="C234" t="s">
+        <v>185</v>
+      </c>
+      <c r="D234" t="s">
+        <v>196</v>
+      </c>
+      <c r="G234">
+        <v>19</v>
+      </c>
+      <c r="H234">
+        <v>12</v>
+      </c>
+      <c r="K234" t="s">
+        <v>121</v>
+      </c>
+      <c r="L234">
+        <v>121902</v>
+      </c>
+      <c r="M234">
+        <v>120701</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_120701_121901</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="5"/>
+        <v>16-11</v>
+      </c>
+      <c r="C235" t="s">
+        <v>188</v>
+      </c>
+      <c r="D235" t="s">
+        <v>200</v>
+      </c>
+      <c r="G235">
+        <v>16</v>
+      </c>
+      <c r="H235">
+        <v>11</v>
+      </c>
+      <c r="K235" t="s">
+        <v>121</v>
+      </c>
+      <c r="L235">
+        <v>120701</v>
+      </c>
+      <c r="M235">
+        <v>121901</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_121901_121601</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="5"/>
+        <v>18-13</v>
+      </c>
+      <c r="C236" t="s">
+        <v>188</v>
+      </c>
+      <c r="G236">
+        <v>18</v>
+      </c>
+      <c r="H236">
+        <v>13</v>
+      </c>
+      <c r="K236" t="s">
+        <v>121</v>
+      </c>
+      <c r="L236">
+        <v>121901</v>
+      </c>
+      <c r="M236">
+        <v>121601</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_121601_120001</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="5"/>
+        <v>20-15</v>
+      </c>
+      <c r="C237" t="s">
+        <v>188</v>
+      </c>
+      <c r="G237">
+        <v>20</v>
+      </c>
+      <c r="H237">
+        <v>15</v>
+      </c>
+      <c r="K237" t="s">
+        <v>121</v>
+      </c>
+      <c r="L237">
+        <v>121601</v>
+      </c>
+      <c r="M237">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_120001_121801</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="5"/>
+        <v>22-17</v>
+      </c>
+      <c r="C238" t="s">
+        <v>188</v>
+      </c>
+      <c r="G238">
+        <v>22</v>
+      </c>
+      <c r="H238">
+        <v>17</v>
+      </c>
+      <c r="K238" t="s">
+        <v>121</v>
+      </c>
+      <c r="L238">
+        <v>120001</v>
+      </c>
+      <c r="M238">
+        <v>121801</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_121801_679501</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="5"/>
+        <v>25-19</v>
+      </c>
+      <c r="C239" t="s">
+        <v>188</v>
+      </c>
+      <c r="G239">
+        <v>25</v>
+      </c>
+      <c r="H239">
+        <v>19</v>
+      </c>
+      <c r="K239" t="s">
+        <v>121</v>
+      </c>
+      <c r="L239">
+        <v>121801</v>
+      </c>
+      <c r="M239">
+        <v>679501</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_679501_114921</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="5"/>
+        <v>27-19</v>
+      </c>
+      <c r="C240" t="s">
+        <v>188</v>
+      </c>
+      <c r="G240">
+        <v>27</v>
+      </c>
+      <c r="H240">
+        <v>19</v>
+      </c>
+      <c r="K240" t="s">
+        <v>121</v>
+      </c>
+      <c r="L240">
+        <v>679501</v>
+      </c>
+      <c r="M240">
+        <v>114921</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A241" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_114921_427201</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="5"/>
+        <v>29-19</v>
+      </c>
+      <c r="C241" t="s">
+        <v>188</v>
+      </c>
+      <c r="G241">
+        <v>29</v>
+      </c>
+      <c r="H241">
+        <v>19</v>
+      </c>
+      <c r="K241" t="s">
+        <v>121</v>
+      </c>
+      <c r="L241">
+        <v>114921</v>
+      </c>
+      <c r="M241">
+        <v>427201</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_427201_427403</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="5"/>
+        <v>33-17</v>
+      </c>
+      <c r="C242" t="s">
+        <v>188</v>
+      </c>
+      <c r="G242">
+        <v>33</v>
+      </c>
+      <c r="H242">
+        <v>17</v>
+      </c>
+      <c r="K242" t="s">
+        <v>121</v>
+      </c>
+      <c r="L242">
+        <v>427201</v>
+      </c>
+      <c r="M242">
+        <v>427403</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_427403_115121</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="5"/>
+        <v>35-15</v>
+      </c>
+      <c r="C243" t="s">
+        <v>188</v>
+      </c>
+      <c r="G243">
+        <v>35</v>
+      </c>
+      <c r="H243">
+        <v>15</v>
+      </c>
+      <c r="K243" t="s">
+        <v>121</v>
+      </c>
+      <c r="L243">
+        <v>427403</v>
+      </c>
+      <c r="M243">
+        <v>115121</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_115121_114421</v>
+      </c>
+      <c r="B244" t="str">
+        <f t="shared" si="5"/>
+        <v>38-17</v>
+      </c>
+      <c r="C244" t="s">
+        <v>188</v>
+      </c>
+      <c r="G244">
+        <v>38</v>
+      </c>
+      <c r="H244">
+        <v>17</v>
+      </c>
+      <c r="K244" t="s">
+        <v>121</v>
+      </c>
+      <c r="L244">
+        <v>115121</v>
+      </c>
+      <c r="M244">
+        <v>114421</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_114421_119921</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="5"/>
+        <v>39-20</v>
+      </c>
+      <c r="C245" t="s">
+        <v>188</v>
+      </c>
+      <c r="G245">
+        <v>39</v>
+      </c>
+      <c r="H245">
+        <v>20</v>
+      </c>
+      <c r="K245" t="s">
+        <v>121</v>
+      </c>
+      <c r="L245">
+        <v>114421</v>
+      </c>
+      <c r="M245">
+        <v>119921</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_119921_118921</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="5"/>
+        <v>39-23</v>
+      </c>
+      <c r="C246" t="s">
+        <v>188</v>
+      </c>
+      <c r="G246">
+        <v>39</v>
+      </c>
+      <c r="H246">
+        <v>23</v>
+      </c>
+      <c r="K246" t="s">
+        <v>121</v>
+      </c>
+      <c r="L246">
+        <v>119921</v>
+      </c>
+      <c r="M246">
+        <v>118921</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_118921_119621</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="5"/>
+        <v>39-25</v>
+      </c>
+      <c r="C247" t="s">
+        <v>188</v>
+      </c>
+      <c r="G247">
+        <v>39</v>
+      </c>
+      <c r="H247">
+        <v>25</v>
+      </c>
+      <c r="K247" t="s">
+        <v>121</v>
+      </c>
+      <c r="L247">
+        <v>118921</v>
+      </c>
+      <c r="M247">
+        <v>119621</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_119621_114601</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" si="5"/>
+        <v>39-27</v>
+      </c>
+      <c r="C248" t="s">
+        <v>188</v>
+      </c>
+      <c r="G248">
+        <v>39</v>
+      </c>
+      <c r="H248">
+        <v>27</v>
+      </c>
+      <c r="K248" t="s">
+        <v>121</v>
+      </c>
+      <c r="L248">
+        <v>119621</v>
+      </c>
+      <c r="M248">
+        <v>114601</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_114601_126022</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="5"/>
+        <v>40-30</v>
+      </c>
+      <c r="C249" t="s">
+        <v>188</v>
+      </c>
+      <c r="G249">
+        <v>40</v>
+      </c>
+      <c r="H249">
+        <v>30</v>
+      </c>
+      <c r="K249" t="s">
+        <v>121</v>
+      </c>
+      <c r="L249">
+        <v>114601</v>
+      </c>
+      <c r="M249">
+        <v>126022</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_126022_123322</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="5"/>
+        <v>42-30</v>
+      </c>
+      <c r="C250" t="s">
+        <v>188</v>
+      </c>
+      <c r="G250">
+        <v>42</v>
+      </c>
+      <c r="H250">
+        <v>30</v>
+      </c>
+      <c r="K250" t="s">
+        <v>121</v>
+      </c>
+      <c r="L250">
+        <v>126022</v>
+      </c>
+      <c r="M250">
+        <v>123322</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_123322_122522</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="5"/>
+        <v>44-30</v>
+      </c>
+      <c r="C251" t="s">
+        <v>188</v>
+      </c>
+      <c r="G251">
+        <v>44</v>
+      </c>
+      <c r="H251">
+        <v>30</v>
+      </c>
+      <c r="K251" t="s">
+        <v>121</v>
+      </c>
+      <c r="L251">
+        <v>123322</v>
+      </c>
+      <c r="M251">
+        <v>122522</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_122522_113522</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="5"/>
+        <v>47-29</v>
+      </c>
+      <c r="C252" t="s">
+        <v>188</v>
+      </c>
+      <c r="G252">
+        <v>47</v>
+      </c>
+      <c r="H252">
+        <v>29</v>
+      </c>
+      <c r="K252" t="s">
+        <v>121</v>
+      </c>
+      <c r="L252">
+        <v>122522</v>
+      </c>
+      <c r="M252">
+        <v>113522</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253" t="str">
+        <f t="shared" si="4"/>
+        <v>DEPOT_113522_133301</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="5"/>
+        <v>49-27</v>
+      </c>
+      <c r="C253" t="s">
+        <v>188</v>
+      </c>
+      <c r="D253" t="s">
+        <v>201</v>
+      </c>
+      <c r="G253">
+        <v>49</v>
+      </c>
+      <c r="H253">
+        <v>27</v>
+      </c>
+      <c r="K253" t="s">
+        <v>121</v>
+      </c>
+      <c r="L253">
+        <v>113522</v>
+      </c>
+      <c r="M253">
+        <v>133301</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/statuscode_led_mapping_template.xlsx
+++ b/src/statuscode_led_mapping_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\github\rnv-train-monitor\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEC01A2-F2B2-4B91-96FC-0E1F4D20F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D87584D-9C44-4F12-BBA3-E3A271B83167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6BC448DE-82B4-40A0-A0A8-5C16E427463C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="229">
   <si>
     <t>statuscode</t>
   </si>
@@ -639,6 +639,87 @@
   </si>
   <si>
     <t>Kapellenweg</t>
+  </si>
+  <si>
+    <t>23E B-L</t>
+  </si>
+  <si>
+    <t>22E B-E</t>
+  </si>
+  <si>
+    <t>23 B-L transit</t>
+  </si>
+  <si>
+    <t>23 L-B transit</t>
+  </si>
+  <si>
+    <t>23 B-L stopped</t>
+  </si>
+  <si>
+    <t>23 L-B stopped</t>
+  </si>
+  <si>
+    <t>23 B-L stopped last</t>
+  </si>
+  <si>
+    <t>23 L-B stopped last</t>
+  </si>
+  <si>
+    <t>23 B-L stopped first</t>
+  </si>
+  <si>
+    <t>23 L-B stopped first</t>
+  </si>
+  <si>
+    <t>23E B-L stopped</t>
+  </si>
+  <si>
+    <t>23E B-L stopped last</t>
+  </si>
+  <si>
+    <t>23E B-L stopped first</t>
+  </si>
+  <si>
+    <t>23E B-L transit</t>
+  </si>
+  <si>
+    <t>Moltkestraße &gt; Leimen Friedhof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moltkestraße  </t>
+  </si>
+  <si>
+    <t>Leimen Friedhof &gt; Moltkestraße</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leimen Friedhof  </t>
+  </si>
+  <si>
+    <t>Moltkestraße</t>
+  </si>
+  <si>
+    <t>Leimen Friedhof</t>
+  </si>
+  <si>
+    <t>Betriebshof &gt; Hbf</t>
+  </si>
+  <si>
+    <t>Stadtwerke &gt; Römerkreis Süd</t>
+  </si>
+  <si>
+    <t>Hbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stadtwerke </t>
+  </si>
+  <si>
+    <t>Römerkreis Süd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betriebshof </t>
+  </si>
+  <si>
+    <t>Stadtwerke</t>
   </si>
 </sst>
 </file>
@@ -1128,8 +1209,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1505,47 +1587,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049D7F86-3D4A-4BAF-A7FA-ECA534A64199}">
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:Q422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G235" sqref="G235"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="16" max="16" width="28.28515625" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3986,7 +4070,7 @@
         <v>427501</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>174</v>
       </c>
@@ -4012,7 +4096,7 @@
         <v>427404</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>175</v>
       </c>
@@ -4038,7 +4122,7 @@
         <v>427202</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>176</v>
       </c>
@@ -4064,7 +4148,7 @@
         <v>679421</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>177</v>
       </c>
@@ -4090,7 +4174,7 @@
         <v>679101</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>178</v>
       </c>
@@ -4116,7 +4200,7 @@
         <v>119321</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>179</v>
       </c>
@@ -4142,7 +4226,7 @@
         <v>116821</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>180</v>
       </c>
@@ -4171,7 +4255,7 @@
         <v>114601</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f>_xlfn.CONCAT(K104,"_",M104)</f>
         <v>133302_113521</v>
@@ -4198,8 +4282,11 @@
       <c r="M104">
         <v>113521</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P104" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" ref="A105:A141" si="0">_xlfn.CONCAT(K105,"_",M105)</f>
         <v>113521_122521</v>
@@ -4223,8 +4310,11 @@
       <c r="M105">
         <v>122521</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P105">
+        <v>114424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="0"/>
         <v>122521_123321</v>
@@ -4248,8 +4338,11 @@
       <c r="M106">
         <v>123321</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P106">
+        <v>115122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="0"/>
         <v>123321_126021</v>
@@ -4273,8 +4366,11 @@
       <c r="M107">
         <v>126021</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P107">
+        <v>427402</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="0"/>
         <v>126021_114602</v>
@@ -4298,8 +4394,11 @@
       <c r="M108">
         <v>114602</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P108">
+        <v>427502</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="0"/>
         <v>114602_119622</v>
@@ -4324,7 +4423,7 @@
         <v>119622</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="0"/>
         <v>119622_118922</v>
@@ -4349,7 +4448,7 @@
         <v>118922</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="0"/>
         <v>118922_119922</v>
@@ -4374,7 +4473,7 @@
         <v>119922</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="0"/>
         <v>119922_114422</v>
@@ -7938,7 +8037,7 @@
         <v>114921</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_114921_427201</v>
@@ -7966,7 +8065,7 @@
         <v>427201</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_427201_427403</v>
@@ -7994,7 +8093,7 @@
         <v>427403</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_427403_115121</v>
@@ -8022,7 +8121,7 @@
         <v>115121</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_115121_114421</v>
@@ -8050,7 +8149,7 @@
         <v>114421</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_114421_119921</v>
@@ -8078,7 +8177,7 @@
         <v>119921</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_119921_118921</v>
@@ -8106,7 +8205,7 @@
         <v>118921</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_118921_119621</v>
@@ -8134,7 +8233,7 @@
         <v>119621</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_119621_114601</v>
@@ -8162,7 +8261,7 @@
         <v>114601</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_114601_126022</v>
@@ -8190,7 +8289,7 @@
         <v>126022</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_126022_123322</v>
@@ -8218,7 +8317,7 @@
         <v>123322</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_123322_122522</v>
@@ -8246,7 +8345,7 @@
         <v>122522</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_122522_113522</v>
@@ -8274,7 +8373,7 @@
         <v>113522</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="4"/>
         <v>DEPOT_113522_133301</v>
@@ -8303,6 +8402,4828 @@
       </c>
       <c r="M253">
         <v>133301</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A254" t="str">
+        <f>_xlfn.CONCAT(K254,"_",M254)</f>
+        <v>114602_116822</v>
+      </c>
+      <c r="B254" t="str">
+        <f>_xlfn.CONCAT(G254,"-",H254)</f>
+        <v>38-29</v>
+      </c>
+      <c r="C254" t="s">
+        <v>204</v>
+      </c>
+      <c r="D254" t="s">
+        <v>12</v>
+      </c>
+      <c r="G254">
+        <v>38</v>
+      </c>
+      <c r="H254">
+        <v>29</v>
+      </c>
+      <c r="K254">
+        <v>114602</v>
+      </c>
+      <c r="M254">
+        <v>116822</v>
+      </c>
+      <c r="P254">
+        <v>114602</v>
+      </c>
+      <c r="Q254">
+        <v>187901</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A255" t="str">
+        <f t="shared" ref="A255:A293" si="6">_xlfn.CONCAT(K255,"_",M255)</f>
+        <v>116822_119322</v>
+      </c>
+      <c r="B255" t="str">
+        <f t="shared" ref="B255:B312" si="7">_xlfn.CONCAT(G255,"-",H255)</f>
+        <v>37-27</v>
+      </c>
+      <c r="C255" t="s">
+        <v>204</v>
+      </c>
+      <c r="G255">
+        <v>37</v>
+      </c>
+      <c r="H255">
+        <v>27</v>
+      </c>
+      <c r="K255">
+        <v>116822</v>
+      </c>
+      <c r="M255">
+        <v>119322</v>
+      </c>
+      <c r="P255">
+        <v>116822</v>
+      </c>
+      <c r="Q255">
+        <v>188401</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A256" t="str">
+        <f t="shared" si="6"/>
+        <v>119322_118722</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="7"/>
+        <v>37-25</v>
+      </c>
+      <c r="C256" t="s">
+        <v>204</v>
+      </c>
+      <c r="G256">
+        <v>37</v>
+      </c>
+      <c r="H256">
+        <v>25</v>
+      </c>
+      <c r="K256">
+        <v>119322</v>
+      </c>
+      <c r="M256">
+        <v>118722</v>
+      </c>
+      <c r="P256">
+        <v>119322</v>
+      </c>
+      <c r="Q256">
+        <v>188901</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A257" t="str">
+        <f t="shared" si="6"/>
+        <v>118722_115022</v>
+      </c>
+      <c r="B257" t="str">
+        <f t="shared" si="7"/>
+        <v>33-24</v>
+      </c>
+      <c r="C257" t="s">
+        <v>204</v>
+      </c>
+      <c r="G257">
+        <v>33</v>
+      </c>
+      <c r="H257">
+        <v>24</v>
+      </c>
+      <c r="K257">
+        <v>118722</v>
+      </c>
+      <c r="M257">
+        <v>115022</v>
+      </c>
+      <c r="P257">
+        <v>118722</v>
+      </c>
+      <c r="Q257">
+        <v>188601</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A258" t="str">
+        <f t="shared" si="6"/>
+        <v>115022_145722</v>
+      </c>
+      <c r="B258" t="str">
+        <f t="shared" si="7"/>
+        <v>31-24</v>
+      </c>
+      <c r="C258" t="s">
+        <v>204</v>
+      </c>
+      <c r="G258">
+        <v>31</v>
+      </c>
+      <c r="H258">
+        <v>24</v>
+      </c>
+      <c r="K258">
+        <v>115022</v>
+      </c>
+      <c r="M258">
+        <v>145722</v>
+      </c>
+      <c r="P258">
+        <v>115022</v>
+      </c>
+      <c r="Q258">
+        <v>188201</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A259" t="str">
+        <f t="shared" si="6"/>
+        <v>145722_114122</v>
+      </c>
+      <c r="B259" t="str">
+        <f t="shared" si="7"/>
+        <v>29-24</v>
+      </c>
+      <c r="C259" t="s">
+        <v>204</v>
+      </c>
+      <c r="G259">
+        <v>29</v>
+      </c>
+      <c r="H259">
+        <v>24</v>
+      </c>
+      <c r="K259">
+        <v>145722</v>
+      </c>
+      <c r="M259">
+        <v>114122</v>
+      </c>
+      <c r="P259">
+        <v>145722</v>
+      </c>
+      <c r="Q259">
+        <v>189001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A260" t="str">
+        <f t="shared" si="6"/>
+        <v>114122_114322</v>
+      </c>
+      <c r="B260" t="str">
+        <f t="shared" si="7"/>
+        <v>27-24</v>
+      </c>
+      <c r="C260" t="s">
+        <v>204</v>
+      </c>
+      <c r="G260">
+        <v>27</v>
+      </c>
+      <c r="H260">
+        <v>24</v>
+      </c>
+      <c r="K260">
+        <v>114122</v>
+      </c>
+      <c r="M260">
+        <v>114322</v>
+      </c>
+      <c r="P260">
+        <v>114122</v>
+      </c>
+      <c r="Q260">
+        <v>127801</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A261" t="str">
+        <f t="shared" si="6"/>
+        <v>114322_118522</v>
+      </c>
+      <c r="B261" t="str">
+        <f t="shared" si="7"/>
+        <v>25-24</v>
+      </c>
+      <c r="C261" t="s">
+        <v>204</v>
+      </c>
+      <c r="G261">
+        <v>25</v>
+      </c>
+      <c r="H261">
+        <v>24</v>
+      </c>
+      <c r="K261">
+        <v>114322</v>
+      </c>
+      <c r="M261">
+        <v>118522</v>
+      </c>
+      <c r="P261">
+        <v>114322</v>
+      </c>
+      <c r="Q261">
+        <v>126721</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A262" t="str">
+        <f t="shared" si="6"/>
+        <v>118522_127322</v>
+      </c>
+      <c r="B262" t="str">
+        <f t="shared" si="7"/>
+        <v>23-24</v>
+      </c>
+      <c r="C262" t="s">
+        <v>204</v>
+      </c>
+      <c r="G262">
+        <v>23</v>
+      </c>
+      <c r="H262">
+        <v>24</v>
+      </c>
+      <c r="K262">
+        <v>118522</v>
+      </c>
+      <c r="M262">
+        <v>127322</v>
+      </c>
+      <c r="P262">
+        <v>118522</v>
+      </c>
+      <c r="Q262">
+        <v>127401</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A263" t="str">
+        <f t="shared" si="6"/>
+        <v>127322_126322</v>
+      </c>
+      <c r="B263" t="str">
+        <f t="shared" si="7"/>
+        <v>21-24</v>
+      </c>
+      <c r="C263" t="s">
+        <v>204</v>
+      </c>
+      <c r="G263">
+        <v>21</v>
+      </c>
+      <c r="H263">
+        <v>24</v>
+      </c>
+      <c r="K263">
+        <v>127322</v>
+      </c>
+      <c r="M263">
+        <v>126322</v>
+      </c>
+      <c r="P263">
+        <v>127322</v>
+      </c>
+      <c r="Q263">
+        <v>127621</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A264" t="str">
+        <f t="shared" si="6"/>
+        <v>126322_127622</v>
+      </c>
+      <c r="B264" t="str">
+        <f t="shared" si="7"/>
+        <v>19-24</v>
+      </c>
+      <c r="C264" t="s">
+        <v>204</v>
+      </c>
+      <c r="G264">
+        <v>19</v>
+      </c>
+      <c r="H264">
+        <v>24</v>
+      </c>
+      <c r="K264">
+        <v>126322</v>
+      </c>
+      <c r="M264">
+        <v>127622</v>
+      </c>
+      <c r="P264">
+        <v>126322</v>
+      </c>
+      <c r="Q264">
+        <v>126321</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A265" t="str">
+        <f t="shared" si="6"/>
+        <v>127622_127402</v>
+      </c>
+      <c r="B265" t="str">
+        <f t="shared" si="7"/>
+        <v>17-24</v>
+      </c>
+      <c r="C265" t="s">
+        <v>204</v>
+      </c>
+      <c r="G265">
+        <v>17</v>
+      </c>
+      <c r="H265">
+        <v>24</v>
+      </c>
+      <c r="K265">
+        <v>127622</v>
+      </c>
+      <c r="M265">
+        <v>127402</v>
+      </c>
+      <c r="P265">
+        <v>127622</v>
+      </c>
+      <c r="Q265">
+        <v>127321</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A266" t="str">
+        <f t="shared" si="6"/>
+        <v>127402_126722</v>
+      </c>
+      <c r="B266" t="str">
+        <f t="shared" si="7"/>
+        <v>15-24</v>
+      </c>
+      <c r="C266" t="s">
+        <v>204</v>
+      </c>
+      <c r="G266">
+        <v>15</v>
+      </c>
+      <c r="H266">
+        <v>24</v>
+      </c>
+      <c r="K266">
+        <v>127402</v>
+      </c>
+      <c r="M266">
+        <v>126722</v>
+      </c>
+      <c r="P266">
+        <v>127402</v>
+      </c>
+      <c r="Q266">
+        <v>118521</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A267" t="str">
+        <f t="shared" si="6"/>
+        <v>126722_127802</v>
+      </c>
+      <c r="B267" t="str">
+        <f t="shared" si="7"/>
+        <v>13-24</v>
+      </c>
+      <c r="C267" t="s">
+        <v>204</v>
+      </c>
+      <c r="G267">
+        <v>13</v>
+      </c>
+      <c r="H267">
+        <v>24</v>
+      </c>
+      <c r="K267">
+        <v>126722</v>
+      </c>
+      <c r="M267">
+        <v>127802</v>
+      </c>
+      <c r="P267">
+        <v>126722</v>
+      </c>
+      <c r="Q267">
+        <v>114321</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A268" t="str">
+        <f t="shared" si="6"/>
+        <v>127802_189002</v>
+      </c>
+      <c r="B268" t="str">
+        <f t="shared" si="7"/>
+        <v>11-24</v>
+      </c>
+      <c r="C268" t="s">
+        <v>204</v>
+      </c>
+      <c r="G268">
+        <v>11</v>
+      </c>
+      <c r="H268">
+        <v>24</v>
+      </c>
+      <c r="K268">
+        <v>127802</v>
+      </c>
+      <c r="M268">
+        <v>189002</v>
+      </c>
+      <c r="P268">
+        <v>127802</v>
+      </c>
+      <c r="Q268">
+        <v>114121</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A269" t="str">
+        <f t="shared" si="6"/>
+        <v>189002_188202</v>
+      </c>
+      <c r="B269" t="str">
+        <f t="shared" si="7"/>
+        <v>9-24</v>
+      </c>
+      <c r="C269" t="s">
+        <v>204</v>
+      </c>
+      <c r="G269">
+        <v>9</v>
+      </c>
+      <c r="H269">
+        <v>24</v>
+      </c>
+      <c r="K269">
+        <v>189002</v>
+      </c>
+      <c r="M269">
+        <v>188202</v>
+      </c>
+      <c r="P269">
+        <v>189002</v>
+      </c>
+      <c r="Q269">
+        <v>145721</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A270" t="str">
+        <f t="shared" si="6"/>
+        <v>188202_188602</v>
+      </c>
+      <c r="B270" t="str">
+        <f t="shared" si="7"/>
+        <v>7-24</v>
+      </c>
+      <c r="C270" t="s">
+        <v>204</v>
+      </c>
+      <c r="G270">
+        <v>7</v>
+      </c>
+      <c r="H270">
+        <v>24</v>
+      </c>
+      <c r="K270">
+        <v>188202</v>
+      </c>
+      <c r="M270">
+        <v>188602</v>
+      </c>
+      <c r="P270">
+        <v>188202</v>
+      </c>
+      <c r="Q270">
+        <v>115021</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A271" t="str">
+        <f t="shared" si="6"/>
+        <v>188602_188902</v>
+      </c>
+      <c r="B271" t="str">
+        <f t="shared" si="7"/>
+        <v>5-24</v>
+      </c>
+      <c r="C271" t="s">
+        <v>204</v>
+      </c>
+      <c r="G271">
+        <v>5</v>
+      </c>
+      <c r="H271">
+        <v>24</v>
+      </c>
+      <c r="K271">
+        <v>188602</v>
+      </c>
+      <c r="M271">
+        <v>188902</v>
+      </c>
+      <c r="P271">
+        <v>188602</v>
+      </c>
+      <c r="Q271">
+        <v>118721</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A272" t="str">
+        <f t="shared" si="6"/>
+        <v>188902_188402</v>
+      </c>
+      <c r="B272" t="str">
+        <f t="shared" si="7"/>
+        <v>3-24</v>
+      </c>
+      <c r="C272" t="s">
+        <v>204</v>
+      </c>
+      <c r="G272">
+        <v>3</v>
+      </c>
+      <c r="H272">
+        <v>24</v>
+      </c>
+      <c r="K272">
+        <v>188902</v>
+      </c>
+      <c r="M272">
+        <v>188402</v>
+      </c>
+      <c r="P272">
+        <v>188902</v>
+      </c>
+      <c r="Q272">
+        <v>119321</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A273" t="str">
+        <f t="shared" si="6"/>
+        <v>188402_187901</v>
+      </c>
+      <c r="B273" t="str">
+        <f t="shared" si="7"/>
+        <v>1-24</v>
+      </c>
+      <c r="C273" t="s">
+        <v>204</v>
+      </c>
+      <c r="D273" t="s">
+        <v>216</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>24</v>
+      </c>
+      <c r="K273">
+        <v>188402</v>
+      </c>
+      <c r="M273">
+        <v>187901</v>
+      </c>
+      <c r="P273">
+        <v>188402</v>
+      </c>
+      <c r="Q273">
+        <v>116821</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A274" t="str">
+        <f t="shared" si="6"/>
+        <v>187901_188401</v>
+      </c>
+      <c r="B274" t="str">
+        <f t="shared" si="7"/>
+        <v>1-25</v>
+      </c>
+      <c r="C274" t="s">
+        <v>205</v>
+      </c>
+      <c r="D274" t="s">
+        <v>218</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>25</v>
+      </c>
+      <c r="K274">
+        <v>187901</v>
+      </c>
+      <c r="M274">
+        <v>188401</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A275" t="str">
+        <f t="shared" si="6"/>
+        <v>188401_188901</v>
+      </c>
+      <c r="B275" t="str">
+        <f t="shared" si="7"/>
+        <v>3-25</v>
+      </c>
+      <c r="C275" t="s">
+        <v>205</v>
+      </c>
+      <c r="G275">
+        <v>3</v>
+      </c>
+      <c r="H275">
+        <v>25</v>
+      </c>
+      <c r="K275">
+        <v>188401</v>
+      </c>
+      <c r="M275">
+        <v>188901</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A276" t="str">
+        <f t="shared" si="6"/>
+        <v>188901_188601</v>
+      </c>
+      <c r="B276" t="str">
+        <f t="shared" si="7"/>
+        <v>5-25</v>
+      </c>
+      <c r="C276" t="s">
+        <v>205</v>
+      </c>
+      <c r="G276">
+        <v>5</v>
+      </c>
+      <c r="H276">
+        <v>25</v>
+      </c>
+      <c r="K276">
+        <v>188901</v>
+      </c>
+      <c r="M276">
+        <v>188601</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A277" t="str">
+        <f t="shared" si="6"/>
+        <v>188601_188201</v>
+      </c>
+      <c r="B277" t="str">
+        <f t="shared" si="7"/>
+        <v>7-25</v>
+      </c>
+      <c r="C277" t="s">
+        <v>205</v>
+      </c>
+      <c r="G277">
+        <v>7</v>
+      </c>
+      <c r="H277">
+        <v>25</v>
+      </c>
+      <c r="K277">
+        <v>188601</v>
+      </c>
+      <c r="M277">
+        <v>188201</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A278" t="str">
+        <f t="shared" si="6"/>
+        <v>188201_189001</v>
+      </c>
+      <c r="B278" t="str">
+        <f t="shared" si="7"/>
+        <v>9-25</v>
+      </c>
+      <c r="C278" t="s">
+        <v>205</v>
+      </c>
+      <c r="G278">
+        <v>9</v>
+      </c>
+      <c r="H278">
+        <v>25</v>
+      </c>
+      <c r="K278">
+        <v>188201</v>
+      </c>
+      <c r="M278">
+        <v>189001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A279" t="str">
+        <f t="shared" si="6"/>
+        <v>189001_127801</v>
+      </c>
+      <c r="B279" t="str">
+        <f t="shared" si="7"/>
+        <v>11-25</v>
+      </c>
+      <c r="C279" t="s">
+        <v>205</v>
+      </c>
+      <c r="G279">
+        <v>11</v>
+      </c>
+      <c r="H279">
+        <v>25</v>
+      </c>
+      <c r="K279">
+        <v>189001</v>
+      </c>
+      <c r="M279">
+        <v>127801</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A280" t="str">
+        <f t="shared" si="6"/>
+        <v>127801_126721</v>
+      </c>
+      <c r="B280" t="str">
+        <f t="shared" si="7"/>
+        <v>13-25</v>
+      </c>
+      <c r="C280" t="s">
+        <v>205</v>
+      </c>
+      <c r="G280">
+        <v>13</v>
+      </c>
+      <c r="H280">
+        <v>25</v>
+      </c>
+      <c r="K280">
+        <v>127801</v>
+      </c>
+      <c r="M280">
+        <v>126721</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A281" t="str">
+        <f t="shared" si="6"/>
+        <v>126721_127401</v>
+      </c>
+      <c r="B281" t="str">
+        <f t="shared" si="7"/>
+        <v>15-25</v>
+      </c>
+      <c r="C281" t="s">
+        <v>205</v>
+      </c>
+      <c r="G281">
+        <v>15</v>
+      </c>
+      <c r="H281">
+        <v>25</v>
+      </c>
+      <c r="K281">
+        <v>126721</v>
+      </c>
+      <c r="M281">
+        <v>127401</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A282" t="str">
+        <f t="shared" si="6"/>
+        <v>127401_127621</v>
+      </c>
+      <c r="B282" t="str">
+        <f t="shared" si="7"/>
+        <v>17-25</v>
+      </c>
+      <c r="C282" t="s">
+        <v>205</v>
+      </c>
+      <c r="G282">
+        <v>17</v>
+      </c>
+      <c r="H282">
+        <v>25</v>
+      </c>
+      <c r="K282">
+        <v>127401</v>
+      </c>
+      <c r="M282">
+        <v>127621</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A283" t="str">
+        <f t="shared" si="6"/>
+        <v>127621_126321</v>
+      </c>
+      <c r="B283" t="str">
+        <f t="shared" si="7"/>
+        <v>19-25</v>
+      </c>
+      <c r="C283" t="s">
+        <v>205</v>
+      </c>
+      <c r="G283">
+        <v>19</v>
+      </c>
+      <c r="H283">
+        <v>25</v>
+      </c>
+      <c r="K283">
+        <v>127621</v>
+      </c>
+      <c r="M283">
+        <v>126321</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A284" t="str">
+        <f t="shared" si="6"/>
+        <v>126321_127321</v>
+      </c>
+      <c r="B284" t="str">
+        <f t="shared" si="7"/>
+        <v>21-25</v>
+      </c>
+      <c r="C284" t="s">
+        <v>205</v>
+      </c>
+      <c r="G284">
+        <v>21</v>
+      </c>
+      <c r="H284">
+        <v>25</v>
+      </c>
+      <c r="K284">
+        <v>126321</v>
+      </c>
+      <c r="M284">
+        <v>127321</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A285" t="str">
+        <f t="shared" si="6"/>
+        <v>127321_118521</v>
+      </c>
+      <c r="B285" t="str">
+        <f t="shared" si="7"/>
+        <v>23-25</v>
+      </c>
+      <c r="C285" t="s">
+        <v>205</v>
+      </c>
+      <c r="G285">
+        <v>23</v>
+      </c>
+      <c r="H285">
+        <v>25</v>
+      </c>
+      <c r="K285">
+        <v>127321</v>
+      </c>
+      <c r="M285">
+        <v>118521</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A286" t="str">
+        <f t="shared" si="6"/>
+        <v>118521_114321</v>
+      </c>
+      <c r="B286" t="str">
+        <f t="shared" si="7"/>
+        <v>25-25</v>
+      </c>
+      <c r="C286" t="s">
+        <v>205</v>
+      </c>
+      <c r="G286">
+        <v>25</v>
+      </c>
+      <c r="H286">
+        <v>25</v>
+      </c>
+      <c r="K286">
+        <v>118521</v>
+      </c>
+      <c r="M286">
+        <v>114321</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A287" t="str">
+        <f t="shared" si="6"/>
+        <v>114321_114121</v>
+      </c>
+      <c r="B287" t="str">
+        <f t="shared" si="7"/>
+        <v>27-25</v>
+      </c>
+      <c r="C287" t="s">
+        <v>205</v>
+      </c>
+      <c r="G287">
+        <v>27</v>
+      </c>
+      <c r="H287">
+        <v>25</v>
+      </c>
+      <c r="K287">
+        <v>114321</v>
+      </c>
+      <c r="M287">
+        <v>114121</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A288" t="str">
+        <f t="shared" si="6"/>
+        <v>114121_145721</v>
+      </c>
+      <c r="B288" t="str">
+        <f t="shared" si="7"/>
+        <v>29-25</v>
+      </c>
+      <c r="C288" t="s">
+        <v>205</v>
+      </c>
+      <c r="G288">
+        <v>29</v>
+      </c>
+      <c r="H288">
+        <v>25</v>
+      </c>
+      <c r="K288">
+        <v>114121</v>
+      </c>
+      <c r="M288">
+        <v>145721</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289" t="str">
+        <f t="shared" si="6"/>
+        <v>145721_115021</v>
+      </c>
+      <c r="B289" t="str">
+        <f t="shared" si="7"/>
+        <v>31-25</v>
+      </c>
+      <c r="C289" t="s">
+        <v>205</v>
+      </c>
+      <c r="G289">
+        <v>31</v>
+      </c>
+      <c r="H289">
+        <v>25</v>
+      </c>
+      <c r="K289">
+        <v>145721</v>
+      </c>
+      <c r="M289">
+        <v>115021</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290" t="str">
+        <f t="shared" si="6"/>
+        <v>115021_118721</v>
+      </c>
+      <c r="B290" t="str">
+        <f t="shared" si="7"/>
+        <v>33-25</v>
+      </c>
+      <c r="C290" t="s">
+        <v>205</v>
+      </c>
+      <c r="G290">
+        <v>33</v>
+      </c>
+      <c r="H290">
+        <v>25</v>
+      </c>
+      <c r="K290">
+        <v>115021</v>
+      </c>
+      <c r="M290">
+        <v>118721</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291" t="str">
+        <f t="shared" si="6"/>
+        <v>118721_119321</v>
+      </c>
+      <c r="B291" t="str">
+        <f t="shared" si="7"/>
+        <v>35-25</v>
+      </c>
+      <c r="C291" t="s">
+        <v>205</v>
+      </c>
+      <c r="G291">
+        <v>35</v>
+      </c>
+      <c r="H291">
+        <v>25</v>
+      </c>
+      <c r="K291">
+        <v>118721</v>
+      </c>
+      <c r="M291">
+        <v>119321</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" t="str">
+        <f t="shared" si="6"/>
+        <v>119321_116821</v>
+      </c>
+      <c r="B292" t="str">
+        <f t="shared" si="7"/>
+        <v>36-27</v>
+      </c>
+      <c r="C292" t="s">
+        <v>205</v>
+      </c>
+      <c r="G292">
+        <v>36</v>
+      </c>
+      <c r="H292">
+        <v>27</v>
+      </c>
+      <c r="K292">
+        <v>119321</v>
+      </c>
+      <c r="M292">
+        <v>116821</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293" t="str">
+        <f t="shared" si="6"/>
+        <v>116821_114601</v>
+      </c>
+      <c r="B293" t="str">
+        <f t="shared" si="7"/>
+        <v>38-30</v>
+      </c>
+      <c r="C293" t="s">
+        <v>205</v>
+      </c>
+      <c r="D293" t="s">
+        <v>66</v>
+      </c>
+      <c r="G293">
+        <v>38</v>
+      </c>
+      <c r="H293">
+        <v>30</v>
+      </c>
+      <c r="K293">
+        <v>116821</v>
+      </c>
+      <c r="M293">
+        <v>114601</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A294" t="str">
+        <f t="shared" ref="A294" si="8">_xlfn.CONCAT(K294,"_",L294,"_",M294)</f>
+        <v>114602_116822_119322</v>
+      </c>
+      <c r="B294" t="str">
+        <f t="shared" si="7"/>
+        <v>37-28</v>
+      </c>
+      <c r="C294" t="s">
+        <v>206</v>
+      </c>
+      <c r="D294" t="s">
+        <v>70</v>
+      </c>
+      <c r="G294">
+        <v>37</v>
+      </c>
+      <c r="H294">
+        <v>28</v>
+      </c>
+      <c r="K294">
+        <v>114602</v>
+      </c>
+      <c r="L294">
+        <v>116822</v>
+      </c>
+      <c r="M294">
+        <v>119322</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A295" t="str">
+        <f>_xlfn.CONCAT(K295,"_",L295,"_",M295)</f>
+        <v>116822_119322_118722</v>
+      </c>
+      <c r="B295" t="str">
+        <f t="shared" si="7"/>
+        <v>37-26</v>
+      </c>
+      <c r="C295" t="s">
+        <v>206</v>
+      </c>
+      <c r="G295">
+        <v>37</v>
+      </c>
+      <c r="H295">
+        <v>26</v>
+      </c>
+      <c r="K295">
+        <v>116822</v>
+      </c>
+      <c r="L295">
+        <v>119322</v>
+      </c>
+      <c r="M295">
+        <v>118722</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296" t="str">
+        <f t="shared" ref="A296:A351" si="9">_xlfn.CONCAT(K296,"_",L296,"_",M296)</f>
+        <v>119322_118722_115022</v>
+      </c>
+      <c r="B296" t="str">
+        <f t="shared" si="7"/>
+        <v>34-24</v>
+      </c>
+      <c r="C296" t="s">
+        <v>206</v>
+      </c>
+      <c r="G296">
+        <v>34</v>
+      </c>
+      <c r="H296">
+        <v>24</v>
+      </c>
+      <c r="K296">
+        <v>119322</v>
+      </c>
+      <c r="L296">
+        <v>118722</v>
+      </c>
+      <c r="M296">
+        <v>115022</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A297" t="str">
+        <f t="shared" si="9"/>
+        <v>118722_115022_145722</v>
+      </c>
+      <c r="B297" t="str">
+        <f t="shared" si="7"/>
+        <v>32-24</v>
+      </c>
+      <c r="C297" t="s">
+        <v>206</v>
+      </c>
+      <c r="G297">
+        <v>32</v>
+      </c>
+      <c r="H297">
+        <v>24</v>
+      </c>
+      <c r="K297">
+        <v>118722</v>
+      </c>
+      <c r="L297">
+        <v>115022</v>
+      </c>
+      <c r="M297">
+        <v>145722</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298" t="str">
+        <f t="shared" si="9"/>
+        <v>115022_145722_114122</v>
+      </c>
+      <c r="B298" t="str">
+        <f t="shared" si="7"/>
+        <v>30-24</v>
+      </c>
+      <c r="C298" t="s">
+        <v>206</v>
+      </c>
+      <c r="G298">
+        <v>30</v>
+      </c>
+      <c r="H298">
+        <v>24</v>
+      </c>
+      <c r="K298">
+        <v>115022</v>
+      </c>
+      <c r="L298">
+        <v>145722</v>
+      </c>
+      <c r="M298">
+        <v>114122</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299" t="str">
+        <f t="shared" si="9"/>
+        <v>145722_114122_114322</v>
+      </c>
+      <c r="B299" t="str">
+        <f t="shared" si="7"/>
+        <v>28-24</v>
+      </c>
+      <c r="C299" t="s">
+        <v>206</v>
+      </c>
+      <c r="G299">
+        <v>28</v>
+      </c>
+      <c r="H299">
+        <v>24</v>
+      </c>
+      <c r="K299">
+        <v>145722</v>
+      </c>
+      <c r="L299">
+        <v>114122</v>
+      </c>
+      <c r="M299">
+        <v>114322</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300" t="str">
+        <f t="shared" si="9"/>
+        <v>114122_114322_118522</v>
+      </c>
+      <c r="B300" t="str">
+        <f t="shared" si="7"/>
+        <v>26-24</v>
+      </c>
+      <c r="C300" t="s">
+        <v>206</v>
+      </c>
+      <c r="G300">
+        <v>26</v>
+      </c>
+      <c r="H300">
+        <v>24</v>
+      </c>
+      <c r="K300">
+        <v>114122</v>
+      </c>
+      <c r="L300">
+        <v>114322</v>
+      </c>
+      <c r="M300">
+        <v>118522</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A301" t="str">
+        <f t="shared" si="9"/>
+        <v>114322_118522_127322</v>
+      </c>
+      <c r="B301" t="str">
+        <f t="shared" si="7"/>
+        <v>24-24</v>
+      </c>
+      <c r="C301" t="s">
+        <v>206</v>
+      </c>
+      <c r="G301">
+        <v>24</v>
+      </c>
+      <c r="H301">
+        <v>24</v>
+      </c>
+      <c r="K301">
+        <v>114322</v>
+      </c>
+      <c r="L301">
+        <v>118522</v>
+      </c>
+      <c r="M301">
+        <v>127322</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302" t="str">
+        <f t="shared" si="9"/>
+        <v>118522_127322_126322</v>
+      </c>
+      <c r="B302" t="str">
+        <f t="shared" si="7"/>
+        <v>22-24</v>
+      </c>
+      <c r="C302" t="s">
+        <v>206</v>
+      </c>
+      <c r="G302">
+        <v>22</v>
+      </c>
+      <c r="H302">
+        <v>24</v>
+      </c>
+      <c r="K302">
+        <v>118522</v>
+      </c>
+      <c r="L302">
+        <v>127322</v>
+      </c>
+      <c r="M302">
+        <v>126322</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303" t="str">
+        <f t="shared" si="9"/>
+        <v>127322_126322_127622</v>
+      </c>
+      <c r="B303" t="str">
+        <f t="shared" si="7"/>
+        <v>20-24</v>
+      </c>
+      <c r="C303" t="s">
+        <v>206</v>
+      </c>
+      <c r="G303">
+        <v>20</v>
+      </c>
+      <c r="H303">
+        <v>24</v>
+      </c>
+      <c r="K303">
+        <v>127322</v>
+      </c>
+      <c r="L303">
+        <v>126322</v>
+      </c>
+      <c r="M303">
+        <v>127622</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304" t="str">
+        <f t="shared" si="9"/>
+        <v>126322_127622_127402</v>
+      </c>
+      <c r="B304" t="str">
+        <f t="shared" si="7"/>
+        <v>18-24</v>
+      </c>
+      <c r="C304" t="s">
+        <v>206</v>
+      </c>
+      <c r="G304">
+        <v>18</v>
+      </c>
+      <c r="H304">
+        <v>24</v>
+      </c>
+      <c r="K304">
+        <v>126322</v>
+      </c>
+      <c r="L304">
+        <v>127622</v>
+      </c>
+      <c r="M304">
+        <v>127402</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A305" t="str">
+        <f t="shared" si="9"/>
+        <v>127622_127402_126722</v>
+      </c>
+      <c r="B305" t="str">
+        <f t="shared" si="7"/>
+        <v>16-24</v>
+      </c>
+      <c r="C305" t="s">
+        <v>206</v>
+      </c>
+      <c r="G305">
+        <v>16</v>
+      </c>
+      <c r="H305">
+        <v>24</v>
+      </c>
+      <c r="K305">
+        <v>127622</v>
+      </c>
+      <c r="L305">
+        <v>127402</v>
+      </c>
+      <c r="M305">
+        <v>126722</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306" t="str">
+        <f t="shared" si="9"/>
+        <v>127402_126722_127802</v>
+      </c>
+      <c r="B306" t="str">
+        <f t="shared" si="7"/>
+        <v>14-24</v>
+      </c>
+      <c r="C306" t="s">
+        <v>206</v>
+      </c>
+      <c r="G306">
+        <v>14</v>
+      </c>
+      <c r="H306">
+        <v>24</v>
+      </c>
+      <c r="K306">
+        <v>127402</v>
+      </c>
+      <c r="L306">
+        <v>126722</v>
+      </c>
+      <c r="M306">
+        <v>127802</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307" t="str">
+        <f t="shared" si="9"/>
+        <v>126722_127802_189002</v>
+      </c>
+      <c r="B307" t="str">
+        <f t="shared" si="7"/>
+        <v>12-24</v>
+      </c>
+      <c r="C307" t="s">
+        <v>206</v>
+      </c>
+      <c r="G307">
+        <v>12</v>
+      </c>
+      <c r="H307">
+        <v>24</v>
+      </c>
+      <c r="K307">
+        <v>126722</v>
+      </c>
+      <c r="L307">
+        <v>127802</v>
+      </c>
+      <c r="M307">
+        <v>189002</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308" t="str">
+        <f t="shared" si="9"/>
+        <v>127802_189002_188202</v>
+      </c>
+      <c r="B308" t="str">
+        <f t="shared" si="7"/>
+        <v>10-24</v>
+      </c>
+      <c r="C308" t="s">
+        <v>206</v>
+      </c>
+      <c r="G308">
+        <v>10</v>
+      </c>
+      <c r="H308">
+        <v>24</v>
+      </c>
+      <c r="K308">
+        <v>127802</v>
+      </c>
+      <c r="L308">
+        <v>189002</v>
+      </c>
+      <c r="M308">
+        <v>188202</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A309" t="str">
+        <f t="shared" si="9"/>
+        <v>189002_188202_188602</v>
+      </c>
+      <c r="B309" t="str">
+        <f t="shared" si="7"/>
+        <v>8-24</v>
+      </c>
+      <c r="C309" t="s">
+        <v>206</v>
+      </c>
+      <c r="G309">
+        <v>8</v>
+      </c>
+      <c r="H309">
+        <v>24</v>
+      </c>
+      <c r="K309">
+        <v>189002</v>
+      </c>
+      <c r="L309">
+        <v>188202</v>
+      </c>
+      <c r="M309">
+        <v>188602</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310" t="str">
+        <f t="shared" si="9"/>
+        <v>188202_188602_188902</v>
+      </c>
+      <c r="B310" t="str">
+        <f t="shared" si="7"/>
+        <v>6-24</v>
+      </c>
+      <c r="C310" t="s">
+        <v>206</v>
+      </c>
+      <c r="G310">
+        <v>6</v>
+      </c>
+      <c r="H310">
+        <v>24</v>
+      </c>
+      <c r="K310">
+        <v>188202</v>
+      </c>
+      <c r="L310">
+        <v>188602</v>
+      </c>
+      <c r="M310">
+        <v>188902</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A311" t="str">
+        <f t="shared" si="9"/>
+        <v>188602_188902_188402</v>
+      </c>
+      <c r="B311" t="str">
+        <f t="shared" si="7"/>
+        <v>4-24</v>
+      </c>
+      <c r="C311" t="s">
+        <v>206</v>
+      </c>
+      <c r="G311">
+        <v>4</v>
+      </c>
+      <c r="H311">
+        <v>24</v>
+      </c>
+      <c r="K311">
+        <v>188602</v>
+      </c>
+      <c r="L311">
+        <v>188902</v>
+      </c>
+      <c r="M311">
+        <v>188402</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A312" t="str">
+        <f t="shared" si="9"/>
+        <v>188902_188402_187901</v>
+      </c>
+      <c r="B312" t="str">
+        <f t="shared" si="7"/>
+        <v>2-24</v>
+      </c>
+      <c r="C312" t="s">
+        <v>206</v>
+      </c>
+      <c r="D312" t="s">
+        <v>217</v>
+      </c>
+      <c r="G312">
+        <v>2</v>
+      </c>
+      <c r="H312">
+        <v>24</v>
+      </c>
+      <c r="K312">
+        <v>188902</v>
+      </c>
+      <c r="L312">
+        <v>188402</v>
+      </c>
+      <c r="M312">
+        <v>187901</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A313" t="str">
+        <f t="shared" si="9"/>
+        <v>187901_188401_188901</v>
+      </c>
+      <c r="B313" t="str">
+        <f t="shared" ref="B313:B365" si="10">_xlfn.CONCAT(G313,"-",H313)</f>
+        <v>2-25</v>
+      </c>
+      <c r="C313" t="s">
+        <v>207</v>
+      </c>
+      <c r="D313" t="s">
+        <v>217</v>
+      </c>
+      <c r="G313">
+        <v>2</v>
+      </c>
+      <c r="H313">
+        <v>25</v>
+      </c>
+      <c r="K313">
+        <v>187901</v>
+      </c>
+      <c r="L313">
+        <v>188401</v>
+      </c>
+      <c r="M313">
+        <v>188901</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314" t="str">
+        <f t="shared" si="9"/>
+        <v>188401_188901_188601</v>
+      </c>
+      <c r="B314" t="str">
+        <f t="shared" si="10"/>
+        <v>4-25</v>
+      </c>
+      <c r="C314" t="s">
+        <v>207</v>
+      </c>
+      <c r="G314">
+        <v>4</v>
+      </c>
+      <c r="H314">
+        <v>25</v>
+      </c>
+      <c r="K314">
+        <v>188401</v>
+      </c>
+      <c r="L314">
+        <v>188901</v>
+      </c>
+      <c r="M314">
+        <v>188601</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A315" t="str">
+        <f t="shared" si="9"/>
+        <v>188901_188601_188201</v>
+      </c>
+      <c r="B315" t="str">
+        <f t="shared" si="10"/>
+        <v>6-25</v>
+      </c>
+      <c r="C315" t="s">
+        <v>207</v>
+      </c>
+      <c r="G315">
+        <v>6</v>
+      </c>
+      <c r="H315">
+        <v>25</v>
+      </c>
+      <c r="K315">
+        <v>188901</v>
+      </c>
+      <c r="L315">
+        <v>188601</v>
+      </c>
+      <c r="M315">
+        <v>188201</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316" t="str">
+        <f t="shared" si="9"/>
+        <v>188601_188201_189001</v>
+      </c>
+      <c r="B316" t="str">
+        <f t="shared" si="10"/>
+        <v>8-25</v>
+      </c>
+      <c r="C316" t="s">
+        <v>207</v>
+      </c>
+      <c r="G316">
+        <v>8</v>
+      </c>
+      <c r="H316">
+        <v>25</v>
+      </c>
+      <c r="K316">
+        <v>188601</v>
+      </c>
+      <c r="L316">
+        <v>188201</v>
+      </c>
+      <c r="M316">
+        <v>189001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A317" t="str">
+        <f t="shared" si="9"/>
+        <v>188201_189001_127801</v>
+      </c>
+      <c r="B317" t="str">
+        <f t="shared" si="10"/>
+        <v>10-25</v>
+      </c>
+      <c r="C317" t="s">
+        <v>207</v>
+      </c>
+      <c r="G317">
+        <v>10</v>
+      </c>
+      <c r="H317">
+        <v>25</v>
+      </c>
+      <c r="K317">
+        <v>188201</v>
+      </c>
+      <c r="L317">
+        <v>189001</v>
+      </c>
+      <c r="M317">
+        <v>127801</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318" t="str">
+        <f t="shared" si="9"/>
+        <v>189001_127801_126721</v>
+      </c>
+      <c r="B318" t="str">
+        <f t="shared" si="10"/>
+        <v>12-25</v>
+      </c>
+      <c r="C318" t="s">
+        <v>207</v>
+      </c>
+      <c r="G318">
+        <v>12</v>
+      </c>
+      <c r="H318">
+        <v>25</v>
+      </c>
+      <c r="K318">
+        <v>189001</v>
+      </c>
+      <c r="L318">
+        <v>127801</v>
+      </c>
+      <c r="M318">
+        <v>126721</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A319" t="str">
+        <f t="shared" si="9"/>
+        <v>127801_126721_127401</v>
+      </c>
+      <c r="B319" t="str">
+        <f t="shared" si="10"/>
+        <v>14-25</v>
+      </c>
+      <c r="C319" t="s">
+        <v>207</v>
+      </c>
+      <c r="G319">
+        <v>14</v>
+      </c>
+      <c r="H319">
+        <v>25</v>
+      </c>
+      <c r="K319">
+        <v>127801</v>
+      </c>
+      <c r="L319">
+        <v>126721</v>
+      </c>
+      <c r="M319">
+        <v>127401</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320" t="str">
+        <f t="shared" si="9"/>
+        <v>126721_127401_127621</v>
+      </c>
+      <c r="B320" t="str">
+        <f t="shared" si="10"/>
+        <v>16-25</v>
+      </c>
+      <c r="C320" t="s">
+        <v>207</v>
+      </c>
+      <c r="G320">
+        <v>16</v>
+      </c>
+      <c r="H320">
+        <v>25</v>
+      </c>
+      <c r="K320">
+        <v>126721</v>
+      </c>
+      <c r="L320">
+        <v>127401</v>
+      </c>
+      <c r="M320">
+        <v>127621</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A321" t="str">
+        <f t="shared" si="9"/>
+        <v>127401_127621_126321</v>
+      </c>
+      <c r="B321" t="str">
+        <f t="shared" si="10"/>
+        <v>18-25</v>
+      </c>
+      <c r="C321" t="s">
+        <v>207</v>
+      </c>
+      <c r="G321">
+        <v>18</v>
+      </c>
+      <c r="H321">
+        <v>25</v>
+      </c>
+      <c r="K321">
+        <v>127401</v>
+      </c>
+      <c r="L321">
+        <v>127621</v>
+      </c>
+      <c r="M321">
+        <v>126321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322" t="str">
+        <f t="shared" si="9"/>
+        <v>127621_126321_127321</v>
+      </c>
+      <c r="B322" t="str">
+        <f t="shared" si="10"/>
+        <v>20-25</v>
+      </c>
+      <c r="C322" t="s">
+        <v>207</v>
+      </c>
+      <c r="G322">
+        <v>20</v>
+      </c>
+      <c r="H322">
+        <v>25</v>
+      </c>
+      <c r="K322">
+        <v>127621</v>
+      </c>
+      <c r="L322">
+        <v>126321</v>
+      </c>
+      <c r="M322">
+        <v>127321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323" t="str">
+        <f t="shared" si="9"/>
+        <v>126321_127321_118521</v>
+      </c>
+      <c r="B323" t="str">
+        <f t="shared" si="10"/>
+        <v>22-25</v>
+      </c>
+      <c r="C323" t="s">
+        <v>207</v>
+      </c>
+      <c r="G323">
+        <v>22</v>
+      </c>
+      <c r="H323">
+        <v>25</v>
+      </c>
+      <c r="K323">
+        <v>126321</v>
+      </c>
+      <c r="L323">
+        <v>127321</v>
+      </c>
+      <c r="M323">
+        <v>118521</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324" t="str">
+        <f t="shared" si="9"/>
+        <v>127321_118521_114321</v>
+      </c>
+      <c r="B324" t="str">
+        <f t="shared" si="10"/>
+        <v>24-25</v>
+      </c>
+      <c r="C324" t="s">
+        <v>207</v>
+      </c>
+      <c r="G324">
+        <v>24</v>
+      </c>
+      <c r="H324">
+        <v>25</v>
+      </c>
+      <c r="K324">
+        <v>127321</v>
+      </c>
+      <c r="L324">
+        <v>118521</v>
+      </c>
+      <c r="M324">
+        <v>114321</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325" t="str">
+        <f t="shared" si="9"/>
+        <v>118521_114321_114121</v>
+      </c>
+      <c r="B325" t="str">
+        <f t="shared" si="10"/>
+        <v>26-25</v>
+      </c>
+      <c r="C325" t="s">
+        <v>207</v>
+      </c>
+      <c r="G325">
+        <v>26</v>
+      </c>
+      <c r="H325">
+        <v>25</v>
+      </c>
+      <c r="K325">
+        <v>118521</v>
+      </c>
+      <c r="L325">
+        <v>114321</v>
+      </c>
+      <c r="M325">
+        <v>114121</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326" t="str">
+        <f t="shared" si="9"/>
+        <v>114321_114121_145721</v>
+      </c>
+      <c r="B326" t="str">
+        <f t="shared" si="10"/>
+        <v>28-25</v>
+      </c>
+      <c r="C326" t="s">
+        <v>207</v>
+      </c>
+      <c r="G326">
+        <v>28</v>
+      </c>
+      <c r="H326">
+        <v>25</v>
+      </c>
+      <c r="K326">
+        <v>114321</v>
+      </c>
+      <c r="L326">
+        <v>114121</v>
+      </c>
+      <c r="M326">
+        <v>145721</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327" t="str">
+        <f t="shared" si="9"/>
+        <v>114121_145721_115021</v>
+      </c>
+      <c r="B327" t="str">
+        <f t="shared" si="10"/>
+        <v>30-25</v>
+      </c>
+      <c r="C327" t="s">
+        <v>207</v>
+      </c>
+      <c r="G327">
+        <v>30</v>
+      </c>
+      <c r="H327">
+        <v>25</v>
+      </c>
+      <c r="K327">
+        <v>114121</v>
+      </c>
+      <c r="L327">
+        <v>145721</v>
+      </c>
+      <c r="M327">
+        <v>115021</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328" t="str">
+        <f t="shared" si="9"/>
+        <v>145721_115021_118721</v>
+      </c>
+      <c r="B328" t="str">
+        <f t="shared" si="10"/>
+        <v>32-25</v>
+      </c>
+      <c r="C328" t="s">
+        <v>207</v>
+      </c>
+      <c r="G328">
+        <v>32</v>
+      </c>
+      <c r="H328">
+        <v>25</v>
+      </c>
+      <c r="K328">
+        <v>145721</v>
+      </c>
+      <c r="L328">
+        <v>115021</v>
+      </c>
+      <c r="M328">
+        <v>118721</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329" t="str">
+        <f t="shared" si="9"/>
+        <v>115021_118721_119321</v>
+      </c>
+      <c r="B329" t="str">
+        <f t="shared" si="10"/>
+        <v>34-25</v>
+      </c>
+      <c r="C329" t="s">
+        <v>207</v>
+      </c>
+      <c r="G329">
+        <v>34</v>
+      </c>
+      <c r="H329">
+        <v>25</v>
+      </c>
+      <c r="K329">
+        <v>115021</v>
+      </c>
+      <c r="L329">
+        <v>118721</v>
+      </c>
+      <c r="M329">
+        <v>119321</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330" t="str">
+        <f t="shared" si="9"/>
+        <v>118721_119321_116821</v>
+      </c>
+      <c r="B330" t="str">
+        <f t="shared" si="10"/>
+        <v>36-26</v>
+      </c>
+      <c r="C330" t="s">
+        <v>207</v>
+      </c>
+      <c r="G330">
+        <v>36</v>
+      </c>
+      <c r="H330">
+        <v>26</v>
+      </c>
+      <c r="K330">
+        <v>118721</v>
+      </c>
+      <c r="L330">
+        <v>119321</v>
+      </c>
+      <c r="M330">
+        <v>116821</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331" t="str">
+        <f t="shared" si="9"/>
+        <v>119321_116821_114601</v>
+      </c>
+      <c r="B331" t="str">
+        <f t="shared" si="10"/>
+        <v>36-28</v>
+      </c>
+      <c r="C331" t="s">
+        <v>207</v>
+      </c>
+      <c r="D331" t="s">
+        <v>70</v>
+      </c>
+      <c r="G331">
+        <v>36</v>
+      </c>
+      <c r="H331">
+        <v>28</v>
+      </c>
+      <c r="K331">
+        <v>119321</v>
+      </c>
+      <c r="L331">
+        <v>116821</v>
+      </c>
+      <c r="M331">
+        <v>114601</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A332" t="str">
+        <f t="shared" si="9"/>
+        <v>114602_116822_DEPOT</v>
+      </c>
+      <c r="B332" t="str">
+        <f t="shared" si="10"/>
+        <v>37-28</v>
+      </c>
+      <c r="C332" t="s">
+        <v>208</v>
+      </c>
+      <c r="D332" t="s">
+        <v>70</v>
+      </c>
+      <c r="G332">
+        <v>37</v>
+      </c>
+      <c r="H332">
+        <v>28</v>
+      </c>
+      <c r="K332">
+        <v>114602</v>
+      </c>
+      <c r="L332">
+        <v>116822</v>
+      </c>
+      <c r="M332" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333" t="str">
+        <f t="shared" si="9"/>
+        <v>116822_119322_DEPOT</v>
+      </c>
+      <c r="B333" t="str">
+        <f t="shared" si="10"/>
+        <v>37-26</v>
+      </c>
+      <c r="C333" t="s">
+        <v>208</v>
+      </c>
+      <c r="G333">
+        <v>37</v>
+      </c>
+      <c r="H333">
+        <v>26</v>
+      </c>
+      <c r="K333">
+        <v>116822</v>
+      </c>
+      <c r="L333">
+        <v>119322</v>
+      </c>
+      <c r="M333" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334" t="str">
+        <f t="shared" si="9"/>
+        <v>119322_118722_DEPOT</v>
+      </c>
+      <c r="B334" t="str">
+        <f t="shared" si="10"/>
+        <v>34-24</v>
+      </c>
+      <c r="C334" t="s">
+        <v>208</v>
+      </c>
+      <c r="G334">
+        <v>34</v>
+      </c>
+      <c r="H334">
+        <v>24</v>
+      </c>
+      <c r="K334">
+        <v>119322</v>
+      </c>
+      <c r="L334">
+        <v>118722</v>
+      </c>
+      <c r="M334" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335" t="str">
+        <f t="shared" si="9"/>
+        <v>118722_115022_DEPOT</v>
+      </c>
+      <c r="B335" t="str">
+        <f t="shared" si="10"/>
+        <v>32-24</v>
+      </c>
+      <c r="C335" t="s">
+        <v>208</v>
+      </c>
+      <c r="G335">
+        <v>32</v>
+      </c>
+      <c r="H335">
+        <v>24</v>
+      </c>
+      <c r="K335">
+        <v>118722</v>
+      </c>
+      <c r="L335">
+        <v>115022</v>
+      </c>
+      <c r="M335" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336" t="str">
+        <f t="shared" si="9"/>
+        <v>115022_145722_DEPOT</v>
+      </c>
+      <c r="B336" t="str">
+        <f t="shared" si="10"/>
+        <v>30-24</v>
+      </c>
+      <c r="C336" t="s">
+        <v>208</v>
+      </c>
+      <c r="G336">
+        <v>30</v>
+      </c>
+      <c r="H336">
+        <v>24</v>
+      </c>
+      <c r="K336">
+        <v>115022</v>
+      </c>
+      <c r="L336">
+        <v>145722</v>
+      </c>
+      <c r="M336" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337" t="str">
+        <f t="shared" si="9"/>
+        <v>145722_114122_DEPOT</v>
+      </c>
+      <c r="B337" t="str">
+        <f t="shared" si="10"/>
+        <v>28-24</v>
+      </c>
+      <c r="C337" t="s">
+        <v>208</v>
+      </c>
+      <c r="G337">
+        <v>28</v>
+      </c>
+      <c r="H337">
+        <v>24</v>
+      </c>
+      <c r="K337">
+        <v>145722</v>
+      </c>
+      <c r="L337">
+        <v>114122</v>
+      </c>
+      <c r="M337" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338" t="str">
+        <f t="shared" si="9"/>
+        <v>114122_114322_DEPOT</v>
+      </c>
+      <c r="B338" t="str">
+        <f t="shared" si="10"/>
+        <v>26-24</v>
+      </c>
+      <c r="C338" t="s">
+        <v>208</v>
+      </c>
+      <c r="G338">
+        <v>26</v>
+      </c>
+      <c r="H338">
+        <v>24</v>
+      </c>
+      <c r="K338">
+        <v>114122</v>
+      </c>
+      <c r="L338">
+        <v>114322</v>
+      </c>
+      <c r="M338" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339" t="str">
+        <f t="shared" si="9"/>
+        <v>114322_118522_DEPOT</v>
+      </c>
+      <c r="B339" t="str">
+        <f t="shared" si="10"/>
+        <v>24-24</v>
+      </c>
+      <c r="C339" t="s">
+        <v>208</v>
+      </c>
+      <c r="G339">
+        <v>24</v>
+      </c>
+      <c r="H339">
+        <v>24</v>
+      </c>
+      <c r="K339">
+        <v>114322</v>
+      </c>
+      <c r="L339">
+        <v>118522</v>
+      </c>
+      <c r="M339" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340" t="str">
+        <f t="shared" si="9"/>
+        <v>118522_127322_DEPOT</v>
+      </c>
+      <c r="B340" t="str">
+        <f t="shared" si="10"/>
+        <v>22-24</v>
+      </c>
+      <c r="C340" t="s">
+        <v>208</v>
+      </c>
+      <c r="G340">
+        <v>22</v>
+      </c>
+      <c r="H340">
+        <v>24</v>
+      </c>
+      <c r="K340">
+        <v>118522</v>
+      </c>
+      <c r="L340">
+        <v>127322</v>
+      </c>
+      <c r="M340" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341" t="str">
+        <f t="shared" si="9"/>
+        <v>127322_126322_DEPOT</v>
+      </c>
+      <c r="B341" t="str">
+        <f t="shared" si="10"/>
+        <v>20-24</v>
+      </c>
+      <c r="C341" t="s">
+        <v>208</v>
+      </c>
+      <c r="G341">
+        <v>20</v>
+      </c>
+      <c r="H341">
+        <v>24</v>
+      </c>
+      <c r="K341">
+        <v>127322</v>
+      </c>
+      <c r="L341">
+        <v>126322</v>
+      </c>
+      <c r="M341" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
+        <f t="shared" si="9"/>
+        <v>126322_127622_DEPOT</v>
+      </c>
+      <c r="B342" t="str">
+        <f t="shared" si="10"/>
+        <v>18-24</v>
+      </c>
+      <c r="C342" t="s">
+        <v>208</v>
+      </c>
+      <c r="G342">
+        <v>18</v>
+      </c>
+      <c r="H342">
+        <v>24</v>
+      </c>
+      <c r="K342">
+        <v>126322</v>
+      </c>
+      <c r="L342">
+        <v>127622</v>
+      </c>
+      <c r="M342" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
+        <f t="shared" si="9"/>
+        <v>127622_127402_DEPOT</v>
+      </c>
+      <c r="B343" t="str">
+        <f t="shared" si="10"/>
+        <v>16-24</v>
+      </c>
+      <c r="C343" t="s">
+        <v>208</v>
+      </c>
+      <c r="G343">
+        <v>16</v>
+      </c>
+      <c r="H343">
+        <v>24</v>
+      </c>
+      <c r="K343">
+        <v>127622</v>
+      </c>
+      <c r="L343">
+        <v>127402</v>
+      </c>
+      <c r="M343" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
+        <f t="shared" si="9"/>
+        <v>127402_126722_DEPOT</v>
+      </c>
+      <c r="B344" t="str">
+        <f t="shared" si="10"/>
+        <v>14-24</v>
+      </c>
+      <c r="C344" t="s">
+        <v>208</v>
+      </c>
+      <c r="G344">
+        <v>14</v>
+      </c>
+      <c r="H344">
+        <v>24</v>
+      </c>
+      <c r="K344">
+        <v>127402</v>
+      </c>
+      <c r="L344">
+        <v>126722</v>
+      </c>
+      <c r="M344" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345" t="str">
+        <f t="shared" si="9"/>
+        <v>126722_127802_DEPOT</v>
+      </c>
+      <c r="B345" t="str">
+        <f t="shared" si="10"/>
+        <v>12-24</v>
+      </c>
+      <c r="C345" t="s">
+        <v>208</v>
+      </c>
+      <c r="G345">
+        <v>12</v>
+      </c>
+      <c r="H345">
+        <v>24</v>
+      </c>
+      <c r="K345">
+        <v>126722</v>
+      </c>
+      <c r="L345">
+        <v>127802</v>
+      </c>
+      <c r="M345" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A346" t="str">
+        <f t="shared" si="9"/>
+        <v>127802_189002_DEPOT</v>
+      </c>
+      <c r="B346" t="str">
+        <f t="shared" si="10"/>
+        <v>10-24</v>
+      </c>
+      <c r="C346" t="s">
+        <v>208</v>
+      </c>
+      <c r="G346">
+        <v>10</v>
+      </c>
+      <c r="H346">
+        <v>24</v>
+      </c>
+      <c r="K346">
+        <v>127802</v>
+      </c>
+      <c r="L346">
+        <v>189002</v>
+      </c>
+      <c r="M346" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347" t="str">
+        <f t="shared" si="9"/>
+        <v>189002_188202_DEPOT</v>
+      </c>
+      <c r="B347" t="str">
+        <f t="shared" si="10"/>
+        <v>8-24</v>
+      </c>
+      <c r="C347" t="s">
+        <v>208</v>
+      </c>
+      <c r="G347">
+        <v>8</v>
+      </c>
+      <c r="H347">
+        <v>24</v>
+      </c>
+      <c r="K347">
+        <v>189002</v>
+      </c>
+      <c r="L347">
+        <v>188202</v>
+      </c>
+      <c r="M347" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f t="shared" si="9"/>
+        <v>188202_188602_DEPOT</v>
+      </c>
+      <c r="B348" t="str">
+        <f t="shared" si="10"/>
+        <v>6-24</v>
+      </c>
+      <c r="C348" t="s">
+        <v>208</v>
+      </c>
+      <c r="G348">
+        <v>6</v>
+      </c>
+      <c r="H348">
+        <v>24</v>
+      </c>
+      <c r="K348">
+        <v>188202</v>
+      </c>
+      <c r="L348">
+        <v>188602</v>
+      </c>
+      <c r="M348" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f t="shared" si="9"/>
+        <v>188602_188902_DEPOT</v>
+      </c>
+      <c r="B349" t="str">
+        <f t="shared" si="10"/>
+        <v>4-24</v>
+      </c>
+      <c r="C349" t="s">
+        <v>208</v>
+      </c>
+      <c r="G349">
+        <v>4</v>
+      </c>
+      <c r="H349">
+        <v>24</v>
+      </c>
+      <c r="K349">
+        <v>188602</v>
+      </c>
+      <c r="L349">
+        <v>188902</v>
+      </c>
+      <c r="M349" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f t="shared" si="9"/>
+        <v>188902_188402_DEPOT</v>
+      </c>
+      <c r="B350" t="str">
+        <f t="shared" si="10"/>
+        <v>2-24</v>
+      </c>
+      <c r="C350" t="s">
+        <v>208</v>
+      </c>
+      <c r="G350">
+        <v>2</v>
+      </c>
+      <c r="H350">
+        <v>24</v>
+      </c>
+      <c r="K350">
+        <v>188902</v>
+      </c>
+      <c r="L350">
+        <v>188402</v>
+      </c>
+      <c r="M350" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f t="shared" si="9"/>
+        <v>188402_187901_DEPOT</v>
+      </c>
+      <c r="B351" t="str">
+        <f t="shared" si="10"/>
+        <v>0-24</v>
+      </c>
+      <c r="C351" t="s">
+        <v>208</v>
+      </c>
+      <c r="D351" t="s">
+        <v>219</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>24</v>
+      </c>
+      <c r="K351">
+        <v>188402</v>
+      </c>
+      <c r="L351">
+        <v>187901</v>
+      </c>
+      <c r="M351" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f t="shared" ref="A352:A407" si="11">_xlfn.CONCAT(K352,"_",L352,"_",M352)</f>
+        <v>187901_188401_DEPOT</v>
+      </c>
+      <c r="B352" t="str">
+        <f t="shared" si="10"/>
+        <v>2-25</v>
+      </c>
+      <c r="C352" t="s">
+        <v>209</v>
+      </c>
+      <c r="D352" t="s">
+        <v>220</v>
+      </c>
+      <c r="G352">
+        <v>2</v>
+      </c>
+      <c r="H352">
+        <v>25</v>
+      </c>
+      <c r="K352">
+        <v>187901</v>
+      </c>
+      <c r="L352">
+        <v>188401</v>
+      </c>
+      <c r="M352" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f t="shared" si="11"/>
+        <v>188401_188901_DEPOT</v>
+      </c>
+      <c r="B353" t="str">
+        <f t="shared" si="10"/>
+        <v>4-25</v>
+      </c>
+      <c r="C353" t="s">
+        <v>209</v>
+      </c>
+      <c r="G353">
+        <v>4</v>
+      </c>
+      <c r="H353">
+        <v>25</v>
+      </c>
+      <c r="K353">
+        <v>188401</v>
+      </c>
+      <c r="L353">
+        <v>188901</v>
+      </c>
+      <c r="M353" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f t="shared" si="11"/>
+        <v>188901_188601_DEPOT</v>
+      </c>
+      <c r="B354" t="str">
+        <f t="shared" si="10"/>
+        <v>6-25</v>
+      </c>
+      <c r="C354" t="s">
+        <v>209</v>
+      </c>
+      <c r="G354">
+        <v>6</v>
+      </c>
+      <c r="H354">
+        <v>25</v>
+      </c>
+      <c r="K354">
+        <v>188901</v>
+      </c>
+      <c r="L354">
+        <v>188601</v>
+      </c>
+      <c r="M354" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f t="shared" si="11"/>
+        <v>188601_188201_DEPOT</v>
+      </c>
+      <c r="B355" t="str">
+        <f t="shared" si="10"/>
+        <v>8-25</v>
+      </c>
+      <c r="C355" t="s">
+        <v>209</v>
+      </c>
+      <c r="G355">
+        <v>8</v>
+      </c>
+      <c r="H355">
+        <v>25</v>
+      </c>
+      <c r="K355">
+        <v>188601</v>
+      </c>
+      <c r="L355">
+        <v>188201</v>
+      </c>
+      <c r="M355" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f t="shared" si="11"/>
+        <v>188201_189001_DEPOT</v>
+      </c>
+      <c r="B356" t="str">
+        <f t="shared" si="10"/>
+        <v>10-25</v>
+      </c>
+      <c r="C356" t="s">
+        <v>209</v>
+      </c>
+      <c r="G356">
+        <v>10</v>
+      </c>
+      <c r="H356">
+        <v>25</v>
+      </c>
+      <c r="K356">
+        <v>188201</v>
+      </c>
+      <c r="L356">
+        <v>189001</v>
+      </c>
+      <c r="M356" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f t="shared" si="11"/>
+        <v>189001_127801_DEPOT</v>
+      </c>
+      <c r="B357" t="str">
+        <f t="shared" si="10"/>
+        <v>12-25</v>
+      </c>
+      <c r="C357" t="s">
+        <v>209</v>
+      </c>
+      <c r="G357">
+        <v>12</v>
+      </c>
+      <c r="H357">
+        <v>25</v>
+      </c>
+      <c r="K357">
+        <v>189001</v>
+      </c>
+      <c r="L357">
+        <v>127801</v>
+      </c>
+      <c r="M357" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f t="shared" si="11"/>
+        <v>127801_126721_DEPOT</v>
+      </c>
+      <c r="B358" t="str">
+        <f t="shared" si="10"/>
+        <v>14-25</v>
+      </c>
+      <c r="C358" t="s">
+        <v>209</v>
+      </c>
+      <c r="G358">
+        <v>14</v>
+      </c>
+      <c r="H358">
+        <v>25</v>
+      </c>
+      <c r="K358">
+        <v>127801</v>
+      </c>
+      <c r="L358">
+        <v>126721</v>
+      </c>
+      <c r="M358" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
+        <f t="shared" si="11"/>
+        <v>126721_127401_DEPOT</v>
+      </c>
+      <c r="B359" t="str">
+        <f t="shared" si="10"/>
+        <v>16-25</v>
+      </c>
+      <c r="C359" t="s">
+        <v>209</v>
+      </c>
+      <c r="G359">
+        <v>16</v>
+      </c>
+      <c r="H359">
+        <v>25</v>
+      </c>
+      <c r="K359">
+        <v>126721</v>
+      </c>
+      <c r="L359">
+        <v>127401</v>
+      </c>
+      <c r="M359" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
+        <f t="shared" si="11"/>
+        <v>127401_127621_DEPOT</v>
+      </c>
+      <c r="B360" t="str">
+        <f t="shared" si="10"/>
+        <v>18-25</v>
+      </c>
+      <c r="C360" t="s">
+        <v>209</v>
+      </c>
+      <c r="G360">
+        <v>18</v>
+      </c>
+      <c r="H360">
+        <v>25</v>
+      </c>
+      <c r="K360">
+        <v>127401</v>
+      </c>
+      <c r="L360">
+        <v>127621</v>
+      </c>
+      <c r="M360" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
+        <f t="shared" si="11"/>
+        <v>127621_126321_DEPOT</v>
+      </c>
+      <c r="B361" t="str">
+        <f t="shared" si="10"/>
+        <v>20-25</v>
+      </c>
+      <c r="C361" t="s">
+        <v>209</v>
+      </c>
+      <c r="G361">
+        <v>20</v>
+      </c>
+      <c r="H361">
+        <v>25</v>
+      </c>
+      <c r="K361">
+        <v>127621</v>
+      </c>
+      <c r="L361">
+        <v>126321</v>
+      </c>
+      <c r="M361" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
+        <f t="shared" si="11"/>
+        <v>126321_127321_DEPOT</v>
+      </c>
+      <c r="B362" t="str">
+        <f t="shared" si="10"/>
+        <v>22-25</v>
+      </c>
+      <c r="C362" t="s">
+        <v>209</v>
+      </c>
+      <c r="G362">
+        <v>22</v>
+      </c>
+      <c r="H362">
+        <v>25</v>
+      </c>
+      <c r="K362">
+        <v>126321</v>
+      </c>
+      <c r="L362">
+        <v>127321</v>
+      </c>
+      <c r="M362" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
+        <f t="shared" si="11"/>
+        <v>127321_118521_DEPOT</v>
+      </c>
+      <c r="B363" t="str">
+        <f t="shared" si="10"/>
+        <v>24-25</v>
+      </c>
+      <c r="C363" t="s">
+        <v>209</v>
+      </c>
+      <c r="G363">
+        <v>24</v>
+      </c>
+      <c r="H363">
+        <v>25</v>
+      </c>
+      <c r="K363">
+        <v>127321</v>
+      </c>
+      <c r="L363">
+        <v>118521</v>
+      </c>
+      <c r="M363" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
+        <f t="shared" si="11"/>
+        <v>118521_114321_DEPOT</v>
+      </c>
+      <c r="B364" t="str">
+        <f t="shared" si="10"/>
+        <v>26-25</v>
+      </c>
+      <c r="C364" t="s">
+        <v>209</v>
+      </c>
+      <c r="G364">
+        <v>26</v>
+      </c>
+      <c r="H364">
+        <v>25</v>
+      </c>
+      <c r="K364">
+        <v>118521</v>
+      </c>
+      <c r="L364">
+        <v>114321</v>
+      </c>
+      <c r="M364" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
+        <f t="shared" si="11"/>
+        <v>114321_114121_DEPOT</v>
+      </c>
+      <c r="B365" t="str">
+        <f t="shared" si="10"/>
+        <v>28-25</v>
+      </c>
+      <c r="C365" t="s">
+        <v>209</v>
+      </c>
+      <c r="G365">
+        <v>28</v>
+      </c>
+      <c r="H365">
+        <v>25</v>
+      </c>
+      <c r="K365">
+        <v>114321</v>
+      </c>
+      <c r="L365">
+        <v>114121</v>
+      </c>
+      <c r="M365" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
+        <f t="shared" si="11"/>
+        <v>114121_145721_DEPOT</v>
+      </c>
+      <c r="B366" t="str">
+        <f t="shared" ref="B366:B416" si="12">_xlfn.CONCAT(G366,"-",H366)</f>
+        <v>30-25</v>
+      </c>
+      <c r="C366" t="s">
+        <v>209</v>
+      </c>
+      <c r="G366">
+        <v>30</v>
+      </c>
+      <c r="H366">
+        <v>25</v>
+      </c>
+      <c r="K366">
+        <v>114121</v>
+      </c>
+      <c r="L366">
+        <v>145721</v>
+      </c>
+      <c r="M366" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
+        <f t="shared" si="11"/>
+        <v>145721_115021_DEPOT</v>
+      </c>
+      <c r="B367" t="str">
+        <f t="shared" si="12"/>
+        <v>32-25</v>
+      </c>
+      <c r="C367" t="s">
+        <v>209</v>
+      </c>
+      <c r="G367">
+        <v>32</v>
+      </c>
+      <c r="H367">
+        <v>25</v>
+      </c>
+      <c r="K367">
+        <v>145721</v>
+      </c>
+      <c r="L367">
+        <v>115021</v>
+      </c>
+      <c r="M367" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A368" t="str">
+        <f t="shared" si="11"/>
+        <v>115021_118721_DEPOT</v>
+      </c>
+      <c r="B368" t="str">
+        <f t="shared" si="12"/>
+        <v>34-25</v>
+      </c>
+      <c r="C368" t="s">
+        <v>209</v>
+      </c>
+      <c r="G368">
+        <v>34</v>
+      </c>
+      <c r="H368">
+        <v>25</v>
+      </c>
+      <c r="K368">
+        <v>115021</v>
+      </c>
+      <c r="L368">
+        <v>118721</v>
+      </c>
+      <c r="M368" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369" t="str">
+        <f t="shared" si="11"/>
+        <v>118721_119321_DEPOT</v>
+      </c>
+      <c r="B369" t="str">
+        <f t="shared" si="12"/>
+        <v>36-26</v>
+      </c>
+      <c r="C369" t="s">
+        <v>209</v>
+      </c>
+      <c r="G369">
+        <v>36</v>
+      </c>
+      <c r="H369">
+        <v>26</v>
+      </c>
+      <c r="K369">
+        <v>118721</v>
+      </c>
+      <c r="L369">
+        <v>119321</v>
+      </c>
+      <c r="M369" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A370" t="str">
+        <f t="shared" si="11"/>
+        <v>119321_116821_DEPOT</v>
+      </c>
+      <c r="B370" t="str">
+        <f t="shared" si="12"/>
+        <v>36-28</v>
+      </c>
+      <c r="C370" t="s">
+        <v>209</v>
+      </c>
+      <c r="G370">
+        <v>36</v>
+      </c>
+      <c r="H370">
+        <v>28</v>
+      </c>
+      <c r="K370">
+        <v>119321</v>
+      </c>
+      <c r="L370">
+        <v>116821</v>
+      </c>
+      <c r="M370" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f t="shared" si="11"/>
+        <v>116821_114601_DEPOT</v>
+      </c>
+      <c r="B371" t="str">
+        <f t="shared" si="12"/>
+        <v>40-30</v>
+      </c>
+      <c r="C371" t="s">
+        <v>209</v>
+      </c>
+      <c r="D371" t="s">
+        <v>150</v>
+      </c>
+      <c r="G371">
+        <v>40</v>
+      </c>
+      <c r="H371">
+        <v>30</v>
+      </c>
+      <c r="K371">
+        <v>116821</v>
+      </c>
+      <c r="L371">
+        <v>114601</v>
+      </c>
+      <c r="M371" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_114602_116822</v>
+      </c>
+      <c r="B372" t="str">
+        <f t="shared" si="12"/>
+        <v>40-29</v>
+      </c>
+      <c r="C372" t="s">
+        <v>210</v>
+      </c>
+      <c r="D372" t="s">
+        <v>150</v>
+      </c>
+      <c r="G372">
+        <v>40</v>
+      </c>
+      <c r="H372">
+        <v>29</v>
+      </c>
+      <c r="K372" t="s">
+        <v>121</v>
+      </c>
+      <c r="L372">
+        <v>114602</v>
+      </c>
+      <c r="M372">
+        <v>116822</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_116822_119322</v>
+      </c>
+      <c r="B373" t="str">
+        <f t="shared" si="12"/>
+        <v>37-28</v>
+      </c>
+      <c r="C373" t="s">
+        <v>210</v>
+      </c>
+      <c r="G373">
+        <v>37</v>
+      </c>
+      <c r="H373">
+        <v>28</v>
+      </c>
+      <c r="K373" t="s">
+        <v>121</v>
+      </c>
+      <c r="L373">
+        <v>116822</v>
+      </c>
+      <c r="M373">
+        <v>119322</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_119322_118722</v>
+      </c>
+      <c r="B374" t="str">
+        <f t="shared" si="12"/>
+        <v>37-26</v>
+      </c>
+      <c r="C374" t="s">
+        <v>210</v>
+      </c>
+      <c r="G374">
+        <v>37</v>
+      </c>
+      <c r="H374">
+        <v>26</v>
+      </c>
+      <c r="K374" t="s">
+        <v>121</v>
+      </c>
+      <c r="L374">
+        <v>119322</v>
+      </c>
+      <c r="M374">
+        <v>118722</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_118722_115022</v>
+      </c>
+      <c r="B375" t="str">
+        <f t="shared" si="12"/>
+        <v>34-24</v>
+      </c>
+      <c r="C375" t="s">
+        <v>210</v>
+      </c>
+      <c r="G375">
+        <v>34</v>
+      </c>
+      <c r="H375">
+        <v>24</v>
+      </c>
+      <c r="K375" t="s">
+        <v>121</v>
+      </c>
+      <c r="L375">
+        <v>118722</v>
+      </c>
+      <c r="M375">
+        <v>115022</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_115022_145722</v>
+      </c>
+      <c r="B376" t="str">
+        <f t="shared" si="12"/>
+        <v>32-24</v>
+      </c>
+      <c r="C376" t="s">
+        <v>210</v>
+      </c>
+      <c r="G376">
+        <v>32</v>
+      </c>
+      <c r="H376">
+        <v>24</v>
+      </c>
+      <c r="K376" t="s">
+        <v>121</v>
+      </c>
+      <c r="L376">
+        <v>115022</v>
+      </c>
+      <c r="M376">
+        <v>145722</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_145722_114122</v>
+      </c>
+      <c r="B377" t="str">
+        <f t="shared" si="12"/>
+        <v>30-24</v>
+      </c>
+      <c r="C377" t="s">
+        <v>210</v>
+      </c>
+      <c r="G377">
+        <v>30</v>
+      </c>
+      <c r="H377">
+        <v>24</v>
+      </c>
+      <c r="K377" t="s">
+        <v>121</v>
+      </c>
+      <c r="L377">
+        <v>145722</v>
+      </c>
+      <c r="M377">
+        <v>114122</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_114122_114322</v>
+      </c>
+      <c r="B378" t="str">
+        <f t="shared" si="12"/>
+        <v>28-24</v>
+      </c>
+      <c r="C378" t="s">
+        <v>210</v>
+      </c>
+      <c r="G378">
+        <v>28</v>
+      </c>
+      <c r="H378">
+        <v>24</v>
+      </c>
+      <c r="K378" t="s">
+        <v>121</v>
+      </c>
+      <c r="L378">
+        <v>114122</v>
+      </c>
+      <c r="M378">
+        <v>114322</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_114322_118522</v>
+      </c>
+      <c r="B379" t="str">
+        <f t="shared" si="12"/>
+        <v>26-24</v>
+      </c>
+      <c r="C379" t="s">
+        <v>210</v>
+      </c>
+      <c r="G379">
+        <v>26</v>
+      </c>
+      <c r="H379">
+        <v>24</v>
+      </c>
+      <c r="K379" t="s">
+        <v>121</v>
+      </c>
+      <c r="L379">
+        <v>114322</v>
+      </c>
+      <c r="M379">
+        <v>118522</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_118522_127322</v>
+      </c>
+      <c r="B380" t="str">
+        <f t="shared" si="12"/>
+        <v>24-24</v>
+      </c>
+      <c r="C380" t="s">
+        <v>210</v>
+      </c>
+      <c r="G380">
+        <v>24</v>
+      </c>
+      <c r="H380">
+        <v>24</v>
+      </c>
+      <c r="K380" t="s">
+        <v>121</v>
+      </c>
+      <c r="L380">
+        <v>118522</v>
+      </c>
+      <c r="M380">
+        <v>127322</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_127322_126322</v>
+      </c>
+      <c r="B381" t="str">
+        <f t="shared" si="12"/>
+        <v>22-24</v>
+      </c>
+      <c r="C381" t="s">
+        <v>210</v>
+      </c>
+      <c r="G381">
+        <v>22</v>
+      </c>
+      <c r="H381">
+        <v>24</v>
+      </c>
+      <c r="K381" t="s">
+        <v>121</v>
+      </c>
+      <c r="L381">
+        <v>127322</v>
+      </c>
+      <c r="M381">
+        <v>126322</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_126322_127622</v>
+      </c>
+      <c r="B382" t="str">
+        <f t="shared" si="12"/>
+        <v>20-24</v>
+      </c>
+      <c r="C382" t="s">
+        <v>210</v>
+      </c>
+      <c r="G382">
+        <v>20</v>
+      </c>
+      <c r="H382">
+        <v>24</v>
+      </c>
+      <c r="K382" t="s">
+        <v>121</v>
+      </c>
+      <c r="L382">
+        <v>126322</v>
+      </c>
+      <c r="M382">
+        <v>127622</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_127622_127402</v>
+      </c>
+      <c r="B383" t="str">
+        <f t="shared" si="12"/>
+        <v>18-24</v>
+      </c>
+      <c r="C383" t="s">
+        <v>210</v>
+      </c>
+      <c r="G383">
+        <v>18</v>
+      </c>
+      <c r="H383">
+        <v>24</v>
+      </c>
+      <c r="K383" t="s">
+        <v>121</v>
+      </c>
+      <c r="L383">
+        <v>127622</v>
+      </c>
+      <c r="M383">
+        <v>127402</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A384" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_127402_126722</v>
+      </c>
+      <c r="B384" t="str">
+        <f t="shared" si="12"/>
+        <v>16-24</v>
+      </c>
+      <c r="C384" t="s">
+        <v>210</v>
+      </c>
+      <c r="G384">
+        <v>16</v>
+      </c>
+      <c r="H384">
+        <v>24</v>
+      </c>
+      <c r="K384" t="s">
+        <v>121</v>
+      </c>
+      <c r="L384">
+        <v>127402</v>
+      </c>
+      <c r="M384">
+        <v>126722</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A385" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_126722_127802</v>
+      </c>
+      <c r="B385" t="str">
+        <f t="shared" si="12"/>
+        <v>14-24</v>
+      </c>
+      <c r="C385" t="s">
+        <v>210</v>
+      </c>
+      <c r="G385">
+        <v>14</v>
+      </c>
+      <c r="H385">
+        <v>24</v>
+      </c>
+      <c r="K385" t="s">
+        <v>121</v>
+      </c>
+      <c r="L385">
+        <v>126722</v>
+      </c>
+      <c r="M385">
+        <v>127802</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_127802_189002</v>
+      </c>
+      <c r="B386" t="str">
+        <f t="shared" si="12"/>
+        <v>12-24</v>
+      </c>
+      <c r="C386" t="s">
+        <v>210</v>
+      </c>
+      <c r="G386">
+        <v>12</v>
+      </c>
+      <c r="H386">
+        <v>24</v>
+      </c>
+      <c r="K386" t="s">
+        <v>121</v>
+      </c>
+      <c r="L386">
+        <v>127802</v>
+      </c>
+      <c r="M386">
+        <v>189002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A387" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_189002_188202</v>
+      </c>
+      <c r="B387" t="str">
+        <f t="shared" si="12"/>
+        <v>10-24</v>
+      </c>
+      <c r="C387" t="s">
+        <v>210</v>
+      </c>
+      <c r="G387">
+        <v>10</v>
+      </c>
+      <c r="H387">
+        <v>24</v>
+      </c>
+      <c r="K387" t="s">
+        <v>121</v>
+      </c>
+      <c r="L387">
+        <v>189002</v>
+      </c>
+      <c r="M387">
+        <v>188202</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_188202_188602</v>
+      </c>
+      <c r="B388" t="str">
+        <f t="shared" si="12"/>
+        <v>8-24</v>
+      </c>
+      <c r="C388" t="s">
+        <v>210</v>
+      </c>
+      <c r="G388">
+        <v>8</v>
+      </c>
+      <c r="H388">
+        <v>24</v>
+      </c>
+      <c r="K388" t="s">
+        <v>121</v>
+      </c>
+      <c r="L388">
+        <v>188202</v>
+      </c>
+      <c r="M388">
+        <v>188602</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A389" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_188602_188902</v>
+      </c>
+      <c r="B389" t="str">
+        <f t="shared" si="12"/>
+        <v>6-24</v>
+      </c>
+      <c r="C389" t="s">
+        <v>210</v>
+      </c>
+      <c r="G389">
+        <v>6</v>
+      </c>
+      <c r="H389">
+        <v>24</v>
+      </c>
+      <c r="K389" t="s">
+        <v>121</v>
+      </c>
+      <c r="L389">
+        <v>188602</v>
+      </c>
+      <c r="M389">
+        <v>188902</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A390" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_188902_188402</v>
+      </c>
+      <c r="B390" t="str">
+        <f t="shared" si="12"/>
+        <v>4-24</v>
+      </c>
+      <c r="C390" t="s">
+        <v>210</v>
+      </c>
+      <c r="G390">
+        <v>4</v>
+      </c>
+      <c r="H390">
+        <v>24</v>
+      </c>
+      <c r="K390" t="s">
+        <v>121</v>
+      </c>
+      <c r="L390">
+        <v>188902</v>
+      </c>
+      <c r="M390">
+        <v>188402</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A391" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_188402_187901</v>
+      </c>
+      <c r="B391" t="str">
+        <f t="shared" si="12"/>
+        <v>2-24</v>
+      </c>
+      <c r="C391" t="s">
+        <v>210</v>
+      </c>
+      <c r="D391" t="s">
+        <v>220</v>
+      </c>
+      <c r="G391">
+        <v>2</v>
+      </c>
+      <c r="H391">
+        <v>24</v>
+      </c>
+      <c r="K391" t="s">
+        <v>121</v>
+      </c>
+      <c r="L391">
+        <v>188402</v>
+      </c>
+      <c r="M391">
+        <v>187901</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A392" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_187901_188401</v>
+      </c>
+      <c r="B392" t="str">
+        <f t="shared" si="12"/>
+        <v>0-25</v>
+      </c>
+      <c r="C392" t="s">
+        <v>211</v>
+      </c>
+      <c r="D392" t="s">
+        <v>221</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>25</v>
+      </c>
+      <c r="K392" t="s">
+        <v>121</v>
+      </c>
+      <c r="L392">
+        <v>187901</v>
+      </c>
+      <c r="M392">
+        <v>188401</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_188401_188901</v>
+      </c>
+      <c r="B393" t="str">
+        <f t="shared" si="12"/>
+        <v>2-25</v>
+      </c>
+      <c r="C393" t="s">
+        <v>211</v>
+      </c>
+      <c r="G393">
+        <v>2</v>
+      </c>
+      <c r="H393">
+        <v>25</v>
+      </c>
+      <c r="K393" t="s">
+        <v>121</v>
+      </c>
+      <c r="L393">
+        <v>188401</v>
+      </c>
+      <c r="M393">
+        <v>188901</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A394" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_188901_188601</v>
+      </c>
+      <c r="B394" t="str">
+        <f t="shared" si="12"/>
+        <v>4-25</v>
+      </c>
+      <c r="C394" t="s">
+        <v>211</v>
+      </c>
+      <c r="G394">
+        <v>4</v>
+      </c>
+      <c r="H394">
+        <v>25</v>
+      </c>
+      <c r="K394" t="s">
+        <v>121</v>
+      </c>
+      <c r="L394">
+        <v>188901</v>
+      </c>
+      <c r="M394">
+        <v>188601</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A395" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_188601_188201</v>
+      </c>
+      <c r="B395" t="str">
+        <f t="shared" si="12"/>
+        <v>6-25</v>
+      </c>
+      <c r="C395" t="s">
+        <v>211</v>
+      </c>
+      <c r="G395">
+        <v>6</v>
+      </c>
+      <c r="H395">
+        <v>25</v>
+      </c>
+      <c r="K395" t="s">
+        <v>121</v>
+      </c>
+      <c r="L395">
+        <v>188601</v>
+      </c>
+      <c r="M395">
+        <v>188201</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A396" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_188201_189001</v>
+      </c>
+      <c r="B396" t="str">
+        <f t="shared" si="12"/>
+        <v>8-25</v>
+      </c>
+      <c r="C396" t="s">
+        <v>211</v>
+      </c>
+      <c r="G396">
+        <v>8</v>
+      </c>
+      <c r="H396">
+        <v>25</v>
+      </c>
+      <c r="K396" t="s">
+        <v>121</v>
+      </c>
+      <c r="L396">
+        <v>188201</v>
+      </c>
+      <c r="M396">
+        <v>189001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A397" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_189001_127801</v>
+      </c>
+      <c r="B397" t="str">
+        <f t="shared" si="12"/>
+        <v>10-25</v>
+      </c>
+      <c r="C397" t="s">
+        <v>211</v>
+      </c>
+      <c r="G397">
+        <v>10</v>
+      </c>
+      <c r="H397">
+        <v>25</v>
+      </c>
+      <c r="K397" t="s">
+        <v>121</v>
+      </c>
+      <c r="L397">
+        <v>189001</v>
+      </c>
+      <c r="M397">
+        <v>127801</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A398" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_127801_126721</v>
+      </c>
+      <c r="B398" t="str">
+        <f t="shared" si="12"/>
+        <v>12-25</v>
+      </c>
+      <c r="C398" t="s">
+        <v>211</v>
+      </c>
+      <c r="G398">
+        <v>12</v>
+      </c>
+      <c r="H398">
+        <v>25</v>
+      </c>
+      <c r="K398" t="s">
+        <v>121</v>
+      </c>
+      <c r="L398">
+        <v>127801</v>
+      </c>
+      <c r="M398">
+        <v>126721</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A399" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_126721_127401</v>
+      </c>
+      <c r="B399" t="str">
+        <f t="shared" si="12"/>
+        <v>14-25</v>
+      </c>
+      <c r="C399" t="s">
+        <v>211</v>
+      </c>
+      <c r="G399">
+        <v>14</v>
+      </c>
+      <c r="H399">
+        <v>25</v>
+      </c>
+      <c r="K399" t="s">
+        <v>121</v>
+      </c>
+      <c r="L399">
+        <v>126721</v>
+      </c>
+      <c r="M399">
+        <v>127401</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A400" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_127401_127621</v>
+      </c>
+      <c r="B400" t="str">
+        <f t="shared" si="12"/>
+        <v>16-25</v>
+      </c>
+      <c r="C400" t="s">
+        <v>211</v>
+      </c>
+      <c r="G400">
+        <v>16</v>
+      </c>
+      <c r="H400">
+        <v>25</v>
+      </c>
+      <c r="K400" t="s">
+        <v>121</v>
+      </c>
+      <c r="L400">
+        <v>127401</v>
+      </c>
+      <c r="M400">
+        <v>127621</v>
+      </c>
+    </row>
+    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A401" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_127621_126321</v>
+      </c>
+      <c r="B401" t="str">
+        <f t="shared" si="12"/>
+        <v>18-25</v>
+      </c>
+      <c r="C401" t="s">
+        <v>211</v>
+      </c>
+      <c r="G401">
+        <v>18</v>
+      </c>
+      <c r="H401">
+        <v>25</v>
+      </c>
+      <c r="K401" t="s">
+        <v>121</v>
+      </c>
+      <c r="L401">
+        <v>127621</v>
+      </c>
+      <c r="M401">
+        <v>126321</v>
+      </c>
+    </row>
+    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A402" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_126321_127321</v>
+      </c>
+      <c r="B402" t="str">
+        <f t="shared" si="12"/>
+        <v>20-25</v>
+      </c>
+      <c r="C402" t="s">
+        <v>211</v>
+      </c>
+      <c r="G402">
+        <v>20</v>
+      </c>
+      <c r="H402">
+        <v>25</v>
+      </c>
+      <c r="K402" t="s">
+        <v>121</v>
+      </c>
+      <c r="L402">
+        <v>126321</v>
+      </c>
+      <c r="M402">
+        <v>127321</v>
+      </c>
+    </row>
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A403" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_127321_118521</v>
+      </c>
+      <c r="B403" t="str">
+        <f t="shared" si="12"/>
+        <v>22-25</v>
+      </c>
+      <c r="C403" t="s">
+        <v>211</v>
+      </c>
+      <c r="G403">
+        <v>22</v>
+      </c>
+      <c r="H403">
+        <v>25</v>
+      </c>
+      <c r="K403" t="s">
+        <v>121</v>
+      </c>
+      <c r="L403">
+        <v>127321</v>
+      </c>
+      <c r="M403">
+        <v>118521</v>
+      </c>
+      <c r="P403" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A404" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_118521_114321</v>
+      </c>
+      <c r="B404" t="str">
+        <f t="shared" si="12"/>
+        <v>24-25</v>
+      </c>
+      <c r="C404" t="s">
+        <v>211</v>
+      </c>
+      <c r="G404">
+        <v>24</v>
+      </c>
+      <c r="H404">
+        <v>25</v>
+      </c>
+      <c r="K404" t="s">
+        <v>121</v>
+      </c>
+      <c r="L404">
+        <v>118521</v>
+      </c>
+      <c r="M404">
+        <v>114321</v>
+      </c>
+      <c r="P404">
+        <v>114423</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A405" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_114321_114121</v>
+      </c>
+      <c r="B405" t="str">
+        <f t="shared" si="12"/>
+        <v>26-25</v>
+      </c>
+      <c r="C405" t="s">
+        <v>211</v>
+      </c>
+      <c r="G405">
+        <v>26</v>
+      </c>
+      <c r="H405">
+        <v>25</v>
+      </c>
+      <c r="K405" t="s">
+        <v>121</v>
+      </c>
+      <c r="L405">
+        <v>114321</v>
+      </c>
+      <c r="M405">
+        <v>114121</v>
+      </c>
+      <c r="P405">
+        <v>116023</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A406" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_114121_145721</v>
+      </c>
+      <c r="B406" t="str">
+        <f t="shared" si="12"/>
+        <v>28-25</v>
+      </c>
+      <c r="C406" t="s">
+        <v>211</v>
+      </c>
+      <c r="G406">
+        <v>28</v>
+      </c>
+      <c r="H406">
+        <v>25</v>
+      </c>
+      <c r="K406" t="s">
+        <v>121</v>
+      </c>
+      <c r="L406">
+        <v>114121</v>
+      </c>
+      <c r="M406">
+        <v>145721</v>
+      </c>
+      <c r="P406">
+        <v>119421</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A407" t="str">
+        <f t="shared" si="11"/>
+        <v>DEPOT_145721_115021</v>
+      </c>
+      <c r="B407" t="str">
+        <f t="shared" si="12"/>
+        <v>30-25</v>
+      </c>
+      <c r="C407" t="s">
+        <v>211</v>
+      </c>
+      <c r="G407">
+        <v>30</v>
+      </c>
+      <c r="H407">
+        <v>25</v>
+      </c>
+      <c r="K407" t="s">
+        <v>121</v>
+      </c>
+      <c r="L407">
+        <v>145721</v>
+      </c>
+      <c r="M407">
+        <v>115021</v>
+      </c>
+      <c r="P407">
+        <v>118722</v>
+      </c>
+    </row>
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A408" t="str">
+        <f t="shared" ref="A408:A422" si="13">_xlfn.CONCAT(K408,"_",L408,"_",M408)</f>
+        <v>DEPOT_115021_118721</v>
+      </c>
+      <c r="B408" t="str">
+        <f t="shared" si="12"/>
+        <v>32-25</v>
+      </c>
+      <c r="C408" t="s">
+        <v>211</v>
+      </c>
+      <c r="G408">
+        <v>32</v>
+      </c>
+      <c r="H408">
+        <v>25</v>
+      </c>
+      <c r="K408" t="s">
+        <v>121</v>
+      </c>
+      <c r="L408">
+        <v>115021</v>
+      </c>
+      <c r="M408">
+        <v>118721</v>
+      </c>
+    </row>
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A409" t="str">
+        <f t="shared" si="13"/>
+        <v>DEPOT_118721_119321</v>
+      </c>
+      <c r="B409" t="str">
+        <f t="shared" si="12"/>
+        <v>34-25</v>
+      </c>
+      <c r="C409" t="s">
+        <v>211</v>
+      </c>
+      <c r="G409">
+        <v>34</v>
+      </c>
+      <c r="H409">
+        <v>25</v>
+      </c>
+      <c r="K409" t="s">
+        <v>121</v>
+      </c>
+      <c r="L409">
+        <v>118721</v>
+      </c>
+      <c r="M409">
+        <v>119321</v>
+      </c>
+    </row>
+    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A410" t="str">
+        <f t="shared" si="13"/>
+        <v>DEPOT_119321_116821</v>
+      </c>
+      <c r="B410" t="str">
+        <f t="shared" si="12"/>
+        <v>36-26</v>
+      </c>
+      <c r="C410" t="s">
+        <v>211</v>
+      </c>
+      <c r="G410">
+        <v>36</v>
+      </c>
+      <c r="H410">
+        <v>26</v>
+      </c>
+      <c r="K410" t="s">
+        <v>121</v>
+      </c>
+      <c r="L410">
+        <v>119321</v>
+      </c>
+      <c r="M410">
+        <v>116821</v>
+      </c>
+    </row>
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A411" t="str">
+        <f t="shared" si="13"/>
+        <v>DEPOT_116821_114601</v>
+      </c>
+      <c r="B411" t="str">
+        <f t="shared" si="12"/>
+        <v>36-28</v>
+      </c>
+      <c r="C411" t="s">
+        <v>211</v>
+      </c>
+      <c r="D411" t="s">
+        <v>70</v>
+      </c>
+      <c r="G411">
+        <v>36</v>
+      </c>
+      <c r="H411">
+        <v>28</v>
+      </c>
+      <c r="K411" t="s">
+        <v>121</v>
+      </c>
+      <c r="L411">
+        <v>116821</v>
+      </c>
+      <c r="M411">
+        <v>114601</v>
+      </c>
+    </row>
+    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A412" t="str">
+        <f t="shared" ref="A412:A414" si="14">_xlfn.CONCAT(K412,"_",M412)</f>
+        <v>114423_116023</v>
+      </c>
+      <c r="B412" t="str">
+        <f t="shared" si="12"/>
+        <v>38-19</v>
+      </c>
+      <c r="C412" t="s">
+        <v>215</v>
+      </c>
+      <c r="D412" t="s">
+        <v>222</v>
+      </c>
+      <c r="G412">
+        <v>38</v>
+      </c>
+      <c r="H412">
+        <v>19</v>
+      </c>
+      <c r="K412">
+        <v>114423</v>
+      </c>
+      <c r="M412">
+        <v>116023</v>
+      </c>
+    </row>
+    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A413" t="str">
+        <f t="shared" si="14"/>
+        <v>116023_119421</v>
+      </c>
+      <c r="B413" t="str">
+        <f t="shared" si="12"/>
+        <v>36-21</v>
+      </c>
+      <c r="C413" t="s">
+        <v>215</v>
+      </c>
+      <c r="G413">
+        <v>36</v>
+      </c>
+      <c r="H413">
+        <v>21</v>
+      </c>
+      <c r="K413">
+        <v>116023</v>
+      </c>
+      <c r="M413">
+        <v>119421</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A414" t="str">
+        <f t="shared" si="14"/>
+        <v>119421_118722</v>
+      </c>
+      <c r="B414" t="str">
+        <f t="shared" si="12"/>
+        <v>36-23</v>
+      </c>
+      <c r="C414" t="s">
+        <v>215</v>
+      </c>
+      <c r="D414" t="s">
+        <v>223</v>
+      </c>
+      <c r="G414">
+        <v>36</v>
+      </c>
+      <c r="H414">
+        <v>23</v>
+      </c>
+      <c r="K414">
+        <v>119421</v>
+      </c>
+      <c r="M414">
+        <v>118722</v>
+      </c>
+    </row>
+    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A415" t="str">
+        <f t="shared" si="13"/>
+        <v>114423_116023_119421</v>
+      </c>
+      <c r="B415" t="str">
+        <f t="shared" si="12"/>
+        <v>36-20</v>
+      </c>
+      <c r="C415" t="s">
+        <v>212</v>
+      </c>
+      <c r="D415" t="s">
+        <v>224</v>
+      </c>
+      <c r="G415">
+        <v>36</v>
+      </c>
+      <c r="H415">
+        <v>20</v>
+      </c>
+      <c r="K415">
+        <v>114423</v>
+      </c>
+      <c r="L415">
+        <v>116023</v>
+      </c>
+      <c r="M415">
+        <v>119421</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A416" t="str">
+        <f t="shared" si="13"/>
+        <v>116023_119421_118722</v>
+      </c>
+      <c r="B416" t="str">
+        <f t="shared" si="12"/>
+        <v>36-22</v>
+      </c>
+      <c r="C416" t="s">
+        <v>212</v>
+      </c>
+      <c r="D416" t="s">
+        <v>225</v>
+      </c>
+      <c r="G416">
+        <v>36</v>
+      </c>
+      <c r="H416">
+        <v>22</v>
+      </c>
+      <c r="K416">
+        <v>116023</v>
+      </c>
+      <c r="L416">
+        <v>119421</v>
+      </c>
+      <c r="M416">
+        <v>118722</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A417" t="str">
+        <f t="shared" si="13"/>
+        <v>114423_116023_DEPOT</v>
+      </c>
+      <c r="B417" t="str">
+        <f t="shared" ref="B417:B422" si="15">_xlfn.CONCAT(G417,"-",H417)</f>
+        <v>36-20</v>
+      </c>
+      <c r="C417" t="s">
+        <v>213</v>
+      </c>
+      <c r="D417" t="s">
+        <v>224</v>
+      </c>
+      <c r="G417">
+        <v>36</v>
+      </c>
+      <c r="H417">
+        <v>20</v>
+      </c>
+      <c r="K417">
+        <v>114423</v>
+      </c>
+      <c r="L417">
+        <v>116023</v>
+      </c>
+      <c r="M417" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A418" t="str">
+        <f t="shared" si="13"/>
+        <v>116023_119421_DEPOT</v>
+      </c>
+      <c r="B418" t="str">
+        <f t="shared" si="15"/>
+        <v>36-22</v>
+      </c>
+      <c r="C418" t="s">
+        <v>213</v>
+      </c>
+      <c r="G418">
+        <v>36</v>
+      </c>
+      <c r="H418">
+        <v>22</v>
+      </c>
+      <c r="K418">
+        <v>116023</v>
+      </c>
+      <c r="L418">
+        <v>119421</v>
+      </c>
+      <c r="M418" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A419" t="str">
+        <f t="shared" si="13"/>
+        <v>119421_118722_DEPOT</v>
+      </c>
+      <c r="B419" t="str">
+        <f t="shared" si="15"/>
+        <v>34-24</v>
+      </c>
+      <c r="C419" t="s">
+        <v>213</v>
+      </c>
+      <c r="D419" t="s">
+        <v>226</v>
+      </c>
+      <c r="G419">
+        <v>34</v>
+      </c>
+      <c r="H419">
+        <v>24</v>
+      </c>
+      <c r="K419">
+        <v>119421</v>
+      </c>
+      <c r="L419">
+        <v>118722</v>
+      </c>
+      <c r="M419" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A420" t="str">
+        <f t="shared" si="13"/>
+        <v>DEPOT_114423_116023</v>
+      </c>
+      <c r="B420" t="str">
+        <f t="shared" si="15"/>
+        <v>40-20</v>
+      </c>
+      <c r="C420" t="s">
+        <v>214</v>
+      </c>
+      <c r="D420" t="s">
+        <v>227</v>
+      </c>
+      <c r="G420">
+        <v>40</v>
+      </c>
+      <c r="H420">
+        <v>20</v>
+      </c>
+      <c r="K420" t="s">
+        <v>121</v>
+      </c>
+      <c r="L420">
+        <v>114423</v>
+      </c>
+      <c r="M420">
+        <v>116023</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A421" t="str">
+        <f t="shared" si="13"/>
+        <v>DEPOT_116023_119421</v>
+      </c>
+      <c r="B421" t="str">
+        <f t="shared" si="15"/>
+        <v>36-20</v>
+      </c>
+      <c r="C421" t="s">
+        <v>214</v>
+      </c>
+      <c r="G421">
+        <v>36</v>
+      </c>
+      <c r="H421">
+        <v>20</v>
+      </c>
+      <c r="K421" t="s">
+        <v>121</v>
+      </c>
+      <c r="L421">
+        <v>116023</v>
+      </c>
+      <c r="M421">
+        <v>119421</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A422" t="str">
+        <f t="shared" si="13"/>
+        <v>DEPOT_119421_118722</v>
+      </c>
+      <c r="B422" t="str">
+        <f t="shared" si="15"/>
+        <v>36-22</v>
+      </c>
+      <c r="C422" t="s">
+        <v>214</v>
+      </c>
+      <c r="D422" t="s">
+        <v>228</v>
+      </c>
+      <c r="G422">
+        <v>36</v>
+      </c>
+      <c r="H422">
+        <v>22</v>
+      </c>
+      <c r="K422" t="s">
+        <v>121</v>
+      </c>
+      <c r="L422">
+        <v>119421</v>
+      </c>
+      <c r="M422">
+        <v>118722</v>
       </c>
     </row>
   </sheetData>

--- a/src/statuscode_led_mapping_template.xlsx
+++ b/src/statuscode_led_mapping_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Documents\github\rnv-train-monitor\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D87584D-9C44-4F12-BBA3-E3A271B83167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346F1F2C-5F48-4521-850C-724A718D700F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6BC448DE-82B4-40A0-A0A8-5C16E427463C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="250">
   <si>
     <t>statuscode</t>
   </si>
@@ -720,6 +720,69 @@
   </si>
   <si>
     <t>Stadtwerke</t>
+  </si>
+  <si>
+    <t>5 D-E transit</t>
+  </si>
+  <si>
+    <t>5 E-D transit</t>
+  </si>
+  <si>
+    <t>5 E-D stopped</t>
+  </si>
+  <si>
+    <t>5 D-E stopped</t>
+  </si>
+  <si>
+    <t>5 D-E stopped last</t>
+  </si>
+  <si>
+    <t>5 E-D stopped last</t>
+  </si>
+  <si>
+    <t>5 D-E stopped first</t>
+  </si>
+  <si>
+    <t>5 E-D stopped first</t>
+  </si>
+  <si>
+    <t>Dossenheim Nord &gt; Dossenheim Bf</t>
+  </si>
+  <si>
+    <t>Wieblingen Taubenfeld &gt; Edingen Bahnhof</t>
+  </si>
+  <si>
+    <t>Edingen Bahnhof &gt; Wieblingen Taubenfeld</t>
+  </si>
+  <si>
+    <t>Dossenheim Bf</t>
+  </si>
+  <si>
+    <t>Taubenfeld</t>
+  </si>
+  <si>
+    <t>Edingen Bahnhof</t>
+  </si>
+  <si>
+    <t>Dossenheim Nord</t>
+  </si>
+  <si>
+    <t>Burgstraße &gt; Hans Thoma</t>
+  </si>
+  <si>
+    <t>Hans Thoma &gt; Burgstraße</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burgstraße  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hans Thoma  </t>
+  </si>
+  <si>
+    <t>Hans Thoma</t>
+  </si>
+  <si>
+    <t>Burgstraße</t>
   </si>
 </sst>
 </file>
@@ -1587,11 +1650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049D7F86-3D4A-4BAF-A7FA-ECA534A64199}">
-  <dimension ref="A1:Q422"/>
+  <dimension ref="A1:Q580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D587" sqref="D587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,6 +1663,7 @@
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
     <col min="16" max="16" width="28.28515625" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
   </cols>
@@ -13046,13 +13110,13 @@
         <v>118722</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417" t="str">
         <f t="shared" si="13"/>
         <v>114423_116023_DEPOT</v>
       </c>
       <c r="B417" t="str">
-        <f t="shared" ref="B417:B422" si="15">_xlfn.CONCAT(G417,"-",H417)</f>
+        <f t="shared" ref="B417:B466" si="15">_xlfn.CONCAT(G417,"-",H417)</f>
         <v>36-20</v>
       </c>
       <c r="C417" t="s">
@@ -13077,7 +13141,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" t="str">
         <f t="shared" si="13"/>
         <v>116023_119421_DEPOT</v>
@@ -13105,7 +13169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419" t="str">
         <f t="shared" si="13"/>
         <v>119421_118722_DEPOT</v>
@@ -13136,7 +13200,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" t="str">
         <f t="shared" si="13"/>
         <v>DEPOT_114423_116023</v>
@@ -13167,7 +13231,7 @@
         <v>116023</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421" t="str">
         <f t="shared" si="13"/>
         <v>DEPOT_116023_119421</v>
@@ -13195,7 +13259,7 @@
         <v>119421</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422" t="str">
         <f t="shared" si="13"/>
         <v>DEPOT_119421_118722</v>
@@ -13224,6 +13288,4490 @@
       </c>
       <c r="M422">
         <v>118722</v>
+      </c>
+    </row>
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A423" t="str">
+        <f t="shared" ref="A423:A462" si="16">_xlfn.CONCAT(K423,"_",M423)</f>
+        <v>574201_51501</v>
+      </c>
+      <c r="B423" t="str">
+        <f t="shared" si="15"/>
+        <v>61-24</v>
+      </c>
+      <c r="C423" t="s">
+        <v>229</v>
+      </c>
+      <c r="D423" t="s">
+        <v>237</v>
+      </c>
+      <c r="G423">
+        <v>61</v>
+      </c>
+      <c r="H423">
+        <v>24</v>
+      </c>
+      <c r="K423">
+        <v>574201</v>
+      </c>
+      <c r="M423">
+        <v>51501</v>
+      </c>
+      <c r="P423">
+        <v>51601</v>
+      </c>
+      <c r="Q423">
+        <v>130201</v>
+      </c>
+    </row>
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A424" t="str">
+        <f t="shared" si="16"/>
+        <v>51501_51601</v>
+      </c>
+      <c r="B424" t="str">
+        <f t="shared" si="15"/>
+        <v>59-24</v>
+      </c>
+      <c r="C424" t="s">
+        <v>229</v>
+      </c>
+      <c r="G424">
+        <v>59</v>
+      </c>
+      <c r="H424">
+        <v>24</v>
+      </c>
+      <c r="K424">
+        <v>51501</v>
+      </c>
+      <c r="M424">
+        <v>51601</v>
+      </c>
+      <c r="P424">
+        <v>113301</v>
+      </c>
+      <c r="Q424">
+        <v>169301</v>
+      </c>
+    </row>
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A425" t="str">
+        <f t="shared" si="16"/>
+        <v>51601_113301</v>
+      </c>
+      <c r="B425" t="str">
+        <f t="shared" si="15"/>
+        <v>57-24</v>
+      </c>
+      <c r="C425" t="s">
+        <v>229</v>
+      </c>
+      <c r="G425">
+        <v>57</v>
+      </c>
+      <c r="H425">
+        <v>24</v>
+      </c>
+      <c r="K425">
+        <v>51601</v>
+      </c>
+      <c r="M425">
+        <v>113301</v>
+      </c>
+      <c r="P425">
+        <v>113601</v>
+      </c>
+      <c r="Q425">
+        <v>118001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A426" t="str">
+        <f t="shared" si="16"/>
+        <v>113301_113601</v>
+      </c>
+      <c r="B426" t="str">
+        <f t="shared" si="15"/>
+        <v>55-24</v>
+      </c>
+      <c r="C426" t="s">
+        <v>229</v>
+      </c>
+      <c r="D426" t="s">
+        <v>244</v>
+      </c>
+      <c r="G426">
+        <v>55</v>
+      </c>
+      <c r="H426">
+        <v>24</v>
+      </c>
+      <c r="K426">
+        <v>113301</v>
+      </c>
+      <c r="M426">
+        <v>113601</v>
+      </c>
+      <c r="P426">
+        <v>113521</v>
+      </c>
+      <c r="Q426">
+        <v>133101</v>
+      </c>
+    </row>
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A427" t="str">
+        <f t="shared" si="16"/>
+        <v>113601_113521</v>
+      </c>
+      <c r="B427" t="str">
+        <f t="shared" si="15"/>
+        <v>51-24</v>
+      </c>
+      <c r="C427" t="s">
+        <v>229</v>
+      </c>
+      <c r="G427">
+        <v>51</v>
+      </c>
+      <c r="H427">
+        <v>24</v>
+      </c>
+      <c r="K427">
+        <v>113601</v>
+      </c>
+      <c r="M427">
+        <v>113521</v>
+      </c>
+      <c r="P427">
+        <v>122521</v>
+      </c>
+      <c r="Q427">
+        <v>133001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A428" t="str">
+        <f t="shared" si="16"/>
+        <v>113521_122521</v>
+      </c>
+      <c r="B428" t="str">
+        <f t="shared" si="15"/>
+        <v>47-27</v>
+      </c>
+      <c r="C428" t="s">
+        <v>229</v>
+      </c>
+      <c r="G428">
+        <v>47</v>
+      </c>
+      <c r="H428">
+        <v>27</v>
+      </c>
+      <c r="K428">
+        <v>113521</v>
+      </c>
+      <c r="M428">
+        <v>122521</v>
+      </c>
+      <c r="P428">
+        <v>123321</v>
+      </c>
+      <c r="Q428">
+        <v>116021</v>
+      </c>
+    </row>
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A429" t="str">
+        <f t="shared" si="16"/>
+        <v>122521_123321</v>
+      </c>
+      <c r="B429" t="str">
+        <f t="shared" si="15"/>
+        <v>45-29</v>
+      </c>
+      <c r="C429" t="s">
+        <v>229</v>
+      </c>
+      <c r="G429">
+        <v>45</v>
+      </c>
+      <c r="H429">
+        <v>29</v>
+      </c>
+      <c r="K429">
+        <v>122521</v>
+      </c>
+      <c r="M429">
+        <v>123321</v>
+      </c>
+      <c r="P429">
+        <v>126021</v>
+      </c>
+      <c r="Q429">
+        <v>119421</v>
+      </c>
+    </row>
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A430" t="str">
+        <f t="shared" si="16"/>
+        <v>123321_126021</v>
+      </c>
+      <c r="B430" t="str">
+        <f t="shared" si="15"/>
+        <v>43-29</v>
+      </c>
+      <c r="C430" t="s">
+        <v>229</v>
+      </c>
+      <c r="G430">
+        <v>43</v>
+      </c>
+      <c r="H430">
+        <v>29</v>
+      </c>
+      <c r="K430">
+        <v>123321</v>
+      </c>
+      <c r="M430">
+        <v>126021</v>
+      </c>
+      <c r="P430">
+        <v>114602</v>
+      </c>
+      <c r="Q430">
+        <v>119321</v>
+      </c>
+    </row>
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A431" t="str">
+        <f t="shared" si="16"/>
+        <v>126021_114602</v>
+      </c>
+      <c r="B431" t="str">
+        <f t="shared" si="15"/>
+        <v>41-29</v>
+      </c>
+      <c r="C431" t="s">
+        <v>229</v>
+      </c>
+      <c r="G431">
+        <v>41</v>
+      </c>
+      <c r="H431">
+        <v>29</v>
+      </c>
+      <c r="K431">
+        <v>126021</v>
+      </c>
+      <c r="M431">
+        <v>114602</v>
+      </c>
+      <c r="P431">
+        <v>116822</v>
+      </c>
+      <c r="Q431">
+        <v>116821</v>
+      </c>
+    </row>
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A432" t="str">
+        <f t="shared" si="16"/>
+        <v>114602_116822</v>
+      </c>
+      <c r="B432" t="str">
+        <f t="shared" si="15"/>
+        <v>38-29</v>
+      </c>
+      <c r="C432" t="s">
+        <v>229</v>
+      </c>
+      <c r="G432">
+        <v>38</v>
+      </c>
+      <c r="H432">
+        <v>29</v>
+      </c>
+      <c r="K432">
+        <v>114602</v>
+      </c>
+      <c r="M432">
+        <v>116822</v>
+      </c>
+      <c r="P432">
+        <v>119322</v>
+      </c>
+      <c r="Q432">
+        <v>114601</v>
+      </c>
+    </row>
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A433" t="str">
+        <f t="shared" si="16"/>
+        <v>116822_119322</v>
+      </c>
+      <c r="B433" t="str">
+        <f t="shared" si="15"/>
+        <v>37-27</v>
+      </c>
+      <c r="C433" t="s">
+        <v>229</v>
+      </c>
+      <c r="G433">
+        <v>37</v>
+      </c>
+      <c r="H433">
+        <v>27</v>
+      </c>
+      <c r="K433">
+        <v>116822</v>
+      </c>
+      <c r="M433">
+        <v>119322</v>
+      </c>
+      <c r="P433">
+        <v>119402</v>
+      </c>
+      <c r="Q433">
+        <v>126022</v>
+      </c>
+    </row>
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A434" t="str">
+        <f t="shared" si="16"/>
+        <v>119322_119402</v>
+      </c>
+      <c r="B434" t="str">
+        <f t="shared" si="15"/>
+        <v>37-25</v>
+      </c>
+      <c r="C434" t="s">
+        <v>229</v>
+      </c>
+      <c r="G434">
+        <v>37</v>
+      </c>
+      <c r="H434">
+        <v>25</v>
+      </c>
+      <c r="K434">
+        <v>119322</v>
+      </c>
+      <c r="M434">
+        <v>119402</v>
+      </c>
+      <c r="P434">
+        <v>116022</v>
+      </c>
+      <c r="Q434">
+        <v>123322</v>
+      </c>
+    </row>
+    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A435" t="str">
+        <f t="shared" si="16"/>
+        <v>119402_116022</v>
+      </c>
+      <c r="B435" t="str">
+        <f t="shared" si="15"/>
+        <v>37-21</v>
+      </c>
+      <c r="C435" t="s">
+        <v>229</v>
+      </c>
+      <c r="G435">
+        <v>37</v>
+      </c>
+      <c r="H435">
+        <v>21</v>
+      </c>
+      <c r="K435">
+        <v>119402</v>
+      </c>
+      <c r="M435">
+        <v>116022</v>
+      </c>
+      <c r="P435">
+        <v>133002</v>
+      </c>
+      <c r="Q435">
+        <v>122522</v>
+      </c>
+    </row>
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A436" t="str">
+        <f t="shared" si="16"/>
+        <v>116022_133002</v>
+      </c>
+      <c r="B436" t="str">
+        <f t="shared" si="15"/>
+        <v>37-18</v>
+      </c>
+      <c r="C436" t="s">
+        <v>229</v>
+      </c>
+      <c r="G436">
+        <v>37</v>
+      </c>
+      <c r="H436">
+        <v>18</v>
+      </c>
+      <c r="K436">
+        <v>116022</v>
+      </c>
+      <c r="M436">
+        <v>133002</v>
+      </c>
+      <c r="P436">
+        <v>133102</v>
+      </c>
+      <c r="Q436">
+        <v>113522</v>
+      </c>
+    </row>
+    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A437" t="str">
+        <f t="shared" si="16"/>
+        <v>133002_133102</v>
+      </c>
+      <c r="B437" t="str">
+        <f t="shared" si="15"/>
+        <v>40-14</v>
+      </c>
+      <c r="C437" t="s">
+        <v>229</v>
+      </c>
+      <c r="G437">
+        <v>40</v>
+      </c>
+      <c r="H437">
+        <v>14</v>
+      </c>
+      <c r="K437">
+        <v>133002</v>
+      </c>
+      <c r="M437">
+        <v>133102</v>
+      </c>
+      <c r="P437">
+        <v>118002</v>
+      </c>
+      <c r="Q437">
+        <v>113602</v>
+      </c>
+    </row>
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A438" t="str">
+        <f t="shared" si="16"/>
+        <v>133102_118002</v>
+      </c>
+      <c r="B438" t="str">
+        <f t="shared" si="15"/>
+        <v>42-12</v>
+      </c>
+      <c r="C438" t="s">
+        <v>229</v>
+      </c>
+      <c r="G438">
+        <v>42</v>
+      </c>
+      <c r="H438">
+        <v>12</v>
+      </c>
+      <c r="K438">
+        <v>133102</v>
+      </c>
+      <c r="M438">
+        <v>118002</v>
+      </c>
+      <c r="P438">
+        <v>169302</v>
+      </c>
+      <c r="Q438">
+        <v>113302</v>
+      </c>
+    </row>
+    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A439" t="str">
+        <f t="shared" si="16"/>
+        <v>118002_169302</v>
+      </c>
+      <c r="B439" t="str">
+        <f t="shared" si="15"/>
+        <v>44-10</v>
+      </c>
+      <c r="C439" t="s">
+        <v>229</v>
+      </c>
+      <c r="G439">
+        <v>44</v>
+      </c>
+      <c r="H439">
+        <v>10</v>
+      </c>
+      <c r="K439">
+        <v>118002</v>
+      </c>
+      <c r="M439">
+        <v>169302</v>
+      </c>
+      <c r="P439">
+        <v>130202</v>
+      </c>
+      <c r="Q439">
+        <v>51602</v>
+      </c>
+    </row>
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A440" t="str">
+        <f t="shared" si="16"/>
+        <v>169302_130202</v>
+      </c>
+      <c r="B440" t="str">
+        <f t="shared" si="15"/>
+        <v>46-8</v>
+      </c>
+      <c r="C440" t="s">
+        <v>229</v>
+      </c>
+      <c r="G440">
+        <v>46</v>
+      </c>
+      <c r="H440">
+        <v>8</v>
+      </c>
+      <c r="K440">
+        <v>169302</v>
+      </c>
+      <c r="M440">
+        <v>130202</v>
+      </c>
+      <c r="P440">
+        <v>130402</v>
+      </c>
+      <c r="Q440">
+        <v>51502</v>
+      </c>
+    </row>
+    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A441" t="str">
+        <f t="shared" si="16"/>
+        <v>130202_130402</v>
+      </c>
+      <c r="B441" t="str">
+        <f t="shared" si="15"/>
+        <v>48-6</v>
+      </c>
+      <c r="C441" t="s">
+        <v>229</v>
+      </c>
+      <c r="G441">
+        <v>48</v>
+      </c>
+      <c r="H441">
+        <v>6</v>
+      </c>
+      <c r="K441">
+        <v>130202</v>
+      </c>
+      <c r="M441">
+        <v>130402</v>
+      </c>
+      <c r="P441">
+        <v>61901</v>
+      </c>
+      <c r="Q441">
+        <v>574202</v>
+      </c>
+    </row>
+    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A442" t="str">
+        <f t="shared" si="16"/>
+        <v>130402_61901</v>
+      </c>
+      <c r="B442" t="str">
+        <f t="shared" si="15"/>
+        <v>50-3</v>
+      </c>
+      <c r="C442" t="s">
+        <v>229</v>
+      </c>
+      <c r="D442" t="s">
+        <v>238</v>
+      </c>
+      <c r="G442">
+        <v>50</v>
+      </c>
+      <c r="H442">
+        <v>3</v>
+      </c>
+      <c r="K442">
+        <v>130402</v>
+      </c>
+      <c r="M442">
+        <v>61901</v>
+      </c>
+    </row>
+    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A443" t="str">
+        <f t="shared" si="16"/>
+        <v>61902_130401</v>
+      </c>
+      <c r="B443" t="str">
+        <f t="shared" si="15"/>
+        <v>49-3</v>
+      </c>
+      <c r="C443" t="s">
+        <v>230</v>
+      </c>
+      <c r="D443" t="s">
+        <v>239</v>
+      </c>
+      <c r="G443">
+        <v>49</v>
+      </c>
+      <c r="H443">
+        <v>3</v>
+      </c>
+      <c r="K443">
+        <v>61902</v>
+      </c>
+      <c r="M443">
+        <v>130401</v>
+      </c>
+    </row>
+    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A444" t="str">
+        <f t="shared" si="16"/>
+        <v>130401_130201</v>
+      </c>
+      <c r="B444" t="str">
+        <f t="shared" si="15"/>
+        <v>47-5</v>
+      </c>
+      <c r="C444" t="s">
+        <v>230</v>
+      </c>
+      <c r="G444">
+        <v>47</v>
+      </c>
+      <c r="H444">
+        <v>5</v>
+      </c>
+      <c r="K444">
+        <v>130401</v>
+      </c>
+      <c r="M444">
+        <v>130201</v>
+      </c>
+    </row>
+    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A445" t="str">
+        <f t="shared" si="16"/>
+        <v>130201_169301</v>
+      </c>
+      <c r="B445" t="str">
+        <f t="shared" si="15"/>
+        <v>45-7</v>
+      </c>
+      <c r="C445" t="s">
+        <v>230</v>
+      </c>
+      <c r="G445">
+        <v>45</v>
+      </c>
+      <c r="H445">
+        <v>7</v>
+      </c>
+      <c r="K445">
+        <v>130201</v>
+      </c>
+      <c r="M445">
+        <v>169301</v>
+      </c>
+    </row>
+    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A446" t="str">
+        <f t="shared" si="16"/>
+        <v>169301_118001</v>
+      </c>
+      <c r="B446" t="str">
+        <f t="shared" si="15"/>
+        <v>43-9</v>
+      </c>
+      <c r="C446" t="s">
+        <v>230</v>
+      </c>
+      <c r="G446">
+        <v>43</v>
+      </c>
+      <c r="H446">
+        <v>9</v>
+      </c>
+      <c r="K446">
+        <v>169301</v>
+      </c>
+      <c r="M446">
+        <v>118001</v>
+      </c>
+    </row>
+    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A447" t="str">
+        <f t="shared" si="16"/>
+        <v>118001_133101</v>
+      </c>
+      <c r="B447" t="str">
+        <f t="shared" si="15"/>
+        <v>41-11</v>
+      </c>
+      <c r="C447" t="s">
+        <v>230</v>
+      </c>
+      <c r="G447">
+        <v>41</v>
+      </c>
+      <c r="H447">
+        <v>11</v>
+      </c>
+      <c r="K447">
+        <v>118001</v>
+      </c>
+      <c r="M447">
+        <v>133101</v>
+      </c>
+    </row>
+    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A448" t="str">
+        <f t="shared" si="16"/>
+        <v>133101_133001</v>
+      </c>
+      <c r="B448" t="str">
+        <f t="shared" si="15"/>
+        <v>39-13</v>
+      </c>
+      <c r="C448" t="s">
+        <v>230</v>
+      </c>
+      <c r="G448">
+        <v>39</v>
+      </c>
+      <c r="H448">
+        <v>13</v>
+      </c>
+      <c r="K448">
+        <v>133101</v>
+      </c>
+      <c r="M448">
+        <v>133001</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A449" t="str">
+        <f t="shared" si="16"/>
+        <v>133001_116021</v>
+      </c>
+      <c r="B449" t="str">
+        <f t="shared" si="15"/>
+        <v>36-18</v>
+      </c>
+      <c r="C449" t="s">
+        <v>230</v>
+      </c>
+      <c r="G449">
+        <v>36</v>
+      </c>
+      <c r="H449">
+        <v>18</v>
+      </c>
+      <c r="K449">
+        <v>133001</v>
+      </c>
+      <c r="M449">
+        <v>116021</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A450" t="str">
+        <f t="shared" si="16"/>
+        <v>116021_119421</v>
+      </c>
+      <c r="B450" t="str">
+        <f t="shared" si="15"/>
+        <v>36-21</v>
+      </c>
+      <c r="C450" t="s">
+        <v>230</v>
+      </c>
+      <c r="G450">
+        <v>36</v>
+      </c>
+      <c r="H450">
+        <v>21</v>
+      </c>
+      <c r="K450">
+        <v>116021</v>
+      </c>
+      <c r="M450">
+        <v>119421</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A451" t="str">
+        <f t="shared" si="16"/>
+        <v>119421_119321</v>
+      </c>
+      <c r="B451" t="str">
+        <f t="shared" si="15"/>
+        <v>36-23</v>
+      </c>
+      <c r="C451" t="s">
+        <v>230</v>
+      </c>
+      <c r="G451">
+        <v>36</v>
+      </c>
+      <c r="H451">
+        <v>23</v>
+      </c>
+      <c r="K451">
+        <v>119421</v>
+      </c>
+      <c r="M451">
+        <v>119321</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A452" t="str">
+        <f t="shared" si="16"/>
+        <v>119321_116821</v>
+      </c>
+      <c r="B452" t="str">
+        <f t="shared" si="15"/>
+        <v>36-27</v>
+      </c>
+      <c r="C452" t="s">
+        <v>230</v>
+      </c>
+      <c r="G452">
+        <v>36</v>
+      </c>
+      <c r="H452">
+        <v>27</v>
+      </c>
+      <c r="K452">
+        <v>119321</v>
+      </c>
+      <c r="M452">
+        <v>116821</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A453" t="str">
+        <f t="shared" si="16"/>
+        <v>116821_114601</v>
+      </c>
+      <c r="B453" t="str">
+        <f t="shared" si="15"/>
+        <v>38-30</v>
+      </c>
+      <c r="C453" t="s">
+        <v>230</v>
+      </c>
+      <c r="G453">
+        <v>38</v>
+      </c>
+      <c r="H453">
+        <v>30</v>
+      </c>
+      <c r="K453">
+        <v>116821</v>
+      </c>
+      <c r="M453">
+        <v>114601</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A454" t="str">
+        <f t="shared" si="16"/>
+        <v>114601_126022</v>
+      </c>
+      <c r="B454" t="str">
+        <f t="shared" si="15"/>
+        <v>41-30</v>
+      </c>
+      <c r="C454" t="s">
+        <v>230</v>
+      </c>
+      <c r="G454">
+        <v>41</v>
+      </c>
+      <c r="H454">
+        <v>30</v>
+      </c>
+      <c r="K454">
+        <v>114601</v>
+      </c>
+      <c r="M454">
+        <v>126022</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A455" t="str">
+        <f t="shared" si="16"/>
+        <v>126022_123322</v>
+      </c>
+      <c r="B455" t="str">
+        <f t="shared" si="15"/>
+        <v>43-30</v>
+      </c>
+      <c r="C455" t="s">
+        <v>230</v>
+      </c>
+      <c r="G455">
+        <v>43</v>
+      </c>
+      <c r="H455">
+        <v>30</v>
+      </c>
+      <c r="K455">
+        <v>126022</v>
+      </c>
+      <c r="M455">
+        <v>123322</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A456" t="str">
+        <f t="shared" si="16"/>
+        <v>123322_122522</v>
+      </c>
+      <c r="B456" t="str">
+        <f t="shared" si="15"/>
+        <v>46-30</v>
+      </c>
+      <c r="C456" t="s">
+        <v>230</v>
+      </c>
+      <c r="G456">
+        <v>46</v>
+      </c>
+      <c r="H456">
+        <v>30</v>
+      </c>
+      <c r="K456">
+        <v>123322</v>
+      </c>
+      <c r="M456">
+        <v>122522</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A457" t="str">
+        <f t="shared" si="16"/>
+        <v>122522_113522</v>
+      </c>
+      <c r="B457" t="str">
+        <f t="shared" si="15"/>
+        <v>48-28</v>
+      </c>
+      <c r="C457" t="s">
+        <v>230</v>
+      </c>
+      <c r="G457">
+        <v>48</v>
+      </c>
+      <c r="H457">
+        <v>28</v>
+      </c>
+      <c r="K457">
+        <v>122522</v>
+      </c>
+      <c r="M457">
+        <v>113522</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A458" t="str">
+        <f t="shared" si="16"/>
+        <v>113522_113602</v>
+      </c>
+      <c r="B458" t="str">
+        <f t="shared" si="15"/>
+        <v>51-25</v>
+      </c>
+      <c r="C458" t="s">
+        <v>230</v>
+      </c>
+      <c r="G458">
+        <v>51</v>
+      </c>
+      <c r="H458">
+        <v>25</v>
+      </c>
+      <c r="K458">
+        <v>113522</v>
+      </c>
+      <c r="M458">
+        <v>113602</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A459" t="str">
+        <f t="shared" si="16"/>
+        <v>113602_113302</v>
+      </c>
+      <c r="B459" t="str">
+        <f t="shared" si="15"/>
+        <v>55-25</v>
+      </c>
+      <c r="C459" t="s">
+        <v>230</v>
+      </c>
+      <c r="D459" t="s">
+        <v>245</v>
+      </c>
+      <c r="G459">
+        <v>55</v>
+      </c>
+      <c r="H459">
+        <v>25</v>
+      </c>
+      <c r="K459">
+        <v>113602</v>
+      </c>
+      <c r="M459">
+        <v>113302</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A460" t="str">
+        <f t="shared" si="16"/>
+        <v>113302_51602</v>
+      </c>
+      <c r="B460" t="str">
+        <f t="shared" si="15"/>
+        <v>57-25</v>
+      </c>
+      <c r="C460" t="s">
+        <v>230</v>
+      </c>
+      <c r="G460">
+        <v>57</v>
+      </c>
+      <c r="H460">
+        <v>25</v>
+      </c>
+      <c r="K460">
+        <v>113302</v>
+      </c>
+      <c r="M460">
+        <v>51602</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A461" t="str">
+        <f t="shared" si="16"/>
+        <v>51602_51502</v>
+      </c>
+      <c r="B461" t="str">
+        <f t="shared" si="15"/>
+        <v>59-25</v>
+      </c>
+      <c r="C461" t="s">
+        <v>230</v>
+      </c>
+      <c r="G461">
+        <v>59</v>
+      </c>
+      <c r="H461">
+        <v>25</v>
+      </c>
+      <c r="K461">
+        <v>51602</v>
+      </c>
+      <c r="M461">
+        <v>51502</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A462" t="str">
+        <f t="shared" si="16"/>
+        <v>51502_574202</v>
+      </c>
+      <c r="B462" t="str">
+        <f t="shared" si="15"/>
+        <v>61-25</v>
+      </c>
+      <c r="C462" t="s">
+        <v>230</v>
+      </c>
+      <c r="D462" t="s">
+        <v>237</v>
+      </c>
+      <c r="G462">
+        <v>61</v>
+      </c>
+      <c r="H462">
+        <v>25</v>
+      </c>
+      <c r="K462">
+        <v>51502</v>
+      </c>
+      <c r="M462">
+        <v>574202</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A463" t="str">
+        <f t="shared" ref="A463:A520" si="17">_xlfn.CONCAT(K463,"_",L463,"_",M463)</f>
+        <v>574201_51501_51601</v>
+      </c>
+      <c r="B463" t="str">
+        <f t="shared" si="15"/>
+        <v>60-24</v>
+      </c>
+      <c r="C463" t="s">
+        <v>232</v>
+      </c>
+      <c r="D463" t="s">
+        <v>240</v>
+      </c>
+      <c r="G463">
+        <v>60</v>
+      </c>
+      <c r="H463">
+        <v>24</v>
+      </c>
+      <c r="K463">
+        <v>574201</v>
+      </c>
+      <c r="L463">
+        <v>51501</v>
+      </c>
+      <c r="M463">
+        <v>51601</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A464" t="str">
+        <f t="shared" si="17"/>
+        <v>51501_51601_113301</v>
+      </c>
+      <c r="B464" t="str">
+        <f t="shared" si="15"/>
+        <v>58-24</v>
+      </c>
+      <c r="C464" t="s">
+        <v>232</v>
+      </c>
+      <c r="G464">
+        <v>58</v>
+      </c>
+      <c r="H464">
+        <v>24</v>
+      </c>
+      <c r="K464">
+        <v>51501</v>
+      </c>
+      <c r="L464">
+        <v>51601</v>
+      </c>
+      <c r="M464">
+        <v>113301</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A465" t="str">
+        <f t="shared" si="17"/>
+        <v>51601_113301_113601</v>
+      </c>
+      <c r="B465" t="str">
+        <f t="shared" si="15"/>
+        <v>56-24</v>
+      </c>
+      <c r="C465" t="s">
+        <v>232</v>
+      </c>
+      <c r="D465" t="s">
+        <v>246</v>
+      </c>
+      <c r="G465">
+        <v>56</v>
+      </c>
+      <c r="H465">
+        <v>24</v>
+      </c>
+      <c r="K465">
+        <v>51601</v>
+      </c>
+      <c r="L465">
+        <v>113301</v>
+      </c>
+      <c r="M465">
+        <v>113601</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A466" t="str">
+        <f t="shared" si="17"/>
+        <v>113301_113601_113521</v>
+      </c>
+      <c r="B466" t="str">
+        <f t="shared" si="15"/>
+        <v>52-24</v>
+      </c>
+      <c r="C466" t="s">
+        <v>232</v>
+      </c>
+      <c r="D466" t="s">
+        <v>247</v>
+      </c>
+      <c r="G466">
+        <v>52</v>
+      </c>
+      <c r="H466">
+        <v>24</v>
+      </c>
+      <c r="K466">
+        <v>113301</v>
+      </c>
+      <c r="L466">
+        <v>113601</v>
+      </c>
+      <c r="M466">
+        <v>113521</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A467" t="str">
+        <f t="shared" si="17"/>
+        <v>113601_113521_122521</v>
+      </c>
+      <c r="B467" t="str">
+        <f t="shared" ref="B467:B522" si="18">_xlfn.CONCAT(G467,"-",H467)</f>
+        <v>48-26</v>
+      </c>
+      <c r="C467" t="s">
+        <v>232</v>
+      </c>
+      <c r="G467">
+        <v>48</v>
+      </c>
+      <c r="H467">
+        <v>26</v>
+      </c>
+      <c r="K467">
+        <v>113601</v>
+      </c>
+      <c r="L467">
+        <v>113521</v>
+      </c>
+      <c r="M467">
+        <v>122521</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A468" t="str">
+        <f t="shared" si="17"/>
+        <v>113521_122521_123321</v>
+      </c>
+      <c r="B468" t="str">
+        <f t="shared" si="18"/>
+        <v>46-28</v>
+      </c>
+      <c r="C468" t="s">
+        <v>232</v>
+      </c>
+      <c r="G468">
+        <v>46</v>
+      </c>
+      <c r="H468">
+        <v>28</v>
+      </c>
+      <c r="K468">
+        <v>113521</v>
+      </c>
+      <c r="L468">
+        <v>122521</v>
+      </c>
+      <c r="M468">
+        <v>123321</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A469" t="str">
+        <f t="shared" si="17"/>
+        <v>122521_123321_126021</v>
+      </c>
+      <c r="B469" t="str">
+        <f t="shared" si="18"/>
+        <v>44-29</v>
+      </c>
+      <c r="C469" t="s">
+        <v>232</v>
+      </c>
+      <c r="G469">
+        <v>44</v>
+      </c>
+      <c r="H469">
+        <v>29</v>
+      </c>
+      <c r="K469">
+        <v>122521</v>
+      </c>
+      <c r="L469">
+        <v>123321</v>
+      </c>
+      <c r="M469">
+        <v>126021</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A470" t="str">
+        <f t="shared" si="17"/>
+        <v>123321_126021_114602</v>
+      </c>
+      <c r="B470" t="str">
+        <f t="shared" si="18"/>
+        <v>42-29</v>
+      </c>
+      <c r="C470" t="s">
+        <v>232</v>
+      </c>
+      <c r="G470">
+        <v>42</v>
+      </c>
+      <c r="H470">
+        <v>29</v>
+      </c>
+      <c r="K470">
+        <v>123321</v>
+      </c>
+      <c r="L470">
+        <v>126021</v>
+      </c>
+      <c r="M470">
+        <v>114602</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A471" t="str">
+        <f t="shared" si="17"/>
+        <v>126021_114602_116822</v>
+      </c>
+      <c r="B471" t="str">
+        <f t="shared" si="18"/>
+        <v>40-29</v>
+      </c>
+      <c r="C471" t="s">
+        <v>232</v>
+      </c>
+      <c r="G471">
+        <v>40</v>
+      </c>
+      <c r="H471">
+        <v>29</v>
+      </c>
+      <c r="K471">
+        <v>126021</v>
+      </c>
+      <c r="L471">
+        <v>114602</v>
+      </c>
+      <c r="M471">
+        <v>116822</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A472" t="str">
+        <f t="shared" si="17"/>
+        <v>114602_116822_119322</v>
+      </c>
+      <c r="B472" t="str">
+        <f t="shared" si="18"/>
+        <v>37-28</v>
+      </c>
+      <c r="C472" t="s">
+        <v>232</v>
+      </c>
+      <c r="G472">
+        <v>37</v>
+      </c>
+      <c r="H472">
+        <v>28</v>
+      </c>
+      <c r="K472">
+        <v>114602</v>
+      </c>
+      <c r="L472">
+        <v>116822</v>
+      </c>
+      <c r="M472">
+        <v>119322</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A473" t="str">
+        <f t="shared" si="17"/>
+        <v>116822_119322_119402</v>
+      </c>
+      <c r="B473" t="str">
+        <f t="shared" si="18"/>
+        <v>37-26</v>
+      </c>
+      <c r="C473" t="s">
+        <v>232</v>
+      </c>
+      <c r="G473">
+        <v>37</v>
+      </c>
+      <c r="H473">
+        <v>26</v>
+      </c>
+      <c r="K473">
+        <v>116822</v>
+      </c>
+      <c r="L473">
+        <v>119322</v>
+      </c>
+      <c r="M473">
+        <v>119402</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A474" t="str">
+        <f t="shared" si="17"/>
+        <v>119322_119402_116022</v>
+      </c>
+      <c r="B474" t="str">
+        <f t="shared" si="18"/>
+        <v>37-22</v>
+      </c>
+      <c r="C474" t="s">
+        <v>232</v>
+      </c>
+      <c r="G474">
+        <v>37</v>
+      </c>
+      <c r="H474">
+        <v>22</v>
+      </c>
+      <c r="K474">
+        <v>119322</v>
+      </c>
+      <c r="L474">
+        <v>119402</v>
+      </c>
+      <c r="M474">
+        <v>116022</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A475" t="str">
+        <f t="shared" si="17"/>
+        <v>119402_116022_133002</v>
+      </c>
+      <c r="B475" t="str">
+        <f t="shared" si="18"/>
+        <v>37-20</v>
+      </c>
+      <c r="C475" t="s">
+        <v>232</v>
+      </c>
+      <c r="G475">
+        <v>37</v>
+      </c>
+      <c r="H475">
+        <v>20</v>
+      </c>
+      <c r="K475">
+        <v>119402</v>
+      </c>
+      <c r="L475">
+        <v>116022</v>
+      </c>
+      <c r="M475">
+        <v>133002</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A476" t="str">
+        <f t="shared" si="17"/>
+        <v>116022_133002_133102</v>
+      </c>
+      <c r="B476" t="str">
+        <f t="shared" si="18"/>
+        <v>39-15</v>
+      </c>
+      <c r="C476" t="s">
+        <v>232</v>
+      </c>
+      <c r="G476">
+        <v>39</v>
+      </c>
+      <c r="H476">
+        <v>15</v>
+      </c>
+      <c r="K476">
+        <v>116022</v>
+      </c>
+      <c r="L476">
+        <v>133002</v>
+      </c>
+      <c r="M476">
+        <v>133102</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A477" t="str">
+        <f t="shared" si="17"/>
+        <v>133002_133102_118002</v>
+      </c>
+      <c r="B477" t="str">
+        <f t="shared" si="18"/>
+        <v>41-13</v>
+      </c>
+      <c r="C477" t="s">
+        <v>232</v>
+      </c>
+      <c r="G477">
+        <v>41</v>
+      </c>
+      <c r="H477">
+        <v>13</v>
+      </c>
+      <c r="K477">
+        <v>133002</v>
+      </c>
+      <c r="L477">
+        <v>133102</v>
+      </c>
+      <c r="M477">
+        <v>118002</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A478" t="str">
+        <f t="shared" si="17"/>
+        <v>133102_118002_169302</v>
+      </c>
+      <c r="B478" t="str">
+        <f t="shared" si="18"/>
+        <v>43-11</v>
+      </c>
+      <c r="C478" t="s">
+        <v>232</v>
+      </c>
+      <c r="G478">
+        <v>43</v>
+      </c>
+      <c r="H478">
+        <v>11</v>
+      </c>
+      <c r="K478">
+        <v>133102</v>
+      </c>
+      <c r="L478">
+        <v>118002</v>
+      </c>
+      <c r="M478">
+        <v>169302</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A479" t="str">
+        <f t="shared" si="17"/>
+        <v>118002_169302_130202</v>
+      </c>
+      <c r="B479" t="str">
+        <f t="shared" si="18"/>
+        <v>45-9</v>
+      </c>
+      <c r="C479" t="s">
+        <v>232</v>
+      </c>
+      <c r="G479">
+        <v>45</v>
+      </c>
+      <c r="H479">
+        <v>9</v>
+      </c>
+      <c r="K479">
+        <v>118002</v>
+      </c>
+      <c r="L479">
+        <v>169302</v>
+      </c>
+      <c r="M479">
+        <v>130202</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A480" t="str">
+        <f t="shared" si="17"/>
+        <v>169302_130202_130402</v>
+      </c>
+      <c r="B480" t="str">
+        <f t="shared" si="18"/>
+        <v>47-7</v>
+      </c>
+      <c r="C480" t="s">
+        <v>232</v>
+      </c>
+      <c r="G480">
+        <v>47</v>
+      </c>
+      <c r="H480">
+        <v>7</v>
+      </c>
+      <c r="K480">
+        <v>169302</v>
+      </c>
+      <c r="L480">
+        <v>130202</v>
+      </c>
+      <c r="M480">
+        <v>130402</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A481" t="str">
+        <f t="shared" si="17"/>
+        <v>130202_130402_61901</v>
+      </c>
+      <c r="B481" t="str">
+        <f t="shared" si="18"/>
+        <v>49-5</v>
+      </c>
+      <c r="C481" t="s">
+        <v>232</v>
+      </c>
+      <c r="D481" t="s">
+        <v>241</v>
+      </c>
+      <c r="G481">
+        <v>49</v>
+      </c>
+      <c r="H481">
+        <v>5</v>
+      </c>
+      <c r="K481">
+        <v>130202</v>
+      </c>
+      <c r="L481">
+        <v>130402</v>
+      </c>
+      <c r="M481">
+        <v>61901</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A482" t="str">
+        <f t="shared" si="17"/>
+        <v>61902_130401_130201</v>
+      </c>
+      <c r="B482" t="str">
+        <f t="shared" si="18"/>
+        <v>48-4</v>
+      </c>
+      <c r="C482" t="s">
+        <v>231</v>
+      </c>
+      <c r="D482" t="s">
+        <v>241</v>
+      </c>
+      <c r="G482">
+        <v>48</v>
+      </c>
+      <c r="H482">
+        <v>4</v>
+      </c>
+      <c r="K482">
+        <v>61902</v>
+      </c>
+      <c r="L482">
+        <v>130401</v>
+      </c>
+      <c r="M482">
+        <v>130201</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A483" t="str">
+        <f t="shared" si="17"/>
+        <v>130401_130201_169301</v>
+      </c>
+      <c r="B483" t="str">
+        <f t="shared" si="18"/>
+        <v>46-6</v>
+      </c>
+      <c r="C483" t="s">
+        <v>231</v>
+      </c>
+      <c r="G483">
+        <v>46</v>
+      </c>
+      <c r="H483">
+        <v>6</v>
+      </c>
+      <c r="K483">
+        <v>130401</v>
+      </c>
+      <c r="L483">
+        <v>130201</v>
+      </c>
+      <c r="M483">
+        <v>169301</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A484" t="str">
+        <f t="shared" si="17"/>
+        <v>130201_169301_118001</v>
+      </c>
+      <c r="B484" t="str">
+        <f t="shared" si="18"/>
+        <v>44-8</v>
+      </c>
+      <c r="C484" t="s">
+        <v>231</v>
+      </c>
+      <c r="G484">
+        <v>44</v>
+      </c>
+      <c r="H484">
+        <v>8</v>
+      </c>
+      <c r="K484">
+        <v>130201</v>
+      </c>
+      <c r="L484">
+        <v>169301</v>
+      </c>
+      <c r="M484">
+        <v>118001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A485" t="str">
+        <f t="shared" si="17"/>
+        <v>169301_118001_133101</v>
+      </c>
+      <c r="B485" t="str">
+        <f t="shared" si="18"/>
+        <v>42-10</v>
+      </c>
+      <c r="C485" t="s">
+        <v>231</v>
+      </c>
+      <c r="G485">
+        <v>42</v>
+      </c>
+      <c r="H485">
+        <v>10</v>
+      </c>
+      <c r="K485">
+        <v>169301</v>
+      </c>
+      <c r="L485">
+        <v>118001</v>
+      </c>
+      <c r="M485">
+        <v>133101</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A486" t="str">
+        <f t="shared" si="17"/>
+        <v>118001_133101_133001</v>
+      </c>
+      <c r="B486" t="str">
+        <f t="shared" si="18"/>
+        <v>40-12</v>
+      </c>
+      <c r="C486" t="s">
+        <v>231</v>
+      </c>
+      <c r="G486">
+        <v>40</v>
+      </c>
+      <c r="H486">
+        <v>12</v>
+      </c>
+      <c r="K486">
+        <v>118001</v>
+      </c>
+      <c r="L486">
+        <v>133101</v>
+      </c>
+      <c r="M486">
+        <v>133001</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A487" t="str">
+        <f t="shared" si="17"/>
+        <v>133101_133001_116021</v>
+      </c>
+      <c r="B487" t="str">
+        <f t="shared" si="18"/>
+        <v>38-14</v>
+      </c>
+      <c r="C487" t="s">
+        <v>231</v>
+      </c>
+      <c r="G487">
+        <v>38</v>
+      </c>
+      <c r="H487">
+        <v>14</v>
+      </c>
+      <c r="K487">
+        <v>133101</v>
+      </c>
+      <c r="L487">
+        <v>133001</v>
+      </c>
+      <c r="M487">
+        <v>116021</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A488" t="str">
+        <f t="shared" si="17"/>
+        <v>133001_116021_119421</v>
+      </c>
+      <c r="B488" t="str">
+        <f t="shared" si="18"/>
+        <v>36-20</v>
+      </c>
+      <c r="C488" t="s">
+        <v>231</v>
+      </c>
+      <c r="G488">
+        <v>36</v>
+      </c>
+      <c r="H488">
+        <v>20</v>
+      </c>
+      <c r="K488">
+        <v>133001</v>
+      </c>
+      <c r="L488">
+        <v>116021</v>
+      </c>
+      <c r="M488">
+        <v>119421</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A489" t="str">
+        <f t="shared" si="17"/>
+        <v>116021_119421_119321</v>
+      </c>
+      <c r="B489" t="str">
+        <f t="shared" si="18"/>
+        <v>36-22</v>
+      </c>
+      <c r="C489" t="s">
+        <v>231</v>
+      </c>
+      <c r="G489">
+        <v>36</v>
+      </c>
+      <c r="H489">
+        <v>22</v>
+      </c>
+      <c r="K489">
+        <v>116021</v>
+      </c>
+      <c r="L489">
+        <v>119421</v>
+      </c>
+      <c r="M489">
+        <v>119321</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A490" t="str">
+        <f t="shared" si="17"/>
+        <v>119421_119321_116821</v>
+      </c>
+      <c r="B490" t="str">
+        <f t="shared" si="18"/>
+        <v>36-26</v>
+      </c>
+      <c r="C490" t="s">
+        <v>231</v>
+      </c>
+      <c r="G490">
+        <v>36</v>
+      </c>
+      <c r="H490">
+        <v>26</v>
+      </c>
+      <c r="K490">
+        <v>119421</v>
+      </c>
+      <c r="L490">
+        <v>119321</v>
+      </c>
+      <c r="M490">
+        <v>116821</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A491" t="str">
+        <f t="shared" si="17"/>
+        <v>119321_116821_114601</v>
+      </c>
+      <c r="B491" t="str">
+        <f t="shared" si="18"/>
+        <v>36-28</v>
+      </c>
+      <c r="C491" t="s">
+        <v>231</v>
+      </c>
+      <c r="G491">
+        <v>36</v>
+      </c>
+      <c r="H491">
+        <v>28</v>
+      </c>
+      <c r="K491">
+        <v>119321</v>
+      </c>
+      <c r="L491">
+        <v>116821</v>
+      </c>
+      <c r="M491">
+        <v>114601</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A492" t="str">
+        <f t="shared" si="17"/>
+        <v>116821_114601_126022</v>
+      </c>
+      <c r="B492" t="str">
+        <f t="shared" si="18"/>
+        <v>40-30</v>
+      </c>
+      <c r="C492" t="s">
+        <v>231</v>
+      </c>
+      <c r="G492">
+        <v>40</v>
+      </c>
+      <c r="H492">
+        <v>30</v>
+      </c>
+      <c r="K492">
+        <v>116821</v>
+      </c>
+      <c r="L492">
+        <v>114601</v>
+      </c>
+      <c r="M492">
+        <v>126022</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A493" t="str">
+        <f t="shared" si="17"/>
+        <v>114601_126022_123322</v>
+      </c>
+      <c r="B493" t="str">
+        <f t="shared" si="18"/>
+        <v>42-30</v>
+      </c>
+      <c r="C493" t="s">
+        <v>231</v>
+      </c>
+      <c r="G493">
+        <v>42</v>
+      </c>
+      <c r="H493">
+        <v>30</v>
+      </c>
+      <c r="K493">
+        <v>114601</v>
+      </c>
+      <c r="L493">
+        <v>126022</v>
+      </c>
+      <c r="M493">
+        <v>123322</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A494" t="str">
+        <f t="shared" si="17"/>
+        <v>126022_123322_122522</v>
+      </c>
+      <c r="B494" t="str">
+        <f t="shared" si="18"/>
+        <v>44-30</v>
+      </c>
+      <c r="C494" t="s">
+        <v>231</v>
+      </c>
+      <c r="G494">
+        <v>44</v>
+      </c>
+      <c r="H494">
+        <v>30</v>
+      </c>
+      <c r="K494">
+        <v>126022</v>
+      </c>
+      <c r="L494">
+        <v>123322</v>
+      </c>
+      <c r="M494">
+        <v>122522</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A495" t="str">
+        <f t="shared" si="17"/>
+        <v>123322_122522_113522</v>
+      </c>
+      <c r="B495" t="str">
+        <f t="shared" si="18"/>
+        <v>47-29</v>
+      </c>
+      <c r="C495" t="s">
+        <v>231</v>
+      </c>
+      <c r="G495">
+        <v>47</v>
+      </c>
+      <c r="H495">
+        <v>29</v>
+      </c>
+      <c r="K495">
+        <v>123322</v>
+      </c>
+      <c r="L495">
+        <v>122522</v>
+      </c>
+      <c r="M495">
+        <v>113522</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A496" t="str">
+        <f t="shared" si="17"/>
+        <v>122522_113522_113602</v>
+      </c>
+      <c r="B496" t="str">
+        <f t="shared" si="18"/>
+        <v>49-27</v>
+      </c>
+      <c r="C496" t="s">
+        <v>231</v>
+      </c>
+      <c r="G496">
+        <v>49</v>
+      </c>
+      <c r="H496">
+        <v>27</v>
+      </c>
+      <c r="K496">
+        <v>122522</v>
+      </c>
+      <c r="L496">
+        <v>113522</v>
+      </c>
+      <c r="M496">
+        <v>113602</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A497" t="str">
+        <f t="shared" si="17"/>
+        <v>113522_113602_113302</v>
+      </c>
+      <c r="B497" t="str">
+        <f t="shared" si="18"/>
+        <v>52-25</v>
+      </c>
+      <c r="C497" t="s">
+        <v>231</v>
+      </c>
+      <c r="D497" t="s">
+        <v>248</v>
+      </c>
+      <c r="G497">
+        <v>52</v>
+      </c>
+      <c r="H497">
+        <v>25</v>
+      </c>
+      <c r="K497">
+        <v>113522</v>
+      </c>
+      <c r="L497">
+        <v>113602</v>
+      </c>
+      <c r="M497">
+        <v>113302</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A498" t="str">
+        <f t="shared" si="17"/>
+        <v>113602_113302_51602</v>
+      </c>
+      <c r="B498" t="str">
+        <f t="shared" si="18"/>
+        <v>56-25</v>
+      </c>
+      <c r="C498" t="s">
+        <v>231</v>
+      </c>
+      <c r="D498" t="s">
+        <v>249</v>
+      </c>
+      <c r="G498">
+        <v>56</v>
+      </c>
+      <c r="H498">
+        <v>25</v>
+      </c>
+      <c r="K498">
+        <v>113602</v>
+      </c>
+      <c r="L498">
+        <v>113302</v>
+      </c>
+      <c r="M498">
+        <v>51602</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A499" t="str">
+        <f t="shared" si="17"/>
+        <v>113302_51602_51502</v>
+      </c>
+      <c r="B499" t="str">
+        <f t="shared" si="18"/>
+        <v>58-25</v>
+      </c>
+      <c r="C499" t="s">
+        <v>231</v>
+      </c>
+      <c r="G499">
+        <v>58</v>
+      </c>
+      <c r="H499">
+        <v>25</v>
+      </c>
+      <c r="K499">
+        <v>113302</v>
+      </c>
+      <c r="L499">
+        <v>51602</v>
+      </c>
+      <c r="M499">
+        <v>51502</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A500" t="str">
+        <f t="shared" si="17"/>
+        <v>51602_51502_574202</v>
+      </c>
+      <c r="B500" t="str">
+        <f t="shared" si="18"/>
+        <v>60-25</v>
+      </c>
+      <c r="C500" t="s">
+        <v>231</v>
+      </c>
+      <c r="D500" t="s">
+        <v>240</v>
+      </c>
+      <c r="G500">
+        <v>60</v>
+      </c>
+      <c r="H500">
+        <v>25</v>
+      </c>
+      <c r="K500">
+        <v>51602</v>
+      </c>
+      <c r="L500">
+        <v>51502</v>
+      </c>
+      <c r="M500">
+        <v>574202</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A501" t="str">
+        <f t="shared" si="17"/>
+        <v>574201_51501_DEPOT</v>
+      </c>
+      <c r="B501" t="str">
+        <f t="shared" si="18"/>
+        <v>60-24</v>
+      </c>
+      <c r="C501" t="s">
+        <v>233</v>
+      </c>
+      <c r="D501" t="s">
+        <v>240</v>
+      </c>
+      <c r="G501">
+        <v>60</v>
+      </c>
+      <c r="H501">
+        <v>24</v>
+      </c>
+      <c r="K501">
+        <v>574201</v>
+      </c>
+      <c r="L501">
+        <v>51501</v>
+      </c>
+      <c r="M501" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A502" t="str">
+        <f t="shared" si="17"/>
+        <v>51501_51601_DEPOT</v>
+      </c>
+      <c r="B502" t="str">
+        <f t="shared" si="18"/>
+        <v>58-24</v>
+      </c>
+      <c r="C502" t="s">
+        <v>233</v>
+      </c>
+      <c r="G502">
+        <v>58</v>
+      </c>
+      <c r="H502">
+        <v>24</v>
+      </c>
+      <c r="K502">
+        <v>51501</v>
+      </c>
+      <c r="L502">
+        <v>51601</v>
+      </c>
+      <c r="M502" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A503" t="str">
+        <f t="shared" si="17"/>
+        <v>51601_113301_DEPOT</v>
+      </c>
+      <c r="B503" t="str">
+        <f t="shared" si="18"/>
+        <v>56-24</v>
+      </c>
+      <c r="C503" t="s">
+        <v>233</v>
+      </c>
+      <c r="G503">
+        <v>56</v>
+      </c>
+      <c r="H503">
+        <v>24</v>
+      </c>
+      <c r="K503">
+        <v>51601</v>
+      </c>
+      <c r="L503">
+        <v>113301</v>
+      </c>
+      <c r="M503" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A504" t="str">
+        <f t="shared" si="17"/>
+        <v>113301_113601_DEPOT</v>
+      </c>
+      <c r="B504" t="str">
+        <f t="shared" si="18"/>
+        <v>52-24</v>
+      </c>
+      <c r="C504" t="s">
+        <v>233</v>
+      </c>
+      <c r="G504">
+        <v>52</v>
+      </c>
+      <c r="H504">
+        <v>24</v>
+      </c>
+      <c r="K504">
+        <v>113301</v>
+      </c>
+      <c r="L504">
+        <v>113601</v>
+      </c>
+      <c r="M504" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A505" t="str">
+        <f t="shared" si="17"/>
+        <v>113601_113521_DEPOT</v>
+      </c>
+      <c r="B505" t="str">
+        <f t="shared" si="18"/>
+        <v>48-26</v>
+      </c>
+      <c r="C505" t="s">
+        <v>233</v>
+      </c>
+      <c r="G505">
+        <v>48</v>
+      </c>
+      <c r="H505">
+        <v>26</v>
+      </c>
+      <c r="K505">
+        <v>113601</v>
+      </c>
+      <c r="L505">
+        <v>113521</v>
+      </c>
+      <c r="M505" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A506" t="str">
+        <f t="shared" si="17"/>
+        <v>113521_122521_DEPOT</v>
+      </c>
+      <c r="B506" t="str">
+        <f t="shared" si="18"/>
+        <v>46-28</v>
+      </c>
+      <c r="C506" t="s">
+        <v>233</v>
+      </c>
+      <c r="G506">
+        <v>46</v>
+      </c>
+      <c r="H506">
+        <v>28</v>
+      </c>
+      <c r="K506">
+        <v>113521</v>
+      </c>
+      <c r="L506">
+        <v>122521</v>
+      </c>
+      <c r="M506" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A507" t="str">
+        <f t="shared" si="17"/>
+        <v>122521_123321_DEPOT</v>
+      </c>
+      <c r="B507" t="str">
+        <f t="shared" si="18"/>
+        <v>44-29</v>
+      </c>
+      <c r="C507" t="s">
+        <v>233</v>
+      </c>
+      <c r="G507">
+        <v>44</v>
+      </c>
+      <c r="H507">
+        <v>29</v>
+      </c>
+      <c r="K507">
+        <v>122521</v>
+      </c>
+      <c r="L507">
+        <v>123321</v>
+      </c>
+      <c r="M507" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A508" t="str">
+        <f t="shared" si="17"/>
+        <v>123321_126021_DEPOT</v>
+      </c>
+      <c r="B508" t="str">
+        <f t="shared" si="18"/>
+        <v>42-29</v>
+      </c>
+      <c r="C508" t="s">
+        <v>233</v>
+      </c>
+      <c r="G508">
+        <v>42</v>
+      </c>
+      <c r="H508">
+        <v>29</v>
+      </c>
+      <c r="K508">
+        <v>123321</v>
+      </c>
+      <c r="L508">
+        <v>126021</v>
+      </c>
+      <c r="M508" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A509" t="str">
+        <f t="shared" si="17"/>
+        <v>126021_114602_DEPOT</v>
+      </c>
+      <c r="B509" t="str">
+        <f t="shared" si="18"/>
+        <v>40-29</v>
+      </c>
+      <c r="C509" t="s">
+        <v>233</v>
+      </c>
+      <c r="G509">
+        <v>40</v>
+      </c>
+      <c r="H509">
+        <v>29</v>
+      </c>
+      <c r="K509">
+        <v>126021</v>
+      </c>
+      <c r="L509">
+        <v>114602</v>
+      </c>
+      <c r="M509" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A510" t="str">
+        <f t="shared" si="17"/>
+        <v>114602_116822_DEPOT</v>
+      </c>
+      <c r="B510" t="str">
+        <f t="shared" si="18"/>
+        <v>37-28</v>
+      </c>
+      <c r="C510" t="s">
+        <v>233</v>
+      </c>
+      <c r="G510">
+        <v>37</v>
+      </c>
+      <c r="H510">
+        <v>28</v>
+      </c>
+      <c r="K510">
+        <v>114602</v>
+      </c>
+      <c r="L510">
+        <v>116822</v>
+      </c>
+      <c r="M510" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A511" t="str">
+        <f t="shared" si="17"/>
+        <v>116822_119322_DEPOT</v>
+      </c>
+      <c r="B511" t="str">
+        <f t="shared" si="18"/>
+        <v>37-26</v>
+      </c>
+      <c r="C511" t="s">
+        <v>233</v>
+      </c>
+      <c r="G511">
+        <v>37</v>
+      </c>
+      <c r="H511">
+        <v>26</v>
+      </c>
+      <c r="K511">
+        <v>116822</v>
+      </c>
+      <c r="L511">
+        <v>119322</v>
+      </c>
+      <c r="M511" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A512" t="str">
+        <f t="shared" si="17"/>
+        <v>119322_119402_DEPOT</v>
+      </c>
+      <c r="B512" t="str">
+        <f t="shared" si="18"/>
+        <v>37-22</v>
+      </c>
+      <c r="C512" t="s">
+        <v>233</v>
+      </c>
+      <c r="G512">
+        <v>37</v>
+      </c>
+      <c r="H512">
+        <v>22</v>
+      </c>
+      <c r="K512">
+        <v>119322</v>
+      </c>
+      <c r="L512">
+        <v>119402</v>
+      </c>
+      <c r="M512" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A513" t="str">
+        <f t="shared" si="17"/>
+        <v>119402_116022_DEPOT</v>
+      </c>
+      <c r="B513" t="str">
+        <f t="shared" si="18"/>
+        <v>37-20</v>
+      </c>
+      <c r="C513" t="s">
+        <v>233</v>
+      </c>
+      <c r="G513">
+        <v>37</v>
+      </c>
+      <c r="H513">
+        <v>20</v>
+      </c>
+      <c r="K513">
+        <v>119402</v>
+      </c>
+      <c r="L513">
+        <v>116022</v>
+      </c>
+      <c r="M513" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A514" t="str">
+        <f t="shared" si="17"/>
+        <v>116022_133002_DEPOT</v>
+      </c>
+      <c r="B514" t="str">
+        <f t="shared" si="18"/>
+        <v>39-15</v>
+      </c>
+      <c r="C514" t="s">
+        <v>233</v>
+      </c>
+      <c r="G514">
+        <v>39</v>
+      </c>
+      <c r="H514">
+        <v>15</v>
+      </c>
+      <c r="K514">
+        <v>116022</v>
+      </c>
+      <c r="L514">
+        <v>133002</v>
+      </c>
+      <c r="M514" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A515" t="str">
+        <f t="shared" si="17"/>
+        <v>133002_133102_DEPOT</v>
+      </c>
+      <c r="B515" t="str">
+        <f t="shared" si="18"/>
+        <v>41-13</v>
+      </c>
+      <c r="C515" t="s">
+        <v>233</v>
+      </c>
+      <c r="G515">
+        <v>41</v>
+      </c>
+      <c r="H515">
+        <v>13</v>
+      </c>
+      <c r="K515">
+        <v>133002</v>
+      </c>
+      <c r="L515">
+        <v>133102</v>
+      </c>
+      <c r="M515" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A516" t="str">
+        <f t="shared" si="17"/>
+        <v>133102_118002_DEPOT</v>
+      </c>
+      <c r="B516" t="str">
+        <f t="shared" si="18"/>
+        <v>43-11</v>
+      </c>
+      <c r="C516" t="s">
+        <v>233</v>
+      </c>
+      <c r="G516">
+        <v>43</v>
+      </c>
+      <c r="H516">
+        <v>11</v>
+      </c>
+      <c r="K516">
+        <v>133102</v>
+      </c>
+      <c r="L516">
+        <v>118002</v>
+      </c>
+      <c r="M516" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A517" t="str">
+        <f t="shared" si="17"/>
+        <v>118002_169302_DEPOT</v>
+      </c>
+      <c r="B517" t="str">
+        <f t="shared" si="18"/>
+        <v>45-9</v>
+      </c>
+      <c r="C517" t="s">
+        <v>233</v>
+      </c>
+      <c r="G517">
+        <v>45</v>
+      </c>
+      <c r="H517">
+        <v>9</v>
+      </c>
+      <c r="K517">
+        <v>118002</v>
+      </c>
+      <c r="L517">
+        <v>169302</v>
+      </c>
+      <c r="M517" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A518" t="str">
+        <f t="shared" si="17"/>
+        <v>169302_130202_DEPOT</v>
+      </c>
+      <c r="B518" t="str">
+        <f t="shared" si="18"/>
+        <v>47-7</v>
+      </c>
+      <c r="C518" t="s">
+        <v>233</v>
+      </c>
+      <c r="G518">
+        <v>47</v>
+      </c>
+      <c r="H518">
+        <v>7</v>
+      </c>
+      <c r="K518">
+        <v>169302</v>
+      </c>
+      <c r="L518">
+        <v>130202</v>
+      </c>
+      <c r="M518" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A519" t="str">
+        <f t="shared" si="17"/>
+        <v>130202_130402_DEPOT</v>
+      </c>
+      <c r="B519" t="str">
+        <f t="shared" si="18"/>
+        <v>49-5</v>
+      </c>
+      <c r="C519" t="s">
+        <v>233</v>
+      </c>
+      <c r="G519">
+        <v>49</v>
+      </c>
+      <c r="H519">
+        <v>5</v>
+      </c>
+      <c r="K519">
+        <v>130202</v>
+      </c>
+      <c r="L519">
+        <v>130402</v>
+      </c>
+      <c r="M519" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A520" t="str">
+        <f t="shared" si="17"/>
+        <v>130402_61901_DEPOT</v>
+      </c>
+      <c r="B520" t="str">
+        <f t="shared" si="18"/>
+        <v>50-2</v>
+      </c>
+      <c r="C520" t="s">
+        <v>233</v>
+      </c>
+      <c r="D520" t="s">
+        <v>242</v>
+      </c>
+      <c r="G520">
+        <v>50</v>
+      </c>
+      <c r="H520">
+        <v>2</v>
+      </c>
+      <c r="K520">
+        <v>130402</v>
+      </c>
+      <c r="L520">
+        <v>61901</v>
+      </c>
+      <c r="M520" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A521" t="str">
+        <f t="shared" ref="A521:A578" si="19">_xlfn.CONCAT(K521,"_",L521,"_",M521)</f>
+        <v>61902_130401_DEPOT</v>
+      </c>
+      <c r="B521" t="str">
+        <f t="shared" si="18"/>
+        <v>48-4</v>
+      </c>
+      <c r="C521" t="s">
+        <v>234</v>
+      </c>
+      <c r="D521" t="s">
+        <v>241</v>
+      </c>
+      <c r="G521">
+        <v>48</v>
+      </c>
+      <c r="H521">
+        <v>4</v>
+      </c>
+      <c r="K521">
+        <v>61902</v>
+      </c>
+      <c r="L521">
+        <v>130401</v>
+      </c>
+      <c r="M521" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A522" t="str">
+        <f t="shared" si="19"/>
+        <v>130401_130201_DEPOT</v>
+      </c>
+      <c r="B522" t="str">
+        <f t="shared" si="18"/>
+        <v>46-6</v>
+      </c>
+      <c r="C522" t="s">
+        <v>234</v>
+      </c>
+      <c r="G522">
+        <v>46</v>
+      </c>
+      <c r="H522">
+        <v>6</v>
+      </c>
+      <c r="K522">
+        <v>130401</v>
+      </c>
+      <c r="L522">
+        <v>130201</v>
+      </c>
+      <c r="M522" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A523" t="str">
+        <f t="shared" si="19"/>
+        <v>130201_169301_DEPOT</v>
+      </c>
+      <c r="B523" t="str">
+        <f t="shared" ref="B523:B580" si="20">_xlfn.CONCAT(G523,"-",H523)</f>
+        <v>44-8</v>
+      </c>
+      <c r="C523" t="s">
+        <v>234</v>
+      </c>
+      <c r="G523">
+        <v>44</v>
+      </c>
+      <c r="H523">
+        <v>8</v>
+      </c>
+      <c r="K523">
+        <v>130201</v>
+      </c>
+      <c r="L523">
+        <v>169301</v>
+      </c>
+      <c r="M523" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A524" t="str">
+        <f t="shared" si="19"/>
+        <v>169301_118001_DEPOT</v>
+      </c>
+      <c r="B524" t="str">
+        <f t="shared" si="20"/>
+        <v>42-10</v>
+      </c>
+      <c r="C524" t="s">
+        <v>234</v>
+      </c>
+      <c r="G524">
+        <v>42</v>
+      </c>
+      <c r="H524">
+        <v>10</v>
+      </c>
+      <c r="K524">
+        <v>169301</v>
+      </c>
+      <c r="L524">
+        <v>118001</v>
+      </c>
+      <c r="M524" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A525" t="str">
+        <f t="shared" si="19"/>
+        <v>118001_133101_DEPOT</v>
+      </c>
+      <c r="B525" t="str">
+        <f t="shared" si="20"/>
+        <v>40-12</v>
+      </c>
+      <c r="C525" t="s">
+        <v>234</v>
+      </c>
+      <c r="G525">
+        <v>40</v>
+      </c>
+      <c r="H525">
+        <v>12</v>
+      </c>
+      <c r="K525">
+        <v>118001</v>
+      </c>
+      <c r="L525">
+        <v>133101</v>
+      </c>
+      <c r="M525" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A526" t="str">
+        <f t="shared" si="19"/>
+        <v>133101_133001_DEPOT</v>
+      </c>
+      <c r="B526" t="str">
+        <f t="shared" si="20"/>
+        <v>38-14</v>
+      </c>
+      <c r="C526" t="s">
+        <v>234</v>
+      </c>
+      <c r="G526">
+        <v>38</v>
+      </c>
+      <c r="H526">
+        <v>14</v>
+      </c>
+      <c r="K526">
+        <v>133101</v>
+      </c>
+      <c r="L526">
+        <v>133001</v>
+      </c>
+      <c r="M526" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A527" t="str">
+        <f t="shared" si="19"/>
+        <v>133001_116021_DEPOT</v>
+      </c>
+      <c r="B527" t="str">
+        <f t="shared" si="20"/>
+        <v>36-20</v>
+      </c>
+      <c r="C527" t="s">
+        <v>234</v>
+      </c>
+      <c r="G527">
+        <v>36</v>
+      </c>
+      <c r="H527">
+        <v>20</v>
+      </c>
+      <c r="K527">
+        <v>133001</v>
+      </c>
+      <c r="L527">
+        <v>116021</v>
+      </c>
+      <c r="M527" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A528" t="str">
+        <f t="shared" si="19"/>
+        <v>116021_119421_DEPOT</v>
+      </c>
+      <c r="B528" t="str">
+        <f t="shared" si="20"/>
+        <v>36-22</v>
+      </c>
+      <c r="C528" t="s">
+        <v>234</v>
+      </c>
+      <c r="G528">
+        <v>36</v>
+      </c>
+      <c r="H528">
+        <v>22</v>
+      </c>
+      <c r="K528">
+        <v>116021</v>
+      </c>
+      <c r="L528">
+        <v>119421</v>
+      </c>
+      <c r="M528" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A529" t="str">
+        <f t="shared" si="19"/>
+        <v>119421_119321_DEPOT</v>
+      </c>
+      <c r="B529" t="str">
+        <f t="shared" si="20"/>
+        <v>36-26</v>
+      </c>
+      <c r="C529" t="s">
+        <v>234</v>
+      </c>
+      <c r="G529">
+        <v>36</v>
+      </c>
+      <c r="H529">
+        <v>26</v>
+      </c>
+      <c r="K529">
+        <v>119421</v>
+      </c>
+      <c r="L529">
+        <v>119321</v>
+      </c>
+      <c r="M529" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A530" t="str">
+        <f t="shared" si="19"/>
+        <v>119321_116821_DEPOT</v>
+      </c>
+      <c r="B530" t="str">
+        <f t="shared" si="20"/>
+        <v>36-28</v>
+      </c>
+      <c r="C530" t="s">
+        <v>234</v>
+      </c>
+      <c r="G530">
+        <v>36</v>
+      </c>
+      <c r="H530">
+        <v>28</v>
+      </c>
+      <c r="K530">
+        <v>119321</v>
+      </c>
+      <c r="L530">
+        <v>116821</v>
+      </c>
+      <c r="M530" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A531" t="str">
+        <f t="shared" si="19"/>
+        <v>116821_114601_DEPOT</v>
+      </c>
+      <c r="B531" t="str">
+        <f t="shared" si="20"/>
+        <v>40-30</v>
+      </c>
+      <c r="C531" t="s">
+        <v>234</v>
+      </c>
+      <c r="G531">
+        <v>40</v>
+      </c>
+      <c r="H531">
+        <v>30</v>
+      </c>
+      <c r="K531">
+        <v>116821</v>
+      </c>
+      <c r="L531">
+        <v>114601</v>
+      </c>
+      <c r="M531" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A532" t="str">
+        <f t="shared" si="19"/>
+        <v>114601_126022_DEPOT</v>
+      </c>
+      <c r="B532" t="str">
+        <f t="shared" si="20"/>
+        <v>42-30</v>
+      </c>
+      <c r="C532" t="s">
+        <v>234</v>
+      </c>
+      <c r="G532">
+        <v>42</v>
+      </c>
+      <c r="H532">
+        <v>30</v>
+      </c>
+      <c r="K532">
+        <v>114601</v>
+      </c>
+      <c r="L532">
+        <v>126022</v>
+      </c>
+      <c r="M532" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A533" t="str">
+        <f t="shared" si="19"/>
+        <v>126022_123322_DEPOT</v>
+      </c>
+      <c r="B533" t="str">
+        <f t="shared" si="20"/>
+        <v>44-30</v>
+      </c>
+      <c r="C533" t="s">
+        <v>234</v>
+      </c>
+      <c r="G533">
+        <v>44</v>
+      </c>
+      <c r="H533">
+        <v>30</v>
+      </c>
+      <c r="K533">
+        <v>126022</v>
+      </c>
+      <c r="L533">
+        <v>123322</v>
+      </c>
+      <c r="M533" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A534" t="str">
+        <f t="shared" si="19"/>
+        <v>123322_122522_DEPOT</v>
+      </c>
+      <c r="B534" t="str">
+        <f t="shared" si="20"/>
+        <v>47-29</v>
+      </c>
+      <c r="C534" t="s">
+        <v>234</v>
+      </c>
+      <c r="G534">
+        <v>47</v>
+      </c>
+      <c r="H534">
+        <v>29</v>
+      </c>
+      <c r="K534">
+        <v>123322</v>
+      </c>
+      <c r="L534">
+        <v>122522</v>
+      </c>
+      <c r="M534" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A535" t="str">
+        <f t="shared" si="19"/>
+        <v>122522_113522_DEPOT</v>
+      </c>
+      <c r="B535" t="str">
+        <f t="shared" si="20"/>
+        <v>49-27</v>
+      </c>
+      <c r="C535" t="s">
+        <v>234</v>
+      </c>
+      <c r="G535">
+        <v>49</v>
+      </c>
+      <c r="H535">
+        <v>27</v>
+      </c>
+      <c r="K535">
+        <v>122522</v>
+      </c>
+      <c r="L535">
+        <v>113522</v>
+      </c>
+      <c r="M535" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A536" t="str">
+        <f t="shared" si="19"/>
+        <v>113522_113602_DEPOT</v>
+      </c>
+      <c r="B536" t="str">
+        <f t="shared" si="20"/>
+        <v>52-25</v>
+      </c>
+      <c r="C536" t="s">
+        <v>234</v>
+      </c>
+      <c r="G536">
+        <v>52</v>
+      </c>
+      <c r="H536">
+        <v>25</v>
+      </c>
+      <c r="K536">
+        <v>113522</v>
+      </c>
+      <c r="L536">
+        <v>113602</v>
+      </c>
+      <c r="M536" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A537" t="str">
+        <f t="shared" si="19"/>
+        <v>113602_113302_DEPOT</v>
+      </c>
+      <c r="B537" t="str">
+        <f t="shared" si="20"/>
+        <v>56-25</v>
+      </c>
+      <c r="C537" t="s">
+        <v>234</v>
+      </c>
+      <c r="G537">
+        <v>56</v>
+      </c>
+      <c r="H537">
+        <v>25</v>
+      </c>
+      <c r="K537">
+        <v>113602</v>
+      </c>
+      <c r="L537">
+        <v>113302</v>
+      </c>
+      <c r="M537" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A538" t="str">
+        <f t="shared" si="19"/>
+        <v>113302_51602_DEPOT</v>
+      </c>
+      <c r="B538" t="str">
+        <f t="shared" si="20"/>
+        <v>58-25</v>
+      </c>
+      <c r="C538" t="s">
+        <v>234</v>
+      </c>
+      <c r="G538">
+        <v>58</v>
+      </c>
+      <c r="H538">
+        <v>25</v>
+      </c>
+      <c r="K538">
+        <v>113302</v>
+      </c>
+      <c r="L538">
+        <v>51602</v>
+      </c>
+      <c r="M538" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A539" t="str">
+        <f t="shared" si="19"/>
+        <v>51602_51502_DEPOT</v>
+      </c>
+      <c r="B539" t="str">
+        <f t="shared" si="20"/>
+        <v>60-25</v>
+      </c>
+      <c r="C539" t="s">
+        <v>234</v>
+      </c>
+      <c r="G539">
+        <v>60</v>
+      </c>
+      <c r="H539">
+        <v>25</v>
+      </c>
+      <c r="K539">
+        <v>51602</v>
+      </c>
+      <c r="L539">
+        <v>51502</v>
+      </c>
+      <c r="M539" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A540" t="str">
+        <f t="shared" si="19"/>
+        <v>51502_574202_DEPOT</v>
+      </c>
+      <c r="B540" t="str">
+        <f t="shared" si="20"/>
+        <v>62-25</v>
+      </c>
+      <c r="C540" t="s">
+        <v>234</v>
+      </c>
+      <c r="D540" t="s">
+        <v>243</v>
+      </c>
+      <c r="G540">
+        <v>62</v>
+      </c>
+      <c r="H540">
+        <v>25</v>
+      </c>
+      <c r="K540">
+        <v>51502</v>
+      </c>
+      <c r="L540">
+        <v>574202</v>
+      </c>
+      <c r="M540" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A541" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_574201_51501</v>
+      </c>
+      <c r="B541" t="str">
+        <f t="shared" si="20"/>
+        <v>62-24</v>
+      </c>
+      <c r="C541" t="s">
+        <v>235</v>
+      </c>
+      <c r="D541" t="s">
+        <v>243</v>
+      </c>
+      <c r="G541">
+        <v>62</v>
+      </c>
+      <c r="H541">
+        <v>24</v>
+      </c>
+      <c r="K541" t="s">
+        <v>121</v>
+      </c>
+      <c r="L541">
+        <v>574201</v>
+      </c>
+      <c r="M541">
+        <v>51501</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A542" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_51501_51601</v>
+      </c>
+      <c r="B542" t="str">
+        <f t="shared" si="20"/>
+        <v>60-24</v>
+      </c>
+      <c r="C542" t="s">
+        <v>235</v>
+      </c>
+      <c r="G542">
+        <v>60</v>
+      </c>
+      <c r="H542">
+        <v>24</v>
+      </c>
+      <c r="K542" t="s">
+        <v>121</v>
+      </c>
+      <c r="L542">
+        <v>51501</v>
+      </c>
+      <c r="M542">
+        <v>51601</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A543" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_51601_113301</v>
+      </c>
+      <c r="B543" t="str">
+        <f t="shared" si="20"/>
+        <v>58-24</v>
+      </c>
+      <c r="C543" t="s">
+        <v>235</v>
+      </c>
+      <c r="G543">
+        <v>58</v>
+      </c>
+      <c r="H543">
+        <v>24</v>
+      </c>
+      <c r="K543" t="s">
+        <v>121</v>
+      </c>
+      <c r="L543">
+        <v>51601</v>
+      </c>
+      <c r="M543">
+        <v>113301</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A544" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_113301_113601</v>
+      </c>
+      <c r="B544" t="str">
+        <f t="shared" si="20"/>
+        <v>56-24</v>
+      </c>
+      <c r="C544" t="s">
+        <v>235</v>
+      </c>
+      <c r="G544">
+        <v>56</v>
+      </c>
+      <c r="H544">
+        <v>24</v>
+      </c>
+      <c r="K544" t="s">
+        <v>121</v>
+      </c>
+      <c r="L544">
+        <v>113301</v>
+      </c>
+      <c r="M544">
+        <v>113601</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A545" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_113601_113521</v>
+      </c>
+      <c r="B545" t="str">
+        <f t="shared" si="20"/>
+        <v>52-24</v>
+      </c>
+      <c r="C545" t="s">
+        <v>235</v>
+      </c>
+      <c r="G545">
+        <v>52</v>
+      </c>
+      <c r="H545">
+        <v>24</v>
+      </c>
+      <c r="K545" t="s">
+        <v>121</v>
+      </c>
+      <c r="L545">
+        <v>113601</v>
+      </c>
+      <c r="M545">
+        <v>113521</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A546" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_113521_122521</v>
+      </c>
+      <c r="B546" t="str">
+        <f t="shared" si="20"/>
+        <v>48-26</v>
+      </c>
+      <c r="C546" t="s">
+        <v>235</v>
+      </c>
+      <c r="G546">
+        <v>48</v>
+      </c>
+      <c r="H546">
+        <v>26</v>
+      </c>
+      <c r="K546" t="s">
+        <v>121</v>
+      </c>
+      <c r="L546">
+        <v>113521</v>
+      </c>
+      <c r="M546">
+        <v>122521</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A547" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_122521_123321</v>
+      </c>
+      <c r="B547" t="str">
+        <f t="shared" si="20"/>
+        <v>46-28</v>
+      </c>
+      <c r="C547" t="s">
+        <v>235</v>
+      </c>
+      <c r="G547">
+        <v>46</v>
+      </c>
+      <c r="H547">
+        <v>28</v>
+      </c>
+      <c r="K547" t="s">
+        <v>121</v>
+      </c>
+      <c r="L547">
+        <v>122521</v>
+      </c>
+      <c r="M547">
+        <v>123321</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A548" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_123321_126021</v>
+      </c>
+      <c r="B548" t="str">
+        <f t="shared" si="20"/>
+        <v>44-29</v>
+      </c>
+      <c r="C548" t="s">
+        <v>235</v>
+      </c>
+      <c r="G548">
+        <v>44</v>
+      </c>
+      <c r="H548">
+        <v>29</v>
+      </c>
+      <c r="K548" t="s">
+        <v>121</v>
+      </c>
+      <c r="L548">
+        <v>123321</v>
+      </c>
+      <c r="M548">
+        <v>126021</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A549" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_126021_114602</v>
+      </c>
+      <c r="B549" t="str">
+        <f t="shared" si="20"/>
+        <v>42-29</v>
+      </c>
+      <c r="C549" t="s">
+        <v>235</v>
+      </c>
+      <c r="G549">
+        <v>42</v>
+      </c>
+      <c r="H549">
+        <v>29</v>
+      </c>
+      <c r="K549" t="s">
+        <v>121</v>
+      </c>
+      <c r="L549">
+        <v>126021</v>
+      </c>
+      <c r="M549">
+        <v>114602</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A550" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_114602_116822</v>
+      </c>
+      <c r="B550" t="str">
+        <f t="shared" si="20"/>
+        <v>40-29</v>
+      </c>
+      <c r="C550" t="s">
+        <v>235</v>
+      </c>
+      <c r="G550">
+        <v>40</v>
+      </c>
+      <c r="H550">
+        <v>29</v>
+      </c>
+      <c r="K550" t="s">
+        <v>121</v>
+      </c>
+      <c r="L550">
+        <v>114602</v>
+      </c>
+      <c r="M550">
+        <v>116822</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A551" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_116822_119322</v>
+      </c>
+      <c r="B551" t="str">
+        <f t="shared" si="20"/>
+        <v>37-28</v>
+      </c>
+      <c r="C551" t="s">
+        <v>235</v>
+      </c>
+      <c r="G551">
+        <v>37</v>
+      </c>
+      <c r="H551">
+        <v>28</v>
+      </c>
+      <c r="K551" t="s">
+        <v>121</v>
+      </c>
+      <c r="L551">
+        <v>116822</v>
+      </c>
+      <c r="M551">
+        <v>119322</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A552" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_119322_119402</v>
+      </c>
+      <c r="B552" t="str">
+        <f t="shared" si="20"/>
+        <v>37-26</v>
+      </c>
+      <c r="C552" t="s">
+        <v>235</v>
+      </c>
+      <c r="G552">
+        <v>37</v>
+      </c>
+      <c r="H552">
+        <v>26</v>
+      </c>
+      <c r="K552" t="s">
+        <v>121</v>
+      </c>
+      <c r="L552">
+        <v>119322</v>
+      </c>
+      <c r="M552">
+        <v>119402</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A553" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_119402_116022</v>
+      </c>
+      <c r="B553" t="str">
+        <f t="shared" si="20"/>
+        <v>37-22</v>
+      </c>
+      <c r="C553" t="s">
+        <v>235</v>
+      </c>
+      <c r="G553">
+        <v>37</v>
+      </c>
+      <c r="H553">
+        <v>22</v>
+      </c>
+      <c r="K553" t="s">
+        <v>121</v>
+      </c>
+      <c r="L553">
+        <v>119402</v>
+      </c>
+      <c r="M553">
+        <v>116022</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A554" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_116022_133002</v>
+      </c>
+      <c r="B554" t="str">
+        <f t="shared" si="20"/>
+        <v>37-20</v>
+      </c>
+      <c r="C554" t="s">
+        <v>235</v>
+      </c>
+      <c r="G554">
+        <v>37</v>
+      </c>
+      <c r="H554">
+        <v>20</v>
+      </c>
+      <c r="K554" t="s">
+        <v>121</v>
+      </c>
+      <c r="L554">
+        <v>116022</v>
+      </c>
+      <c r="M554">
+        <v>133002</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A555" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_133002_133102</v>
+      </c>
+      <c r="B555" t="str">
+        <f t="shared" si="20"/>
+        <v>39-15</v>
+      </c>
+      <c r="C555" t="s">
+        <v>235</v>
+      </c>
+      <c r="G555">
+        <v>39</v>
+      </c>
+      <c r="H555">
+        <v>15</v>
+      </c>
+      <c r="K555" t="s">
+        <v>121</v>
+      </c>
+      <c r="L555">
+        <v>133002</v>
+      </c>
+      <c r="M555">
+        <v>133102</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A556" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_133102_118002</v>
+      </c>
+      <c r="B556" t="str">
+        <f t="shared" si="20"/>
+        <v>41-13</v>
+      </c>
+      <c r="C556" t="s">
+        <v>235</v>
+      </c>
+      <c r="G556">
+        <v>41</v>
+      </c>
+      <c r="H556">
+        <v>13</v>
+      </c>
+      <c r="K556" t="s">
+        <v>121</v>
+      </c>
+      <c r="L556">
+        <v>133102</v>
+      </c>
+      <c r="M556">
+        <v>118002</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A557" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_118002_169302</v>
+      </c>
+      <c r="B557" t="str">
+        <f t="shared" si="20"/>
+        <v>43-11</v>
+      </c>
+      <c r="C557" t="s">
+        <v>235</v>
+      </c>
+      <c r="G557">
+        <v>43</v>
+      </c>
+      <c r="H557">
+        <v>11</v>
+      </c>
+      <c r="K557" t="s">
+        <v>121</v>
+      </c>
+      <c r="L557">
+        <v>118002</v>
+      </c>
+      <c r="M557">
+        <v>169302</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A558" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_169302_130202</v>
+      </c>
+      <c r="B558" t="str">
+        <f t="shared" si="20"/>
+        <v>45-9</v>
+      </c>
+      <c r="C558" t="s">
+        <v>235</v>
+      </c>
+      <c r="G558">
+        <v>45</v>
+      </c>
+      <c r="H558">
+        <v>9</v>
+      </c>
+      <c r="K558" t="s">
+        <v>121</v>
+      </c>
+      <c r="L558">
+        <v>169302</v>
+      </c>
+      <c r="M558">
+        <v>130202</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A559" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_130202_130402</v>
+      </c>
+      <c r="B559" t="str">
+        <f t="shared" si="20"/>
+        <v>47-7</v>
+      </c>
+      <c r="C559" t="s">
+        <v>235</v>
+      </c>
+      <c r="G559">
+        <v>47</v>
+      </c>
+      <c r="H559">
+        <v>7</v>
+      </c>
+      <c r="K559" t="s">
+        <v>121</v>
+      </c>
+      <c r="L559">
+        <v>130202</v>
+      </c>
+      <c r="M559">
+        <v>130402</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A560" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_130402_61901</v>
+      </c>
+      <c r="B560" t="str">
+        <f t="shared" si="20"/>
+        <v>49-5</v>
+      </c>
+      <c r="C560" t="s">
+        <v>235</v>
+      </c>
+      <c r="D560" t="s">
+        <v>241</v>
+      </c>
+      <c r="G560">
+        <v>49</v>
+      </c>
+      <c r="H560">
+        <v>5</v>
+      </c>
+      <c r="K560" t="s">
+        <v>121</v>
+      </c>
+      <c r="L560">
+        <v>130402</v>
+      </c>
+      <c r="M560">
+        <v>61901</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A561" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_61902_130401</v>
+      </c>
+      <c r="B561" t="str">
+        <f t="shared" si="20"/>
+        <v>49-2</v>
+      </c>
+      <c r="C561" t="s">
+        <v>236</v>
+      </c>
+      <c r="D561" t="s">
+        <v>242</v>
+      </c>
+      <c r="G561">
+        <v>49</v>
+      </c>
+      <c r="H561">
+        <v>2</v>
+      </c>
+      <c r="K561" t="s">
+        <v>121</v>
+      </c>
+      <c r="L561">
+        <v>61902</v>
+      </c>
+      <c r="M561">
+        <v>130401</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A562" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_130401_130201</v>
+      </c>
+      <c r="B562" t="str">
+        <f t="shared" si="20"/>
+        <v>48-4</v>
+      </c>
+      <c r="C562" t="s">
+        <v>236</v>
+      </c>
+      <c r="G562">
+        <v>48</v>
+      </c>
+      <c r="H562">
+        <v>4</v>
+      </c>
+      <c r="K562" t="s">
+        <v>121</v>
+      </c>
+      <c r="L562">
+        <v>130401</v>
+      </c>
+      <c r="M562">
+        <v>130201</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A563" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_130201_169301</v>
+      </c>
+      <c r="B563" t="str">
+        <f t="shared" si="20"/>
+        <v>46-6</v>
+      </c>
+      <c r="C563" t="s">
+        <v>236</v>
+      </c>
+      <c r="G563">
+        <v>46</v>
+      </c>
+      <c r="H563">
+        <v>6</v>
+      </c>
+      <c r="K563" t="s">
+        <v>121</v>
+      </c>
+      <c r="L563">
+        <v>130201</v>
+      </c>
+      <c r="M563">
+        <v>169301</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A564" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_169301_118001</v>
+      </c>
+      <c r="B564" t="str">
+        <f t="shared" si="20"/>
+        <v>44-8</v>
+      </c>
+      <c r="C564" t="s">
+        <v>236</v>
+      </c>
+      <c r="G564">
+        <v>44</v>
+      </c>
+      <c r="H564">
+        <v>8</v>
+      </c>
+      <c r="K564" t="s">
+        <v>121</v>
+      </c>
+      <c r="L564">
+        <v>169301</v>
+      </c>
+      <c r="M564">
+        <v>118001</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A565" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_118001_133101</v>
+      </c>
+      <c r="B565" t="str">
+        <f t="shared" si="20"/>
+        <v>42-10</v>
+      </c>
+      <c r="C565" t="s">
+        <v>236</v>
+      </c>
+      <c r="G565">
+        <v>42</v>
+      </c>
+      <c r="H565">
+        <v>10</v>
+      </c>
+      <c r="K565" t="s">
+        <v>121</v>
+      </c>
+      <c r="L565">
+        <v>118001</v>
+      </c>
+      <c r="M565">
+        <v>133101</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A566" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_133101_133001</v>
+      </c>
+      <c r="B566" t="str">
+        <f t="shared" si="20"/>
+        <v>40-12</v>
+      </c>
+      <c r="C566" t="s">
+        <v>236</v>
+      </c>
+      <c r="G566">
+        <v>40</v>
+      </c>
+      <c r="H566">
+        <v>12</v>
+      </c>
+      <c r="K566" t="s">
+        <v>121</v>
+      </c>
+      <c r="L566">
+        <v>133101</v>
+      </c>
+      <c r="M566">
+        <v>133001</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A567" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_133001_116021</v>
+      </c>
+      <c r="B567" t="str">
+        <f t="shared" si="20"/>
+        <v>38-14</v>
+      </c>
+      <c r="C567" t="s">
+        <v>236</v>
+      </c>
+      <c r="G567">
+        <v>38</v>
+      </c>
+      <c r="H567">
+        <v>14</v>
+      </c>
+      <c r="K567" t="s">
+        <v>121</v>
+      </c>
+      <c r="L567">
+        <v>133001</v>
+      </c>
+      <c r="M567">
+        <v>116021</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A568" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_116021_119421</v>
+      </c>
+      <c r="B568" t="str">
+        <f t="shared" si="20"/>
+        <v>36-20</v>
+      </c>
+      <c r="C568" t="s">
+        <v>236</v>
+      </c>
+      <c r="G568">
+        <v>36</v>
+      </c>
+      <c r="H568">
+        <v>20</v>
+      </c>
+      <c r="K568" t="s">
+        <v>121</v>
+      </c>
+      <c r="L568">
+        <v>116021</v>
+      </c>
+      <c r="M568">
+        <v>119421</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A569" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_119421_119321</v>
+      </c>
+      <c r="B569" t="str">
+        <f t="shared" si="20"/>
+        <v>36-22</v>
+      </c>
+      <c r="C569" t="s">
+        <v>236</v>
+      </c>
+      <c r="G569">
+        <v>36</v>
+      </c>
+      <c r="H569">
+        <v>22</v>
+      </c>
+      <c r="K569" t="s">
+        <v>121</v>
+      </c>
+      <c r="L569">
+        <v>119421</v>
+      </c>
+      <c r="M569">
+        <v>119321</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A570" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_119321_116821</v>
+      </c>
+      <c r="B570" t="str">
+        <f t="shared" si="20"/>
+        <v>36-26</v>
+      </c>
+      <c r="C570" t="s">
+        <v>236</v>
+      </c>
+      <c r="G570">
+        <v>36</v>
+      </c>
+      <c r="H570">
+        <v>26</v>
+      </c>
+      <c r="K570" t="s">
+        <v>121</v>
+      </c>
+      <c r="L570">
+        <v>119321</v>
+      </c>
+      <c r="M570">
+        <v>116821</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A571" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_116821_114601</v>
+      </c>
+      <c r="B571" t="str">
+        <f t="shared" si="20"/>
+        <v>36-28</v>
+      </c>
+      <c r="C571" t="s">
+        <v>236</v>
+      </c>
+      <c r="G571">
+        <v>36</v>
+      </c>
+      <c r="H571">
+        <v>28</v>
+      </c>
+      <c r="K571" t="s">
+        <v>121</v>
+      </c>
+      <c r="L571">
+        <v>116821</v>
+      </c>
+      <c r="M571">
+        <v>114601</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A572" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_114601_126022</v>
+      </c>
+      <c r="B572" t="str">
+        <f t="shared" si="20"/>
+        <v>40-30</v>
+      </c>
+      <c r="C572" t="s">
+        <v>236</v>
+      </c>
+      <c r="G572">
+        <v>40</v>
+      </c>
+      <c r="H572">
+        <v>30</v>
+      </c>
+      <c r="K572" t="s">
+        <v>121</v>
+      </c>
+      <c r="L572">
+        <v>114601</v>
+      </c>
+      <c r="M572">
+        <v>126022</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A573" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_126022_123322</v>
+      </c>
+      <c r="B573" t="str">
+        <f t="shared" si="20"/>
+        <v>42-30</v>
+      </c>
+      <c r="C573" t="s">
+        <v>236</v>
+      </c>
+      <c r="G573">
+        <v>42</v>
+      </c>
+      <c r="H573">
+        <v>30</v>
+      </c>
+      <c r="K573" t="s">
+        <v>121</v>
+      </c>
+      <c r="L573">
+        <v>126022</v>
+      </c>
+      <c r="M573">
+        <v>123322</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A574" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_123322_122522</v>
+      </c>
+      <c r="B574" t="str">
+        <f t="shared" si="20"/>
+        <v>44-30</v>
+      </c>
+      <c r="C574" t="s">
+        <v>236</v>
+      </c>
+      <c r="G574">
+        <v>44</v>
+      </c>
+      <c r="H574">
+        <v>30</v>
+      </c>
+      <c r="K574" t="s">
+        <v>121</v>
+      </c>
+      <c r="L574">
+        <v>123322</v>
+      </c>
+      <c r="M574">
+        <v>122522</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A575" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_122522_113522</v>
+      </c>
+      <c r="B575" t="str">
+        <f t="shared" si="20"/>
+        <v>47-29</v>
+      </c>
+      <c r="C575" t="s">
+        <v>236</v>
+      </c>
+      <c r="G575">
+        <v>47</v>
+      </c>
+      <c r="H575">
+        <v>29</v>
+      </c>
+      <c r="K575" t="s">
+        <v>121</v>
+      </c>
+      <c r="L575">
+        <v>122522</v>
+      </c>
+      <c r="M575">
+        <v>113522</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A576" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_113522_113602</v>
+      </c>
+      <c r="B576" t="str">
+        <f t="shared" si="20"/>
+        <v>49-27</v>
+      </c>
+      <c r="C576" t="s">
+        <v>236</v>
+      </c>
+      <c r="G576">
+        <v>49</v>
+      </c>
+      <c r="H576">
+        <v>27</v>
+      </c>
+      <c r="K576" t="s">
+        <v>121</v>
+      </c>
+      <c r="L576">
+        <v>113522</v>
+      </c>
+      <c r="M576">
+        <v>113602</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A577" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_113602_113302</v>
+      </c>
+      <c r="B577" t="str">
+        <f t="shared" si="20"/>
+        <v>52-25</v>
+      </c>
+      <c r="C577" t="s">
+        <v>236</v>
+      </c>
+      <c r="G577">
+        <v>52</v>
+      </c>
+      <c r="H577">
+        <v>25</v>
+      </c>
+      <c r="K577" t="s">
+        <v>121</v>
+      </c>
+      <c r="L577">
+        <v>113602</v>
+      </c>
+      <c r="M577">
+        <v>113302</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A578" t="str">
+        <f t="shared" si="19"/>
+        <v>DEPOT_113302_51602</v>
+      </c>
+      <c r="B578" t="str">
+        <f t="shared" si="20"/>
+        <v>56-25</v>
+      </c>
+      <c r="C578" t="s">
+        <v>236</v>
+      </c>
+      <c r="G578">
+        <v>56</v>
+      </c>
+      <c r="H578">
+        <v>25</v>
+      </c>
+      <c r="K578" t="s">
+        <v>121</v>
+      </c>
+      <c r="L578">
+        <v>113302</v>
+      </c>
+      <c r="M578">
+        <v>51602</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A579" t="str">
+        <f t="shared" ref="A579:A580" si="21">_xlfn.CONCAT(K579,"_",L579,"_",M579)</f>
+        <v>DEPOT_51602_51502</v>
+      </c>
+      <c r="B579" t="str">
+        <f t="shared" si="20"/>
+        <v>58-25</v>
+      </c>
+      <c r="C579" t="s">
+        <v>236</v>
+      </c>
+      <c r="G579">
+        <v>58</v>
+      </c>
+      <c r="H579">
+        <v>25</v>
+      </c>
+      <c r="K579" t="s">
+        <v>121</v>
+      </c>
+      <c r="L579">
+        <v>51602</v>
+      </c>
+      <c r="M579">
+        <v>51502</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A580" t="str">
+        <f t="shared" si="21"/>
+        <v>DEPOT_51502_574202</v>
+      </c>
+      <c r="B580" t="str">
+        <f t="shared" si="20"/>
+        <v>60-25</v>
+      </c>
+      <c r="C580" t="s">
+        <v>236</v>
+      </c>
+      <c r="D580" t="s">
+        <v>240</v>
+      </c>
+      <c r="G580">
+        <v>60</v>
+      </c>
+      <c r="H580">
+        <v>25</v>
+      </c>
+      <c r="K580" t="s">
+        <v>121</v>
+      </c>
+      <c r="L580">
+        <v>51502</v>
+      </c>
+      <c r="M580">
+        <v>574202</v>
       </c>
     </row>
   </sheetData>
